--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="416">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,36 @@
     <t>visible</t>
   </si>
   <si>
+    <t>Pasture Raised Pork</t>
+  </si>
+  <si>
+    <t>Pork Chop, Bone-in</t>
+  </si>
+  <si>
+    <t>1.20 - 1.50 lbs</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Our Heritage Pork Chops are the king of pork cuts – tender, juicy, and packed with flavor that’s perfect for any occasion. Whether it’s a dinner for two or a personal treat, these chops deliver a satisfying, melt-in-your-mouth experience. Raised on open pastures and oak woodlands, our heritage hogs enjoy a natural diet of dairy, hazelnuts, and custom-milled grains, producing high-quality, flavorful meat that’s consistently praised throughout the Willamette Valley. For a foolproof cooking method, check out our blog for the perfect pork chop recipe!</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Honey Nuts, &amp; Fruit</t>
   </si>
   <si>
@@ -70,21 +100,12 @@
     <t>1/2 pint</t>
   </si>
   <si>
-    <t>17.00</t>
-  </si>
-  <si>
     <t>each</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Deep amber in color and always raw, these bees feast on clover, berries, and native flowers. The resulting product is distinct to the Willamette Valley, thick, sweet, and potent. We use honey as a healthful substitute to processed sugars.</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Raw Honey, 1 pint</t>
   </si>
   <si>
@@ -133,9 +154,6 @@
     <t>10.50</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
     <t>Beef Back Ribs</t>
   </si>
   <si>
@@ -172,9 +190,6 @@
     <t>Beef Marrow Bones</t>
   </si>
   <si>
-    <t>3.00 - 3.50 lbs</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -397,9 +412,6 @@
     <t>19.50</t>
   </si>
   <si>
-    <t>1.20</t>
-  </si>
-  <si>
     <t>Unlike American and European-style short ribs, which include a thick slice of bone-in beef, Korean-style short ribs are cut lengthwise across the rib bones. The result is a thin strip of meat, about 8 to10 inches in length, lined on 1 side with 1/2-inch thick rib bones. "Galbi" is the Korean word for "rib", and the dish is usually made with beef short ribs.</t>
   </si>
   <si>
@@ -526,9 +538,6 @@
     <t>Our Grass-Fed Beef Tallow (Unrendered) from Deck Family Farm is a versatile, nutrient-rich product for home cooks and DIY enthusiasts. Unrendered tallow is raw, allowing you to render it yourself for cooking, skincare, or soap-making. It comes directly from our pasture-raised cattle, ensuring a high-quality, natural fat source with a clean, rich flavor</t>
   </si>
   <si>
-    <t>Pasture Raised Pork</t>
-  </si>
-  <si>
     <t>Pork Side</t>
   </si>
   <si>
@@ -541,9 +550,6 @@
     <t>0.90 - 1.50 lbs</t>
   </si>
   <si>
-    <t>1.50</t>
-  </si>
-  <si>
     <t>Our Heritage Baby Back Ribs come from hogs raised in open pastures and oak woodlands, where they roam freely and enjoy a natural diet of dairy, hazelnuts, and custom-milled grains. These “baby” ribs are shorter than spare ribs, typically around 6 inches at the longest end, tapering down to about 3 inches on the shorter end, with a rich layer of loin meat on top. The result is tender, flavorful meat with exceptional marbling, prized for its deep, complex taste. Raised on our family farms with a focus on sustainability and animal welfare, our heritage pork produce a high-quality rib that’s perfect for grilling, slow cooking, or roasting.</t>
   </si>
   <si>
@@ -556,12 +562,6 @@
     <t>Pork Chop, Boneless</t>
   </si>
   <si>
-    <t>1.20 - 1.50 lbs</t>
-  </si>
-  <si>
-    <t>Our Heritage Pork Chops are the king of pork cuts – tender, juicy, and packed with flavor that’s perfect for any occasion. Whether it’s a dinner for two or a personal treat, these chops deliver a satisfying, melt-in-your-mouth experience. Raised on open pastures and oak woodlands, our heritage hogs enjoy a natural diet of dairy, hazelnuts, and custom-milled grains, producing high-quality, flavorful meat that’s consistently praised throughout the Willamette Valley. For a foolproof cooking method, check out our blog for the perfect pork chop recipe!</t>
-  </si>
-  <si>
     <t>Ground Pork</t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>Our Pork Frankfurters are crafted with tender pork shoulder from Deck Family Farm’s 100% pasture-raised heritage hogs. Made artisanally by our Pasture Network partner, Olympia Provisions, these sausages come in a package of four, foot-long links encased in natural lamb casings. Smoked with a blend of hickory and apple wood, they deliver a rich, smoky flavor. Our heritage hogs roam open pastures and oak woodlands, enjoying a diet of dairy, hazelnuts, and custom-milled grains, resulting in high-quality, flavorful meat that consistently garners praise across the Willamette Valley. Perfect for grilling or a satisfying meal!</t>
   </si>
   <si>
-    <t>Olympia Provisions Saucisson D'Arles</t>
+    <t>Olympia Provisions Saucisson D'Arles Salami</t>
   </si>
   <si>
     <t>4.5 oz</t>
@@ -997,7 +997,7 @@
     <t>Introducing the newly re-designed Olympia Provisions Dog Treats! These protein-packed meaty sausages are made of 100% pure pork. Not only will they fuel your dog for its next adventure, but they help OP minimize waste in the meat industry.</t>
   </si>
   <si>
-    <t>Olympia Provisions, Rosette D'Oregon</t>
+    <t>Olympia Provisions, Rosette D'Oregon Salami</t>
   </si>
   <si>
     <t>Another excellent cured meat product from our partners at Olympia Provisions. Flavor profile of sea salt, red wine, rosemary, and juniper. A delicious addition to any charcuterie board.</t>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>Lamb Merguez Sausage Links</t>
+  </si>
+  <si>
+    <t>4 links/pack 14 oz pack</t>
   </si>
   <si>
     <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.</t>
@@ -1243,6 +1246,21 @@
   </si>
   <si>
     <t>Description:   With a blend of our pasture-raised pork and beef, these pepperoni snack sticks are a perfect balance of spicy, smoky, and satisfying. Perfect for on the trail, the open road, or browsing your local farmer’s market!  Ingredients:   Pork, Beef, Sea Salt, Contains 2% or less of the following: Spices, Jalepeno Peppers, Yeast, Cultured Celery Powder, Paprika, Chili Powder (Chili Pepper, Salt, Spices, Garlic), Fennel Seed, Cayenne Pepper, Anise Seed, Turbinado Sugar, Granulated Garlic, Packed in Collagen.    6oz Packages</t>
+  </si>
+  <si>
+    <t>Lamb Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pack, 0.8 - 1.1 lbs	</t>
+  </si>
+  <si>
+    <t>Lamb heart is a muscle like other cuts of steak, but it is more dense with a higher nutrient content and additional protein. Lamb heart contains all essential amino acids, zinc, selenium and phosphorus. It has more than double the elastin and collagen than other cuts of meat and a highly concentrated source of coenzyme Q10, also known as CoQ10. Mix your lamb heart into ground lamb, stews, skewers, cut and grilled as a steak, make it into jerky, or cook it into a delicious gumbo!</t>
+  </si>
+  <si>
+    <t>Salami de Ouvrier</t>
+  </si>
+  <si>
+    <t>This salami is a true celebration of Oregon! Deck Family Farm pasture-raised pork, Pinot Noir from the Willamette Valley, juniper, rosemary, and Jacobsen Sea Salt. A smooth, soft texture with a tangy acidity, balanced with an umami-rich fattiness.</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P132"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1674,13 +1692,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>935678</v>
+        <v>935740</v>
       </c>
       <c r="C2">
-        <v>688981</v>
+        <v>689050</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1694,301 +1712,301 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>936212</v>
+        <v>935678</v>
       </c>
       <c r="C3">
-        <v>689596</v>
+        <v>688981</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O3">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>936213</v>
+        <v>936212</v>
       </c>
       <c r="C4">
-        <v>689597</v>
+        <v>689596</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>935680</v>
+        <v>936213</v>
       </c>
       <c r="C5">
-        <v>688986</v>
+        <v>689597</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>936214</v>
+        <v>935680</v>
       </c>
       <c r="C6">
-        <v>689598</v>
+        <v>688986</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>936214</v>
+      </c>
+      <c r="C7">
+        <v>689598</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>935682</v>
-      </c>
-      <c r="C8">
-        <v>688989</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>935684</v>
+        <v>935682</v>
       </c>
       <c r="C9">
-        <v>688991</v>
+        <v>688989</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -2000,345 +2018,345 @@
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" t="s">
         <v>23</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>935686</v>
+        <v>935684</v>
       </c>
       <c r="C10">
-        <v>688993</v>
+        <v>688991</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>935688</v>
+        <v>935686</v>
       </c>
       <c r="C11">
-        <v>688995</v>
+        <v>688993</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
       </c>
       <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
         <v>61</v>
       </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
-      </c>
       <c r="N11" t="s">
         <v>23</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>936218</v>
+        <v>935688</v>
       </c>
       <c r="C12">
-        <v>689601</v>
+        <v>688995</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>936219</v>
+        <v>936218</v>
       </c>
       <c r="C13">
-        <v>689603</v>
+        <v>689601</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>935691</v>
+        <v>936219</v>
       </c>
       <c r="C14">
-        <v>689000</v>
+        <v>689603</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>935692</v>
+        <v>935691</v>
       </c>
       <c r="C15">
-        <v>689001</v>
+        <v>689000</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
         <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>935694</v>
+        <v>935692</v>
       </c>
       <c r="C16">
-        <v>689003</v>
+        <v>689001</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>78</v>
@@ -2347,198 +2365,198 @@
         <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
         <v>23</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>935696</v>
+        <v>935694</v>
       </c>
       <c r="C17">
-        <v>689005</v>
+        <v>689003</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
         <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>935698</v>
+        <v>935696</v>
       </c>
       <c r="C18">
-        <v>689007</v>
+        <v>689005</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>935700</v>
+        <v>935698</v>
       </c>
       <c r="C19">
-        <v>689009</v>
+        <v>689007</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
         <v>93</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>935702</v>
+        <v>935700</v>
       </c>
       <c r="C20">
-        <v>689011</v>
+        <v>689009</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>94</v>
@@ -2547,22 +2565,22 @@
         <v>95</v>
       </c>
       <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
         <v>96</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>97</v>
       </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
         <v>98</v>
@@ -2574,21 +2592,21 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>935703</v>
+        <v>935702</v>
       </c>
       <c r="C21">
-        <v>689012</v>
+        <v>689011</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
@@ -2597,72 +2615,72 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>935705</v>
+        <v>935703</v>
       </c>
       <c r="C22">
-        <v>689014</v>
+        <v>689012</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
         <v>107</v>
@@ -2671,24 +2689,24 @@
         <v>23</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>935707</v>
+        <v>935705</v>
       </c>
       <c r="C23">
-        <v>689016</v>
+        <v>689014</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -2697,72 +2715,72 @@
         <v>109</v>
       </c>
       <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
         <v>110</v>
       </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>935709</v>
+        <v>935707</v>
       </c>
       <c r="C24">
-        <v>689018</v>
+        <v>689016</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
         <v>116</v>
@@ -2771,24 +2789,24 @@
         <v>23</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>935711</v>
+        <v>935709</v>
       </c>
       <c r="C25">
-        <v>689020</v>
+        <v>689018</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>117</v>
@@ -2800,119 +2818,119 @@
         <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>935712</v>
+        <v>935711</v>
       </c>
       <c r="C26">
-        <v>689025</v>
+        <v>689020</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N26" t="s">
         <v>23</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>935717</v>
+        <v>935712</v>
       </c>
       <c r="C27">
-        <v>689026</v>
+        <v>689025</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
         <v>129</v>
@@ -2921,24 +2939,24 @@
         <v>23</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>935719</v>
+        <v>935717</v>
       </c>
       <c r="C28">
-        <v>689028</v>
+        <v>689026</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>130</v>
@@ -2947,48 +2965,48 @@
         <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
         <v>133</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>935721</v>
+        <v>935719</v>
       </c>
       <c r="C29">
-        <v>689030</v>
+        <v>689028</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>134</v>
@@ -2997,48 +3015,48 @@
         <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s">
         <v>136</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M29" t="s">
         <v>137</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>935723</v>
+        <v>935721</v>
       </c>
       <c r="C30">
-        <v>689032</v>
+        <v>689030</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
         <v>138</v>
@@ -3047,48 +3065,48 @@
         <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
         <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
         <v>141</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>936223</v>
+        <v>935723</v>
       </c>
       <c r="C31">
-        <v>689607</v>
+        <v>689032</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
@@ -3097,25 +3115,25 @@
         <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N31" t="s">
         <v>23</v>
@@ -3124,49 +3142,49 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>935725</v>
+        <v>936223</v>
       </c>
       <c r="C32">
-        <v>689035</v>
+        <v>689607</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
         <v>145</v>
       </c>
-      <c r="G32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" t="s">
-        <v>147</v>
-      </c>
       <c r="N32" t="s">
         <v>23</v>
       </c>
@@ -3174,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>935726</v>
+        <v>935725</v>
       </c>
       <c r="C33">
-        <v>689036</v>
+        <v>689035</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
         <v>148</v>
@@ -3200,19 +3218,19 @@
         <v>150</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
         <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
         <v>151</v>
@@ -3221,51 +3239,51 @@
         <v>23</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>935728</v>
+        <v>935726</v>
       </c>
       <c r="C34">
-        <v>689038</v>
+        <v>689036</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
         <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N34" t="s">
         <v>23</v>
@@ -3274,121 +3292,121 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>935730</v>
+        <v>935728</v>
       </c>
       <c r="C35">
-        <v>689040</v>
+        <v>689038</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
         <v>96</v>
       </c>
-      <c r="H35" t="s">
-        <v>97</v>
-      </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N35" t="s">
         <v>23</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>935732</v>
+        <v>935730</v>
       </c>
       <c r="C36">
-        <v>689042</v>
+        <v>689040</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s">
         <v>160</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>935734</v>
+        <v>935732</v>
       </c>
       <c r="C37">
-        <v>689044</v>
+        <v>689042</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
         <v>161</v>
@@ -3397,104 +3415,116 @@
         <v>162</v>
       </c>
       <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
         <v>163</v>
       </c>
-      <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
         <v>164</v>
       </c>
-      <c r="J37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" t="s">
-        <v>165</v>
-      </c>
       <c r="N37" t="s">
         <v>23</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>935735</v>
+        <v>935734</v>
       </c>
       <c r="C38">
-        <v>689045</v>
+        <v>689044</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" t="s">
         <v>166</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>167</v>
       </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
       <c r="H38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" t="s">
         <v>168</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
         <v>169</v>
       </c>
-      <c r="J38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" t="s">
-        <v>170</v>
-      </c>
       <c r="N38" t="s">
         <v>23</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>935735</v>
+      </c>
+      <c r="C39">
+        <v>689045</v>
       </c>
       <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
         <v>171</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
         <v>172</v>
       </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>84</v>
+      <c r="I39" t="s">
+        <v>173</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3503,807 +3533,795 @@
         <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>935737</v>
-      </c>
-      <c r="C40">
-        <v>689047</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="s">
         <v>176</v>
       </c>
-      <c r="J40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" t="s">
-        <v>177</v>
-      </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>935739</v>
+        <v>935737</v>
       </c>
       <c r="C41">
-        <v>689049</v>
+        <v>689047</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
         <v>178</v>
       </c>
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
         <v>179</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>935740</v>
+        <v>935739</v>
       </c>
       <c r="C42">
-        <v>689050</v>
+        <v>689049</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
         <v>180</v>
       </c>
       <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
         <v>181</v>
       </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="s">
-        <v>182</v>
-      </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>935742</v>
+        <v>935740</v>
       </c>
       <c r="C43">
-        <v>689052</v>
+        <v>689050</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>935744</v>
+        <v>935742</v>
       </c>
       <c r="C44">
-        <v>689054</v>
+        <v>689052</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>935745</v>
+        <v>935744</v>
       </c>
       <c r="C45">
-        <v>689055</v>
+        <v>689054</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>935747</v>
+        <v>935745</v>
       </c>
       <c r="C46">
-        <v>689057</v>
+        <v>689055</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>936224</v>
+        <v>935747</v>
       </c>
       <c r="C47">
-        <v>689608</v>
+        <v>689057</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
         <v>194</v>
       </c>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>935749</v>
+        <v>936224</v>
       </c>
       <c r="C48">
-        <v>689061</v>
+        <v>689608</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>935750</v>
+        <v>935749</v>
       </c>
       <c r="C49">
-        <v>689062</v>
+        <v>689061</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
         <v>200</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>935752</v>
+        <v>935750</v>
       </c>
       <c r="C50">
-        <v>689064</v>
+        <v>689062</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>936225</v>
+        <v>935752</v>
       </c>
       <c r="C51">
-        <v>689609</v>
+        <v>689064</v>
       </c>
       <c r="D51" t="s">
         <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="H51" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M51" t="s">
         <v>208</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>935754</v>
+        <v>936225</v>
       </c>
       <c r="C52">
-        <v>689067</v>
+        <v>689609</v>
       </c>
       <c r="D52" t="s">
         <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="H52" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>935756</v>
+        <v>935754</v>
       </c>
       <c r="C53">
-        <v>689069</v>
+        <v>689067</v>
       </c>
       <c r="D53" t="s">
         <v>205</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
         <v>212</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>935757</v>
+        <v>935756</v>
       </c>
       <c r="C54">
-        <v>689070</v>
+        <v>689069</v>
       </c>
       <c r="D54" t="s">
         <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G54" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s">
         <v>97</v>
       </c>
-      <c r="H54" t="s">
-        <v>218</v>
-      </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>935758</v>
+        <v>935757</v>
       </c>
       <c r="C55">
-        <v>689071</v>
+        <v>689070</v>
       </c>
       <c r="D55" t="s">
         <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="I55" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M55" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N55" t="s">
         <v>23</v>
@@ -4312,33 +4330,39 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>935758</v>
+      </c>
+      <c r="C56">
+        <v>689071</v>
       </c>
       <c r="D56" t="s">
         <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="H56" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="I56" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4347,10 +4371,10 @@
         <v>23</v>
       </c>
       <c r="M56" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4361,472 +4385,478 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>935759</v>
-      </c>
-      <c r="C57">
-        <v>689072</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
         <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="H57" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="I57" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>935760</v>
+        <v>935759</v>
       </c>
       <c r="C58">
-        <v>689073</v>
+        <v>689072</v>
       </c>
       <c r="D58" t="s">
         <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>935761</v>
+        <v>935760</v>
       </c>
       <c r="C59">
-        <v>689074</v>
+        <v>689073</v>
       </c>
       <c r="D59" t="s">
         <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="I59" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>936215</v>
+        <v>935761</v>
       </c>
       <c r="C60">
-        <v>689599</v>
+        <v>689074</v>
       </c>
       <c r="D60" t="s">
         <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M60" t="s">
         <v>237</v>
       </c>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>936216</v>
+        <v>936215</v>
       </c>
       <c r="C61">
-        <v>689600</v>
+        <v>689599</v>
       </c>
       <c r="D61" t="s">
         <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M61" t="s">
         <v>237</v>
       </c>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>935762</v>
+        <v>936216</v>
       </c>
       <c r="C62">
-        <v>689077</v>
+        <v>689600</v>
       </c>
       <c r="D62" t="s">
         <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H62" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>936217</v>
+        <v>935762</v>
       </c>
       <c r="C63">
-        <v>689602</v>
+        <v>689077</v>
       </c>
       <c r="D63" t="s">
         <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M63" t="s">
         <v>249</v>
       </c>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>936220</v>
+        <v>936217</v>
       </c>
       <c r="C64">
-        <v>689604</v>
+        <v>689602</v>
       </c>
       <c r="D64" t="s">
         <v>205</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I64" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M64" t="s">
         <v>249</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>935763</v>
+        <v>936220</v>
       </c>
       <c r="C65">
-        <v>689080</v>
+        <v>689604</v>
       </c>
       <c r="D65" t="s">
         <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M65" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>935763</v>
+      </c>
+      <c r="C66">
+        <v>689080</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>89</v>
+      </c>
+      <c r="H66" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" t="s">
+        <v>172</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4835,154 +4865,142 @@
         <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="N66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>935764</v>
-      </c>
-      <c r="C67">
-        <v>689081</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>259</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
-      </c>
-      <c r="H67" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M67" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="N67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>935679</v>
+        <v>935764</v>
       </c>
       <c r="C68">
-        <v>688982</v>
+        <v>689081</v>
       </c>
       <c r="D68" t="s">
         <v>259</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F68" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="G68" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M68" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>936221</v>
+        <v>935679</v>
       </c>
       <c r="C69">
-        <v>689605</v>
+        <v>688982</v>
       </c>
       <c r="D69" t="s">
         <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G69" t="s">
         <v>265</v>
       </c>
       <c r="H69" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M69" t="s">
         <v>266</v>
@@ -4991,451 +5009,451 @@
         <v>23</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>935681</v>
+        <v>936221</v>
       </c>
       <c r="C70">
-        <v>688987</v>
+        <v>689605</v>
       </c>
       <c r="D70" t="s">
         <v>259</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="I70" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M70" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>935683</v>
+        <v>935681</v>
       </c>
       <c r="C71">
-        <v>688990</v>
+        <v>688987</v>
       </c>
       <c r="D71" t="s">
         <v>259</v>
       </c>
       <c r="E71" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="H71" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I71" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O71">
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>935685</v>
+        <v>935683</v>
       </c>
       <c r="C72">
-        <v>688992</v>
+        <v>688990</v>
       </c>
       <c r="D72" t="s">
         <v>259</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F72" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="H72" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I72" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N72" t="s">
         <v>23</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P72" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>935687</v>
+        <v>935685</v>
       </c>
       <c r="C73">
-        <v>688994</v>
+        <v>688992</v>
       </c>
       <c r="D73" t="s">
         <v>259</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>935689</v>
+        <v>935687</v>
       </c>
       <c r="C74">
-        <v>688996</v>
+        <v>688994</v>
       </c>
       <c r="D74" t="s">
         <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="G74" t="s">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="H74" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>935690</v>
+        <v>935689</v>
       </c>
       <c r="C75">
-        <v>688999</v>
+        <v>688996</v>
       </c>
       <c r="D75" t="s">
         <v>259</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>935693</v>
+        <v>935690</v>
       </c>
       <c r="C76">
-        <v>689002</v>
+        <v>688999</v>
       </c>
       <c r="D76" t="s">
         <v>259</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F76" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="H76" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M76" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>935695</v>
+        <v>935693</v>
       </c>
       <c r="C77">
-        <v>689004</v>
+        <v>689002</v>
       </c>
       <c r="D77" t="s">
         <v>259</v>
       </c>
       <c r="E77" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I77" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>935697</v>
+        <v>935695</v>
       </c>
       <c r="C78">
-        <v>689006</v>
+        <v>689004</v>
       </c>
       <c r="D78" t="s">
         <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F78" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="G78" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H78" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M78" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N78" t="s">
         <v>23</v>
@@ -5444,376 +5462,382 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>935699</v>
+        <v>935697</v>
       </c>
       <c r="C79">
-        <v>689008</v>
+        <v>689006</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F79" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G79" t="s">
-        <v>200</v>
+        <v>283</v>
+      </c>
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
       </c>
       <c r="J79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M79" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>935701</v>
+        <v>935699</v>
       </c>
       <c r="C80">
-        <v>689010</v>
+        <v>689008</v>
       </c>
       <c r="D80" t="s">
         <v>294</v>
       </c>
       <c r="E80" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
         <v>296</v>
       </c>
       <c r="G80" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M80" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>935704</v>
+        <v>935701</v>
       </c>
       <c r="C81">
-        <v>689013</v>
+        <v>689010</v>
       </c>
       <c r="D81" t="s">
         <v>294</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F81" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G81" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M81" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>935706</v>
+        <v>935704</v>
       </c>
       <c r="C82">
-        <v>689015</v>
+        <v>689013</v>
       </c>
       <c r="D82" t="s">
         <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N82" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O82">
         <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>935708</v>
+        <v>935706</v>
       </c>
       <c r="C83">
-        <v>689017</v>
+        <v>689015</v>
       </c>
       <c r="D83" t="s">
         <v>294</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F83" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J83" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>935710</v>
+        <v>935708</v>
       </c>
       <c r="C84">
-        <v>689019</v>
+        <v>689017</v>
       </c>
       <c r="D84" t="s">
         <v>294</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F84" t="s">
         <v>302</v>
       </c>
       <c r="G84" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J84" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>935713</v>
+        <v>935710</v>
       </c>
       <c r="C85">
-        <v>689021</v>
+        <v>689019</v>
       </c>
       <c r="D85" t="s">
         <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G85" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J85" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>935714</v>
+        <v>935713</v>
       </c>
       <c r="C86">
-        <v>689022</v>
+        <v>689021</v>
       </c>
       <c r="D86" t="s">
         <v>294</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F86" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N86" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>935715</v>
+        <v>935714</v>
       </c>
       <c r="C87">
-        <v>689023</v>
+        <v>689022</v>
       </c>
       <c r="D87" t="s">
         <v>294</v>
       </c>
       <c r="E87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F87" t="s">
         <v>302</v>
@@ -5822,767 +5846,767 @@
         <v>272</v>
       </c>
       <c r="J87" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>935716</v>
+        <v>935715</v>
       </c>
       <c r="C88">
-        <v>689024</v>
+        <v>689023</v>
       </c>
       <c r="D88" t="s">
         <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G88" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="J88" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M88" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>935718</v>
+        <v>935716</v>
       </c>
       <c r="C89">
-        <v>689027</v>
+        <v>689024</v>
       </c>
       <c r="D89" t="s">
         <v>294</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>935720</v>
+        <v>935718</v>
       </c>
       <c r="C90">
-        <v>689029</v>
+        <v>689027</v>
       </c>
       <c r="D90" t="s">
         <v>294</v>
       </c>
       <c r="E90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G90" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="J90" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M90" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>935722</v>
+        <v>935720</v>
       </c>
       <c r="C91">
-        <v>689031</v>
+        <v>689029</v>
       </c>
       <c r="D91" t="s">
         <v>294</v>
       </c>
       <c r="E91" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F91" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G91" t="s">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="J91" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M91" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>935724</v>
+        <v>935722</v>
       </c>
       <c r="C92">
-        <v>689034</v>
+        <v>689031</v>
       </c>
       <c r="D92" t="s">
         <v>294</v>
       </c>
       <c r="E92" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G92" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N92" t="s">
         <v>23</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>935727</v>
+        <v>935724</v>
       </c>
       <c r="C93">
-        <v>689037</v>
+        <v>689034</v>
       </c>
       <c r="D93" t="s">
         <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="G93" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="J93" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N93" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>935729</v>
+        <v>935727</v>
       </c>
       <c r="C94">
-        <v>689039</v>
+        <v>689037</v>
       </c>
       <c r="D94" t="s">
         <v>294</v>
       </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G94" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="J94" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M94" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>935731</v>
+        <v>935729</v>
       </c>
       <c r="C95">
-        <v>689041</v>
+        <v>689039</v>
       </c>
       <c r="D95" t="s">
         <v>294</v>
       </c>
       <c r="E95" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F95" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G95" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M95" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>935733</v>
+        <v>935731</v>
       </c>
       <c r="C96">
-        <v>689043</v>
+        <v>689041</v>
       </c>
       <c r="D96" t="s">
         <v>294</v>
       </c>
       <c r="E96" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F96" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="G96" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="J96" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>935736</v>
+        <v>935733</v>
       </c>
       <c r="C97">
-        <v>689046</v>
+        <v>689043</v>
       </c>
       <c r="D97" t="s">
         <v>294</v>
       </c>
       <c r="E97" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F97" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G97" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M97" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>935738</v>
+        <v>935736</v>
       </c>
       <c r="C98">
-        <v>689048</v>
+        <v>689046</v>
       </c>
       <c r="D98" t="s">
         <v>294</v>
       </c>
       <c r="E98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F98" t="s">
         <v>296</v>
       </c>
       <c r="G98" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="J98" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M98" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N98" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>935741</v>
+        <v>935738</v>
       </c>
       <c r="C99">
-        <v>689051</v>
+        <v>689048</v>
       </c>
       <c r="D99" t="s">
         <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F99" t="s">
         <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="J99" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>935743</v>
+        <v>935741</v>
       </c>
       <c r="C100">
-        <v>689053</v>
+        <v>689051</v>
       </c>
       <c r="D100" t="s">
         <v>294</v>
       </c>
       <c r="E100" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F100" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="J100" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M100" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>935746</v>
+        <v>935743</v>
       </c>
       <c r="C101">
-        <v>689056</v>
+        <v>689053</v>
       </c>
       <c r="D101" t="s">
         <v>294</v>
       </c>
       <c r="E101" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F101" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G101" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="J101" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M101" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>935748</v>
+        <v>935746</v>
       </c>
       <c r="C102">
-        <v>689059</v>
+        <v>689056</v>
       </c>
       <c r="D102" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="E102" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F102" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="G102" t="s">
-        <v>84</v>
-      </c>
-      <c r="H102" t="s">
-        <v>85</v>
-      </c>
-      <c r="I102" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M102" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>936226</v>
+        <v>935748</v>
       </c>
       <c r="C103">
-        <v>689610</v>
+        <v>689059</v>
       </c>
       <c r="D103" t="s">
         <v>350</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F103" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G103" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="H103" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I103" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J103" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M103" t="s">
         <v>353</v>
       </c>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
       <c r="P103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>936226</v>
+      </c>
+      <c r="C104">
+        <v>689610</v>
       </c>
       <c r="D104" t="s">
         <v>350</v>
       </c>
       <c r="E104" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F104" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G104" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H104" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I104" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J104" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -6594,89 +6618,89 @@
         <v>353</v>
       </c>
       <c r="N104" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O104">
         <v>0</v>
       </c>
       <c r="P104" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>105</v>
-      </c>
-      <c r="B105">
-        <v>935751</v>
-      </c>
-      <c r="C105">
-        <v>689063</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="E105" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F105" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G105" t="s">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="H105" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J105" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M105" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="N105" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>935751</v>
+      </c>
+      <c r="C106">
+        <v>689063</v>
       </c>
       <c r="D106" t="s">
-        <v>363</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G106" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H106" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J106" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -6685,159 +6709,159 @@
         <v>23</v>
       </c>
       <c r="M106" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D107" t="s">
         <v>363</v>
       </c>
       <c r="E107" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F107" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="G107" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H107" t="s">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="I107" t="s">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="J107" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D108" t="s">
         <v>363</v>
       </c>
       <c r="E108" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F108" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="G108" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="H108" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="J108" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M108" t="s">
         <v>369</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D109" t="s">
         <v>363</v>
       </c>
       <c r="E109" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F109" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G109" t="s">
         <v>218</v>
       </c>
       <c r="H109" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I109" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J109" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M109" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D110" t="s">
         <v>363</v>
       </c>
       <c r="E110" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F110" t="s">
         <v>365</v>
@@ -6846,174 +6870,174 @@
         <v>218</v>
       </c>
       <c r="H110" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I110" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J110" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K110">
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M110" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N110" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O110">
         <v>0</v>
       </c>
       <c r="P110" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D111" t="s">
         <v>363</v>
       </c>
       <c r="E111" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="G111" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="H111" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I111" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="J111" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M111" t="s">
         <v>375</v>
       </c>
       <c r="N111" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O111">
         <v>0</v>
       </c>
       <c r="P111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
         <v>363</v>
       </c>
       <c r="E112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F112" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="G112" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="H112" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="J112" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M112" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O112">
         <v>0</v>
       </c>
       <c r="P112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
         <v>363</v>
       </c>
       <c r="E113" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F113" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="G113" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="H113" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I113" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="J113" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M113" t="s">
         <v>378</v>
       </c>
       <c r="N113" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O113">
         <v>0</v>
       </c>
       <c r="P113" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D114" t="s">
         <v>363</v>
       </c>
       <c r="E114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F114" t="s">
         <v>302</v>
@@ -7022,86 +7046,86 @@
         <v>318</v>
       </c>
       <c r="H114" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I114" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J114" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K114">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M114" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O114">
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D115" t="s">
         <v>363</v>
       </c>
       <c r="E115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F115" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="G115" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="H115" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I115" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K115">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M115" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N115" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O115">
         <v>0</v>
       </c>
       <c r="P115" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D116" t="s">
         <v>363</v>
       </c>
       <c r="E116" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F116" t="s">
         <v>365</v>
@@ -7110,168 +7134,168 @@
         <v>218</v>
       </c>
       <c r="H116" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I116" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M116" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N116" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O116">
         <v>0</v>
       </c>
       <c r="P116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D117" t="s">
         <v>363</v>
       </c>
       <c r="E117" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="G117" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="H117" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I117" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="J117" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M117" t="s">
         <v>385</v>
       </c>
       <c r="N117" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O117">
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
         <v>363</v>
       </c>
       <c r="E118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F118" t="s">
         <v>302</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="H118" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I118" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J118" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M118" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O118">
         <v>0</v>
       </c>
       <c r="P118" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D119" t="s">
         <v>363</v>
       </c>
       <c r="E119" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119" t="s">
+        <v>388</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>89</v>
+      </c>
+      <c r="I119" t="s">
+        <v>89</v>
+      </c>
+      <c r="J119" t="s">
+        <v>29</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" t="s">
         <v>389</v>
       </c>
-      <c r="F119" t="s">
-        <v>365</v>
-      </c>
-      <c r="G119" t="s">
-        <v>265</v>
-      </c>
-      <c r="H119" t="s">
-        <v>32</v>
-      </c>
-      <c r="I119" t="s">
-        <v>32</v>
-      </c>
-      <c r="J119" t="s">
-        <v>20</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" t="s">
-        <v>23</v>
-      </c>
-      <c r="M119" t="s">
-        <v>388</v>
-      </c>
       <c r="N119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O119">
         <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
         <v>363</v>
@@ -7280,130 +7304,130 @@
         <v>390</v>
       </c>
       <c r="F120" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="H120" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I120" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N120" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O120">
         <v>0</v>
       </c>
       <c r="P120" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D121" t="s">
         <v>363</v>
       </c>
       <c r="E121" t="s">
+        <v>391</v>
+      </c>
+      <c r="F121" t="s">
+        <v>365</v>
+      </c>
+      <c r="G121" t="s">
+        <v>218</v>
+      </c>
+      <c r="H121" t="s">
+        <v>39</v>
+      </c>
+      <c r="I121" t="s">
+        <v>39</v>
+      </c>
+      <c r="J121" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>25</v>
+      </c>
+      <c r="M121" t="s">
         <v>392</v>
       </c>
-      <c r="F121" t="s">
-        <v>296</v>
-      </c>
-      <c r="G121" t="s">
-        <v>240</v>
-      </c>
-      <c r="H121" t="s">
-        <v>368</v>
-      </c>
-      <c r="I121" t="s">
-        <v>368</v>
-      </c>
-      <c r="J121" t="s">
-        <v>20</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" t="s">
-        <v>23</v>
-      </c>
-      <c r="M121" t="s">
-        <v>393</v>
-      </c>
       <c r="N121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O121">
         <v>0</v>
       </c>
       <c r="P121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D122" t="s">
         <v>363</v>
       </c>
       <c r="E122" t="s">
+        <v>393</v>
+      </c>
+      <c r="F122" t="s">
+        <v>296</v>
+      </c>
+      <c r="G122" t="s">
+        <v>240</v>
+      </c>
+      <c r="H122" t="s">
+        <v>368</v>
+      </c>
+      <c r="I122" t="s">
+        <v>368</v>
+      </c>
+      <c r="J122" t="s">
+        <v>29</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" t="s">
         <v>394</v>
       </c>
-      <c r="F122" t="s">
-        <v>371</v>
-      </c>
-      <c r="G122" t="s">
-        <v>54</v>
-      </c>
-      <c r="H122" t="s">
-        <v>43</v>
-      </c>
-      <c r="I122" t="s">
-        <v>43</v>
-      </c>
-      <c r="J122" t="s">
-        <v>20</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122" t="s">
-        <v>23</v>
-      </c>
-      <c r="M122" t="s">
-        <v>393</v>
-      </c>
       <c r="N122" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O122">
         <v>0</v>
       </c>
       <c r="P122" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D123" t="s">
         <v>363</v>
@@ -7415,83 +7439,83 @@
         <v>371</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H123" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J123" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K123">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M123" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N123" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O123">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" t="s">
         <v>363</v>
       </c>
       <c r="E124" t="s">
+        <v>396</v>
+      </c>
+      <c r="F124" t="s">
+        <v>371</v>
+      </c>
+      <c r="G124" t="s">
+        <v>49</v>
+      </c>
+      <c r="H124" t="s">
+        <v>49</v>
+      </c>
+      <c r="I124" t="s">
+        <v>49</v>
+      </c>
+      <c r="J124" t="s">
+        <v>29</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>25</v>
+      </c>
+      <c r="M124" t="s">
         <v>397</v>
       </c>
-      <c r="F124" t="s">
-        <v>296</v>
-      </c>
-      <c r="G124" t="s">
-        <v>240</v>
-      </c>
-      <c r="H124" t="s">
-        <v>368</v>
-      </c>
-      <c r="I124" t="s">
-        <v>368</v>
-      </c>
-      <c r="J124" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" t="s">
-        <v>23</v>
-      </c>
-      <c r="M124" t="s">
-        <v>396</v>
-      </c>
       <c r="N124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" t="s">
         <v>363</v>
@@ -7500,219 +7524,363 @@
         <v>398</v>
       </c>
       <c r="F125" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="G125" t="s">
-        <v>399</v>
+        <v>240</v>
       </c>
       <c r="H125" t="s">
-        <v>32</v>
+        <v>368</v>
       </c>
       <c r="I125" t="s">
-        <v>32</v>
+        <v>368</v>
       </c>
       <c r="J125" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M125" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N125" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
       <c r="P125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D126" t="s">
         <v>363</v>
       </c>
       <c r="E126" t="s">
+        <v>399</v>
+      </c>
+      <c r="F126" t="s">
+        <v>365</v>
+      </c>
+      <c r="G126" t="s">
+        <v>400</v>
+      </c>
+      <c r="H126" t="s">
+        <v>39</v>
+      </c>
+      <c r="I126" t="s">
+        <v>39</v>
+      </c>
+      <c r="J126" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" t="s">
         <v>401</v>
       </c>
-      <c r="F126" t="s">
-        <v>302</v>
-      </c>
-      <c r="G126" t="s">
-        <v>36</v>
-      </c>
-      <c r="H126" t="s">
-        <v>402</v>
-      </c>
-      <c r="I126" t="s">
-        <v>114</v>
-      </c>
-      <c r="J126" t="s">
-        <v>20</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" t="s">
-        <v>23</v>
-      </c>
-      <c r="M126" t="s">
-        <v>173</v>
-      </c>
       <c r="N126" t="s">
         <v>23</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P126" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D127" t="s">
         <v>363</v>
       </c>
       <c r="E127" t="s">
+        <v>402</v>
+      </c>
+      <c r="F127" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127" t="s">
+        <v>43</v>
+      </c>
+      <c r="H127" t="s">
         <v>403</v>
       </c>
-      <c r="F127" t="s">
-        <v>404</v>
-      </c>
-      <c r="G127" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" t="s">
-        <v>402</v>
-      </c>
       <c r="I127" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J127" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K127">
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M127" t="s">
-        <v>405</v>
+        <v>176</v>
       </c>
       <c r="N127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O127">
         <v>0</v>
       </c>
       <c r="P127" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
         <v>363</v>
       </c>
       <c r="E128" t="s">
+        <v>404</v>
+      </c>
+      <c r="F128" t="s">
+        <v>405</v>
+      </c>
+      <c r="G128" t="s">
+        <v>59</v>
+      </c>
+      <c r="H128" t="s">
+        <v>403</v>
+      </c>
+      <c r="I128" t="s">
+        <v>119</v>
+      </c>
+      <c r="J128" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>25</v>
+      </c>
+      <c r="M128" t="s">
         <v>406</v>
       </c>
-      <c r="F128" t="s">
-        <v>365</v>
-      </c>
-      <c r="G128" t="s">
-        <v>218</v>
-      </c>
-      <c r="H128" t="s">
-        <v>32</v>
-      </c>
-      <c r="I128" t="s">
-        <v>32</v>
-      </c>
-      <c r="J128" t="s">
-        <v>20</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" t="s">
-        <v>23</v>
-      </c>
-      <c r="M128" t="s">
-        <v>407</v>
-      </c>
       <c r="N128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O128">
         <v>0</v>
       </c>
       <c r="P128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>130</v>
-      </c>
-      <c r="B129">
-        <v>935755</v>
-      </c>
-      <c r="C129">
-        <v>689068</v>
+        <v>128</v>
       </c>
       <c r="D129" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="E129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F129" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G129" t="s">
         <v>218</v>
       </c>
       <c r="H129" t="s">
+        <v>39</v>
+      </c>
+      <c r="I129" t="s">
+        <v>39</v>
+      </c>
+      <c r="J129" t="s">
+        <v>29</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>25</v>
+      </c>
+      <c r="M129" t="s">
+        <v>408</v>
+      </c>
+      <c r="N129" t="s">
+        <v>25</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>935755</v>
+      </c>
+      <c r="C130">
+        <v>689068</v>
+      </c>
+      <c r="D130" t="s">
+        <v>294</v>
+      </c>
+      <c r="E130" t="s">
+        <v>409</v>
+      </c>
+      <c r="F130" t="s">
+        <v>335</v>
+      </c>
+      <c r="G130" t="s">
+        <v>218</v>
+      </c>
+      <c r="H130" t="s">
         <v>225</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I130" t="s">
         <v>225</v>
       </c>
-      <c r="J129" t="s">
-        <v>20</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" t="s">
-        <v>21</v>
-      </c>
-      <c r="M129" t="s">
-        <v>409</v>
-      </c>
-      <c r="N129" t="s">
-        <v>23</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129" t="s">
-        <v>21</v>
+      <c r="J130" t="s">
+        <v>29</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>23</v>
+      </c>
+      <c r="M130" t="s">
+        <v>410</v>
+      </c>
+      <c r="N130" t="s">
+        <v>25</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>935702</v>
+      </c>
+      <c r="C131">
+        <v>689011</v>
+      </c>
+      <c r="D131" t="s">
+        <v>259</v>
+      </c>
+      <c r="E131" t="s">
+        <v>411</v>
+      </c>
+      <c r="F131" t="s">
+        <v>412</v>
+      </c>
+      <c r="G131" t="s">
+        <v>101</v>
+      </c>
+      <c r="H131" t="s">
+        <v>106</v>
+      </c>
+      <c r="I131" t="s">
+        <v>80</v>
+      </c>
+      <c r="J131" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>23</v>
+      </c>
+      <c r="M131" t="s">
+        <v>413</v>
+      </c>
+      <c r="N131" t="s">
+        <v>25</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>935724</v>
+      </c>
+      <c r="C132">
+        <v>689034</v>
+      </c>
+      <c r="D132" t="s">
+        <v>294</v>
+      </c>
+      <c r="E132" t="s">
+        <v>414</v>
+      </c>
+      <c r="F132" t="s">
+        <v>323</v>
+      </c>
+      <c r="G132" t="s">
+        <v>55</v>
+      </c>
+      <c r="H132" t="s">
+        <v>106</v>
+      </c>
+      <c r="I132" t="s">
+        <v>97</v>
+      </c>
+      <c r="J132" t="s">
+        <v>29</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>23</v>
+      </c>
+      <c r="M132" t="s">
+        <v>415</v>
+      </c>
+      <c r="N132" t="s">
+        <v>25</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,15 @@
     <t>localLineConnectedVendorPackageID</t>
   </si>
   <si>
+    <t>ffcsaPurchasePrice</t>
+  </si>
+  <si>
+    <t>ffcsaMemberSalesPrice</t>
+  </si>
+  <si>
+    <t>ffcsaGuestSalesPrice</t>
+  </si>
+  <si>
     <t>Pasture Raised Pork</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>False</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>Honey Nuts, &amp; Fruit</t>
   </si>
   <si>
@@ -109,6 +121,15 @@
     <t>Deep amber in color and always raw, these bees feast on clover, berries, and native flowers. The resulting product is distinct to the Willamette Valley, thick, sweet, and potent. We use honey as a healthful substitute to processed sugars.</t>
   </si>
   <si>
+    <t>12.32</t>
+  </si>
+  <si>
+    <t>17.01</t>
+  </si>
+  <si>
+    <t>19.10</t>
+  </si>
+  <si>
     <t>Raw Honey, 1 pint</t>
   </si>
   <si>
@@ -118,6 +139,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>18.85</t>
+  </si>
+  <si>
+    <t>26.01</t>
+  </si>
+  <si>
+    <t>29.22</t>
+  </si>
+  <si>
     <t>Raw Honey, 1 quart</t>
   </si>
   <si>
@@ -127,6 +157,15 @@
     <t>47.50</t>
   </si>
   <si>
+    <t>34.44</t>
+  </si>
+  <si>
+    <t>47.52</t>
+  </si>
+  <si>
+    <t>53.38</t>
+  </si>
+  <si>
     <t>Raw Walnuts, 1/2 lb</t>
   </si>
   <si>
@@ -139,6 +178,15 @@
     <t>1/2 lb bag walnuts grown on Deck Family Farm.Disclaimer: these walnuts have been hand-cracked and sorted and while we do our best to make sure that all the shell has been removed, there can be occasional pieces!</t>
   </si>
   <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>15.73</t>
+  </si>
+  <si>
     <t>Raw Walnuts, 1 lb</t>
   </si>
   <si>
@@ -148,6 +196,15 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>18.13</t>
+  </si>
+  <si>
+    <t>25.01</t>
+  </si>
+  <si>
+    <t>28.09</t>
+  </si>
+  <si>
     <t>100% Grassfed Beef</t>
   </si>
   <si>
@@ -157,6 +214,9 @@
     <t>10.50</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>Beef Back Ribs</t>
   </si>
   <si>
@@ -172,7 +232,7 @@
     <t>3.80</t>
   </si>
   <si>
-    <t>Back ribs, also called long ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
+    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
   </si>
   <si>
     <t>Beef Bones</t>
@@ -190,6 +250,15 @@
     <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
   </si>
   <si>
+    <t>7.97</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>12.36</t>
+  </si>
+  <si>
     <t>Beef Marrow Bones</t>
   </si>
   <si>
@@ -202,6 +271,15 @@
     <t>Discover the rich, nutrient-dense goodness of Grass-Fed Beef Marrow Bones from Deck Family Farm. Known for their creamy marrow and robust flavor, these bones are perfect for making nourishing broths, hearty soups, or as a roasted delicacy.</t>
   </si>
   <si>
+    <t>10.88</t>
+  </si>
+  <si>
+    <t>15.01</t>
+  </si>
+  <si>
+    <t>16.86</t>
+  </si>
+  <si>
     <t>Brisket, Small</t>
   </si>
   <si>
@@ -643,6 +721,12 @@
     <t>Our Pasture-Raised Chicken Feet from Deck Family Farm are a nutrient-rich ingredient perfect for making gelatinous, flavorful broths and stocks. Raised on open pastures, our chickens roam freely, ensuring exceptional quality and a clean, natural taste. Chicken feet are packed with collagen, making them an ideal addition to your kitchen for both health benefits and rich culinary flavor.</t>
   </si>
   <si>
+    <t>6.89</t>
+  </si>
+  <si>
+    <t>10.68</t>
+  </si>
+  <si>
     <t>Chicken Hearts</t>
   </si>
   <si>
@@ -658,6 +742,15 @@
     <t>Our Chicken Liver is a flavorful and nutritious option for creating delicious, healthy meals. Perfect for sautéing in butter, making pâté, or adding to spaghetti sauce alongside ground meat, chicken liver is a versatile ingredient. For a simple yet elegant dish, sauté the livers with garlic, onion, salt, pepper, and a splash of red wine or chicken broth, then serve with mixed greens, sliced apples, or red onions. Sourced from our pasture-raised broilers, who enjoy a diet of grass, herbs, and clover, our chicken livers offer both exceptional flavor and quality. Enjoy a wholesome and gourmet meal with this nutrient-rich ingredient!</t>
   </si>
   <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>13.48</t>
+  </si>
+  <si>
     <t>Chicken Part, Breast, Bone-In</t>
   </si>
   <si>
@@ -895,6 +988,15 @@
     <t>These 8oz packs of Bacon Ends &amp;amp; Pieces are perfect for adding rich, savory flavor to stuffings, soups, veggie sautées, and more! Our heritage hogs roam freely in open pastures and oak woodlands, grazing on a diet of dairy, hazelnuts, and custom-milled grains. This well-rounded lifestyle results in high-quality, flavorful bacon that’s earned rave reviews throughout the Willamette Valley. Perfect for enhancing any dish with that irresistible, smoky goodness.</t>
   </si>
   <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>14.51</t>
+  </si>
+  <si>
+    <t>16.29</t>
+  </si>
+  <si>
     <t>Bacon, Pork</t>
   </si>
   <si>
@@ -904,6 +1006,15 @@
     <t>Our Pork Bacon comes from heritage hogs that roam freely in open pastures and oak woodlands throughout the Spring, Summer, and Fall. They enjoy a well-balanced diet of dairy, hazelnuts, and custom-milled grains, resulting in rich, flavorful meat that’s consistently praised across the Willamette Valley. This 8oz pack of sugar-free bacon is the GOAT—no explanation necessary. Please note that recipes may vary and could include a small amount of sugar, though the bacon remains irresistibly delicious.</t>
   </si>
   <si>
+    <t>12.69</t>
+  </si>
+  <si>
+    <t>17.51</t>
+  </si>
+  <si>
+    <t>19.67</t>
+  </si>
+  <si>
     <t>Bratwurst</t>
   </si>
   <si>
@@ -913,12 +1024,30 @@
     <t>Our Bratwurst Sausage is made from premium pork, blended with a savory mix of spices and herbs. Often served sautéed or broiled, this flavorful sausage sometimes comes without a casing for a more tender bite. We raise our heritage hogs in open pastures and oak woodlands, where they enjoy a diet of dairy, hazelnuts, and custom-milled grains. This well-rounded diet and ample exercise result in high-quality, flavorful meat that consistently earns praise across the Willamette Valley. Perfect for a satisfying meal any time!</t>
   </si>
   <si>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>19.51</t>
+  </si>
+  <si>
+    <t>21.91</t>
+  </si>
+  <si>
     <t>Country Sausage, Bulk</t>
   </si>
   <si>
     <t>Our Bulk Country Sausage is made from the highest quality pork, raised with care on our heritage hogs that roam open pastures and oak woodlands during the Spring, Summer, and Fall. Their diet of dairy, hazelnuts, and custom-milled grains, along with plenty of exercise, results in flavorful, tender meat that consistently earns praise throughout the Willamette Valley. Perfect for adding robust, savory taste to your dishes!</t>
   </si>
   <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>15.51</t>
+  </si>
+  <si>
+    <t>17.42</t>
+  </si>
+  <si>
     <t>Fresh Garlic Sausage Links</t>
   </si>
   <si>
@@ -937,6 +1066,15 @@
     <t>Our Pasture-Raised Lamb Garlic Sausage from Deck Family Farm is a flavorful blend of tender lamb, fresh garlic, and aromatic spices. Made from pasture-raised lamb, this sausage is packed with rich, savory flavor and a juicy, satisfying texture. Whether grilled, pan-fried, or added to your favorite recipes, it’s the perfect choice for a hearty and delicious meal.</t>
   </si>
   <si>
+    <t>15.59</t>
+  </si>
+  <si>
+    <t>21.51</t>
+  </si>
+  <si>
+    <t>24.16</t>
+  </si>
+  <si>
     <t>Lamb Sundried Tomato Basil Sausage</t>
   </si>
   <si>
@@ -955,12 +1093,27 @@
     <t>Our Landjaeger is a 3-count pack of nitrite-free cured sausage, inspired by the Swiss/German hunters' tradition. With its rich, smoky flavor and satisfying texture, it's one of Ella's favorites! Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains ensures high-quality, flavorful meat that consistently receives praise across the Willamette Valley. Perfect for snacking or sharing!</t>
   </si>
   <si>
+    <t>11.96</t>
+  </si>
+  <si>
+    <t>16.51</t>
+  </si>
+  <si>
+    <t>18.54</t>
+  </si>
+  <si>
     <t>Olympia Provisions Frankfurter</t>
   </si>
   <si>
     <t>Our Pork Frankfurters are crafted with tender pork shoulder from Deck Family Farm’s 100% pasture-raised heritage hogs. Made artisanally by our Pasture Network partner, Olympia Provisions, these sausages come in a package of four, foot-long links encased in natural lamb casings. Smoked with a blend of hickory and apple wood, they deliver a rich, smoky flavor. Our heritage hogs roam open pastures and oak woodlands, enjoying a diet of dairy, hazelnuts, and custom-milled grains, resulting in high-quality, flavorful meat that consistently garners praise across the Willamette Valley. Perfect for grilling or a satisfying meal!</t>
   </si>
   <si>
+    <t>20.01</t>
+  </si>
+  <si>
+    <t>22.48</t>
+  </si>
+  <si>
     <t>Olympia Provisions Saucisson D'Arles Salami</t>
   </si>
   <si>
@@ -979,6 +1132,15 @@
     <t>Introducing the newly re-designed Olympia Provisions Dog Treats! These protein-packed meaty sausages are made of 100% pure pork. Not only will they fuel your dog for its next adventure, but they help OP minimize waste in the meat industry.</t>
   </si>
   <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>18.01</t>
+  </si>
+  <si>
+    <t>20.23</t>
+  </si>
+  <si>
     <t>Olympia Provisions, Rosette D'Oregon Salami</t>
   </si>
   <si>
@@ -1009,6 +1171,12 @@
     <t>Our Hikers Pepperoni Sticks are a delicious, high-energy snack, perfect for ketogenic diets or outdoor adventures. Due to an unintended higher fat content in this batch, these pepperoni sticks are packed with calories, making them a great choice for hiking or backpacking. Reminiscent of traditional Native American pemmican—dried meat, tallow, berries, and spices—our pepperoni offers lots of energy in a small, portable package. While the mouthfeel may differ slightly, the rich, savory flavor remains just as wonderful as ever. Stock up for your next outing!</t>
   </si>
   <si>
+    <t>6.52</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
     <t>Polish Kielbasa</t>
   </si>
   <si>
@@ -1066,6 +1234,12 @@
     <t>7.00</t>
   </si>
   <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>7.87</t>
+  </si>
+  <si>
     <t>Stewing Hen</t>
   </si>
   <si>
@@ -1075,6 +1249,15 @@
     <t>These birds are from our certified-organic, pastured egg operation. With longer and more active lives than roasters, our stewing hens are not only rich in deep, enduring flavor, but also in nutrients from their mature musculature and connective tissue. Make stock with the whole bird; don't forget to save the meat from the bones.</t>
   </si>
   <si>
+    <t>13.41</t>
+  </si>
+  <si>
+    <t>18.51</t>
+  </si>
+  <si>
+    <t>20.79</t>
+  </si>
+  <si>
     <t>Hyland Processing</t>
   </si>
   <si>
@@ -1096,6 +1279,9 @@
     <t>Our Rendered Beef Tallow is pure and ready for cooking! With a mild flavor and light meaty essence, it’s a versatile ingredient used in many traditional cuisines. Perfect for frying vegetables, potatoes, steaks, or eggs, it adds rich flavor to your meals. Tallow is also great for making pemmican, and can even be used in soaps and candles, making it a truly multipurpose kitchen staple!</t>
   </si>
   <si>
+    <t>7.25</t>
+  </si>
+  <si>
     <t>Rendered Beef Tallow, 16 oz</t>
   </si>
   <si>
@@ -1159,6 +1345,15 @@
     <t>Bulk Lamb Merguez Sausage</t>
   </si>
   <si>
+    <t>17.40</t>
+  </si>
+  <si>
+    <t>24.01</t>
+  </si>
+  <si>
+    <t>26.97</t>
+  </si>
+  <si>
     <t>Greek Loukaniko Sausage Links</t>
   </si>
   <si>
@@ -1180,6 +1375,15 @@
     <t>Light and creamy, this rendered pork leaf lard is pure white. Lard is used extensively in many traditional cuisines and is very versatile. It can be used as a cooking oil, for baking, Pâté, or even as a spread. Lard has a high smoke point and also produces flakier pie crusts than butter.This lard was made using pork leaf lard (kidney fat), so it has the most neutral flavor. For that reason, it is particularly prized by bakers. Pure lard is best kept refrigerated or frozen for long-term storage.</t>
   </si>
   <si>
+    <t>11.60</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>17.98</t>
+  </si>
+  <si>
     <t>Rendered Pork Leaf Lard, 8 oz</t>
   </si>
   <si>
@@ -1190,6 +1394,15 @@
   </si>
   <si>
     <t>Inspired by the bounty of summer herbs in our garden. This limited seasonal sausage uses juicy lamb flecked with abundant green herbs and subtle spices. Enjoy this with any Mediterranean feast, pizza, pasta, salad, or with grilled vegetables.Spiciness – 1.5/10Ingredients:Lamb, Parsley, Sea Salt, Basil, Garlic,Red Wine Vinegar, Chives, Mint,Lemon Juice, Lemon Zest, BlackPepper, Chili Flake,Hog Casings</t>
+  </si>
+  <si>
+    <t>15.95</t>
+  </si>
+  <si>
+    <t>22.01</t>
+  </si>
+  <si>
+    <t>24.72</t>
   </si>
   <si>
     <t>Grass-Fed Organ Blend</t>
@@ -1607,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:T127"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1662,8 +1875,17 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1671,43 +1893,43 @@
         <v>805652</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2">
         <v>99999</v>
@@ -1715,8 +1937,17 @@
       <c r="Q2">
         <v>689050</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1724,37 +1955,37 @@
         <v>940998</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>174</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P3">
         <v>935678</v>
@@ -1762,8 +1993,17 @@
       <c r="Q3">
         <v>688981</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1771,37 +2011,37 @@
         <v>806161</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P4">
         <v>936212</v>
@@ -1809,8 +2049,17 @@
       <c r="Q4">
         <v>689596</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1818,37 +2067,37 @@
         <v>941000</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5">
         <v>936213</v>
@@ -1856,8 +2105,17 @@
       <c r="Q5">
         <v>689597</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1865,37 +2123,37 @@
         <v>940994</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P6">
         <v>935680</v>
@@ -1903,8 +2161,17 @@
       <c r="Q6">
         <v>688986</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1912,37 +2179,37 @@
         <v>806159</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P7">
         <v>936214</v>
@@ -1950,43 +2217,61 @@
       <c r="Q7">
         <v>689598</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1994,43 +2279,43 @@
         <v>813072</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9">
         <v>935682</v>
@@ -2038,8 +2323,17 @@
       <c r="Q9">
         <v>688989</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2047,43 +2341,43 @@
         <v>922135</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P10">
         <v>935684</v>
@@ -2091,8 +2385,17 @@
       <c r="Q10">
         <v>688991</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2100,43 +2403,43 @@
         <v>825834</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P11">
         <v>935686</v>
@@ -2144,8 +2447,17 @@
       <c r="Q11">
         <v>688993</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2153,43 +2465,43 @@
         <v>941002</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P12">
         <v>935688</v>
@@ -2197,8 +2509,17 @@
       <c r="Q12">
         <v>688995</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2206,43 +2527,43 @@
         <v>941001</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P13">
         <v>936218</v>
@@ -2250,8 +2571,17 @@
       <c r="Q13">
         <v>689601</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2259,43 +2589,43 @@
         <v>856878</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P14">
         <v>936219</v>
@@ -2303,8 +2633,17 @@
       <c r="Q14">
         <v>689603</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2312,43 +2651,43 @@
         <v>805658</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P15">
         <v>935691</v>
@@ -2356,8 +2695,17 @@
       <c r="Q15">
         <v>689000</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2365,43 +2713,43 @@
         <v>813074</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P16">
         <v>935692</v>
@@ -2409,8 +2757,17 @@
       <c r="Q16">
         <v>689001</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2418,43 +2775,43 @@
         <v>813075</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P17">
         <v>935694</v>
@@ -2462,8 +2819,17 @@
       <c r="Q17">
         <v>689003</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2471,43 +2837,43 @@
         <v>805688</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P18">
         <v>935696</v>
@@ -2515,8 +2881,17 @@
       <c r="Q18">
         <v>689005</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2524,43 +2899,43 @@
         <v>805689</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P19">
         <v>935698</v>
@@ -2568,8 +2943,17 @@
       <c r="Q19">
         <v>689007</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2577,43 +2961,43 @@
         <v>825830</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P20">
         <v>935700</v>
@@ -2621,8 +3005,17 @@
       <c r="Q20">
         <v>689009</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2630,43 +3023,43 @@
         <v>805660</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P21">
         <v>999991</v>
@@ -2674,8 +3067,17 @@
       <c r="Q21">
         <v>689011</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2683,43 +3085,43 @@
         <v>825832</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P22">
         <v>935703</v>
@@ -2727,8 +3129,17 @@
       <c r="Q22">
         <v>689012</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2736,43 +3147,43 @@
         <v>841579</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P23">
         <v>935705</v>
@@ -2780,8 +3191,17 @@
       <c r="Q23">
         <v>689014</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2789,43 +3209,43 @@
         <v>805716</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P24">
         <v>935707</v>
@@ -2833,8 +3253,17 @@
       <c r="Q24">
         <v>689016</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2842,43 +3271,43 @@
         <v>813076</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P25">
         <v>935709</v>
@@ -2886,8 +3315,17 @@
       <c r="Q25">
         <v>689018</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2895,43 +3333,43 @@
         <v>805664</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P26">
         <v>935711</v>
@@ -2939,8 +3377,17 @@
       <c r="Q26">
         <v>689020</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2948,43 +3395,43 @@
         <v>805668</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
         <v>107</v>
       </c>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N27">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P27">
         <v>935712</v>
@@ -2992,8 +3439,17 @@
       <c r="Q27">
         <v>689025</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3001,43 +3457,43 @@
         <v>805701</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="M28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P28">
         <v>935717</v>
@@ -3045,8 +3501,17 @@
       <c r="Q28">
         <v>689026</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3054,43 +3519,43 @@
         <v>894281</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P29">
         <v>935719</v>
@@ -3098,8 +3563,17 @@
       <c r="Q29">
         <v>689028</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3107,43 +3581,43 @@
         <v>813071</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P30">
         <v>935721</v>
@@ -3151,8 +3625,17 @@
       <c r="Q30">
         <v>689030</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3160,43 +3643,43 @@
         <v>894282</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P31">
         <v>935723</v>
@@ -3204,8 +3687,17 @@
       <c r="Q31">
         <v>689032</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3213,43 +3705,43 @@
         <v>929452</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P32">
         <v>936223</v>
@@ -3257,8 +3749,17 @@
       <c r="Q32">
         <v>689607</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3266,43 +3767,43 @@
         <v>805667</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>20</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P33">
         <v>935725</v>
@@ -3310,8 +3811,17 @@
       <c r="Q33">
         <v>689035</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3319,43 +3829,43 @@
         <v>813067</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P34">
         <v>813067</v>
@@ -3363,8 +3873,17 @@
       <c r="Q34">
         <v>689036</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3372,43 +3891,43 @@
         <v>813069</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P35">
         <v>935728</v>
@@ -3416,8 +3935,17 @@
       <c r="Q35">
         <v>689038</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3425,43 +3953,43 @@
         <v>825833</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P36">
         <v>935730</v>
@@ -3469,8 +3997,17 @@
       <c r="Q36">
         <v>689040</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3478,43 +4015,43 @@
         <v>814845</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H37" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P37">
         <v>935732</v>
@@ -3522,8 +4059,17 @@
       <c r="Q37">
         <v>689042</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" t="s">
+        <v>30</v>
+      </c>
+      <c r="T37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3531,43 +4077,43 @@
         <v>869027</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="H38" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P38">
         <v>935734</v>
@@ -3575,8 +4121,17 @@
       <c r="Q38">
         <v>689044</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3584,43 +4139,43 @@
         <v>883799</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P39">
         <v>935735</v>
@@ -3628,46 +4183,64 @@
       <c r="Q39">
         <v>689045</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" t="s">
+        <v>30</v>
+      </c>
+      <c r="T39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R40" t="s">
+        <v>67</v>
+      </c>
+      <c r="S40" t="s">
+        <v>67</v>
+      </c>
+      <c r="T40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3675,43 +4248,43 @@
         <v>816242</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="M41" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P41">
         <v>935737</v>
@@ -3719,8 +4292,17 @@
       <c r="Q41">
         <v>689047</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3728,43 +4310,43 @@
         <v>813078</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="M42" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P42">
         <v>935739</v>
@@ -3772,8 +4354,17 @@
       <c r="Q42">
         <v>689049</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3781,43 +4372,43 @@
         <v>832792</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P43">
         <v>935740</v>
@@ -3825,8 +4416,17 @@
       <c r="Q43">
         <v>689050</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3834,43 +4434,43 @@
         <v>805691</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="M44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P44">
         <v>935742</v>
@@ -3878,8 +4478,17 @@
       <c r="Q44">
         <v>689052</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3887,43 +4496,43 @@
         <v>813080</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P45">
         <v>935744</v>
@@ -3931,8 +4540,17 @@
       <c r="Q45">
         <v>689054</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3940,43 +4558,43 @@
         <v>861798</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L46" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P46">
         <v>935745</v>
@@ -3984,8 +4602,17 @@
       <c r="Q46">
         <v>689055</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3993,43 +4620,43 @@
         <v>805654</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P47">
         <v>935747</v>
@@ -4037,8 +4664,17 @@
       <c r="Q47">
         <v>689057</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4046,43 +4682,43 @@
         <v>940995</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P48">
         <v>936224</v>
@@ -4090,8 +4726,17 @@
       <c r="Q48">
         <v>689608</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" t="s">
+        <v>30</v>
+      </c>
+      <c r="T48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4099,43 +4744,43 @@
         <v>816241</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" t="s">
         <v>199</v>
       </c>
-      <c r="E49" t="s">
-        <v>200</v>
-      </c>
-      <c r="F49" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" t="s">
-        <v>173</v>
-      </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P49">
         <v>935749</v>
@@ -4143,8 +4788,17 @@
       <c r="Q49">
         <v>689061</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" t="s">
+        <v>30</v>
+      </c>
+      <c r="T49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4152,43 +4806,43 @@
         <v>816246</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L50" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P50">
         <v>935750</v>
@@ -4196,8 +4850,17 @@
       <c r="Q50">
         <v>689062</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" t="s">
+        <v>30</v>
+      </c>
+      <c r="T50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4205,43 +4868,43 @@
         <v>813079</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P51">
         <v>935752</v>
@@ -4249,8 +4912,17 @@
       <c r="Q51">
         <v>689064</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>236</v>
+      </c>
+      <c r="S51" t="s">
+        <v>128</v>
+      </c>
+      <c r="T51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4258,43 +4930,43 @@
         <v>818957</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P52">
         <v>935754</v>
@@ -4302,8 +4974,17 @@
       <c r="Q52">
         <v>689067</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>236</v>
+      </c>
+      <c r="S52" t="s">
+        <v>128</v>
+      </c>
+      <c r="T52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4311,43 +4992,43 @@
         <v>805677</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H53" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P53">
         <v>935756</v>
@@ -4355,8 +5036,17 @@
       <c r="Q53">
         <v>689069</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>243</v>
+      </c>
+      <c r="S53" t="s">
+        <v>244</v>
+      </c>
+      <c r="T53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4364,43 +5054,43 @@
         <v>805669</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P54">
         <v>935758</v>
@@ -4408,8 +5098,17 @@
       <c r="Q54">
         <v>689071</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" t="s">
+        <v>30</v>
+      </c>
+      <c r="T54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4417,46 +5116,55 @@
         <v>900315</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="H55" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R55" t="s">
+        <v>30</v>
+      </c>
+      <c r="S55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4464,43 +5172,43 @@
         <v>805676</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P56">
         <v>935759</v>
@@ -4508,8 +5216,17 @@
       <c r="Q56">
         <v>689072</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S56" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4517,43 +5234,43 @@
         <v>805679</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L57" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="M57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P57">
         <v>935760</v>
@@ -4561,49 +5278,58 @@
       <c r="Q57">
         <v>689073</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>30</v>
+      </c>
+      <c r="S57" t="s">
+        <v>30</v>
+      </c>
+      <c r="T57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L58" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="M58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P58">
         <v>935761</v>
@@ -4611,49 +5337,58 @@
       <c r="Q58">
         <v>689074</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>30</v>
+      </c>
+      <c r="S58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H59" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="I59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L59" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="M59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P59">
         <v>936215</v>
@@ -4661,49 +5396,58 @@
       <c r="Q59">
         <v>689599</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" t="s">
+        <v>30</v>
+      </c>
+      <c r="T59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="H60" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L60" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="M60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P60">
         <v>936216</v>
@@ -4711,8 +5455,17 @@
       <c r="Q60">
         <v>689600</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" t="s">
+        <v>30</v>
+      </c>
+      <c r="T60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4720,43 +5473,43 @@
         <v>805661</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L61" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P61">
         <v>935762</v>
@@ -4764,49 +5517,58 @@
       <c r="Q61">
         <v>689077</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L62" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P62">
         <v>936217</v>
@@ -4814,49 +5576,58 @@
       <c r="Q62">
         <v>689602</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" t="s">
+        <v>30</v>
+      </c>
+      <c r="T62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D63" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P63">
         <v>936220</v>
@@ -4864,8 +5635,17 @@
       <c r="Q63">
         <v>689604</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" t="s">
+        <v>30</v>
+      </c>
+      <c r="T63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4873,43 +5653,43 @@
         <v>814849</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H64" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="I64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L64" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P64">
         <v>935763</v>
@@ -4917,46 +5697,64 @@
       <c r="Q64">
         <v>689080</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>243</v>
+      </c>
+      <c r="S64" t="s">
+        <v>244</v>
+      </c>
+      <c r="T64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L65" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="M65" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R65" t="s">
+        <v>67</v>
+      </c>
+      <c r="S65" t="s">
+        <v>67</v>
+      </c>
+      <c r="T65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4964,43 +5762,43 @@
         <v>825835</v>
       </c>
       <c r="C66" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L66" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P66">
         <v>935764</v>
@@ -5008,8 +5806,17 @@
       <c r="Q66">
         <v>689081</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>30</v>
+      </c>
+      <c r="S66" t="s">
+        <v>30</v>
+      </c>
+      <c r="T66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5017,43 +5824,43 @@
         <v>922133</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M67" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P67">
         <v>935679</v>
@@ -5061,8 +5868,17 @@
       <c r="Q67">
         <v>688982</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>30</v>
+      </c>
+      <c r="S67" t="s">
+        <v>30</v>
+      </c>
+      <c r="T67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5070,43 +5886,43 @@
         <v>913064</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="H68" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L68" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P68">
         <v>936221</v>
@@ -5114,8 +5930,17 @@
       <c r="Q68">
         <v>689605</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5123,43 +5948,43 @@
         <v>813092</v>
       </c>
       <c r="C69" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G69" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I69" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L69" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P69">
         <v>935681</v>
@@ -5167,8 +5992,17 @@
       <c r="Q69">
         <v>688987</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" t="s">
+        <v>30</v>
+      </c>
+      <c r="T69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5176,43 +6010,43 @@
         <v>825839</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H70" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P70">
         <v>935683</v>
@@ -5220,8 +6054,17 @@
       <c r="Q70">
         <v>688990</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>30</v>
+      </c>
+      <c r="S70" t="s">
+        <v>30</v>
+      </c>
+      <c r="T70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -5229,43 +6072,43 @@
         <v>805703</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E71" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="F71" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L71" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M71" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P71">
         <v>935685</v>
@@ -5273,8 +6116,17 @@
       <c r="Q71">
         <v>688992</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" t="s">
+        <v>30</v>
+      </c>
+      <c r="T71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5282,43 +6134,43 @@
         <v>805659</v>
       </c>
       <c r="C72" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H72" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L72" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="M72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P72">
         <v>935687</v>
@@ -5326,8 +6178,17 @@
       <c r="Q72">
         <v>688994</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>30</v>
+      </c>
+      <c r="S72" t="s">
+        <v>30</v>
+      </c>
+      <c r="T72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5335,43 +6196,43 @@
         <v>805705</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="H73" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L73" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M73" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P73">
         <v>935689</v>
@@ -5379,8 +6240,17 @@
       <c r="Q73">
         <v>688996</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>30</v>
+      </c>
+      <c r="S73" t="s">
+        <v>30</v>
+      </c>
+      <c r="T73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5388,43 +6258,43 @@
         <v>825840</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="E74" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G74" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L74" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P74">
         <v>935690</v>
@@ -5432,8 +6302,17 @@
       <c r="Q74">
         <v>688999</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>30</v>
+      </c>
+      <c r="S74" t="s">
+        <v>30</v>
+      </c>
+      <c r="T74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5441,43 +6320,43 @@
         <v>805711</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="F75" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M75" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P75">
         <v>935693</v>
@@ -5485,8 +6364,17 @@
       <c r="Q75">
         <v>689002</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>30</v>
+      </c>
+      <c r="S75" t="s">
+        <v>30</v>
+      </c>
+      <c r="T75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5494,43 +6382,43 @@
         <v>805712</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F76" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L76" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="M76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P76">
         <v>935695</v>
@@ -5538,8 +6426,17 @@
       <c r="Q76">
         <v>689004</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>30</v>
+      </c>
+      <c r="S76" t="s">
+        <v>30</v>
+      </c>
+      <c r="T76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5547,43 +6444,43 @@
         <v>805710</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="F77" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L77" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P77">
         <v>935697</v>
@@ -5591,8 +6488,17 @@
       <c r="Q77">
         <v>689006</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77" t="s">
+        <v>30</v>
+      </c>
+      <c r="T77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5600,37 +6506,37 @@
         <v>805653</v>
       </c>
       <c r="C78" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="I78" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L78" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="M78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P78">
         <v>935699</v>
@@ -5638,8 +6544,17 @@
       <c r="Q78">
         <v>689008</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>325</v>
+      </c>
+      <c r="S78" t="s">
+        <v>326</v>
+      </c>
+      <c r="T78" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5647,37 +6562,37 @@
         <v>805724</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D79" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F79" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="I79" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L79" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M79" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P79">
         <v>935701</v>
@@ -5685,8 +6600,17 @@
       <c r="Q79">
         <v>689010</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>331</v>
+      </c>
+      <c r="S79" t="s">
+        <v>332</v>
+      </c>
+      <c r="T79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5694,37 +6618,37 @@
         <v>813084</v>
       </c>
       <c r="C80" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="E80" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L80" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="M80" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P80">
         <v>935704</v>
@@ -5732,8 +6656,17 @@
       <c r="Q80">
         <v>689013</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>337</v>
+      </c>
+      <c r="S80" t="s">
+        <v>338</v>
+      </c>
+      <c r="T80" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>82</v>
       </c>
@@ -5741,37 +6674,37 @@
         <v>813086</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L81" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="M81" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P81">
         <v>935708</v>
@@ -5779,8 +6712,17 @@
       <c r="Q81">
         <v>689017</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81" t="s">
+        <v>342</v>
+      </c>
+      <c r="S81" t="s">
+        <v>343</v>
+      </c>
+      <c r="T81" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83</v>
       </c>
@@ -5788,37 +6730,37 @@
         <v>805686</v>
       </c>
       <c r="C82" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D82" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F82" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L82" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="M82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P82">
         <v>935710</v>
@@ -5826,8 +6768,17 @@
       <c r="Q82">
         <v>689019</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82" t="s">
+        <v>337</v>
+      </c>
+      <c r="S82" t="s">
+        <v>338</v>
+      </c>
+      <c r="T82" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>84</v>
       </c>
@@ -5835,37 +6786,37 @@
         <v>805693</v>
       </c>
       <c r="C83" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D83" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I83" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L83" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M83" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P83">
         <v>935713</v>
@@ -5873,8 +6824,17 @@
       <c r="Q83">
         <v>689021</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" t="s">
+        <v>337</v>
+      </c>
+      <c r="S83" t="s">
+        <v>338</v>
+      </c>
+      <c r="T83" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>85</v>
       </c>
@@ -5882,37 +6842,37 @@
         <v>882704</v>
       </c>
       <c r="C84" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="I84" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L84" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="M84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P84">
         <v>935714</v>
@@ -5920,43 +6880,52 @@
       <c r="Q84">
         <v>689022</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" t="s">
+        <v>351</v>
+      </c>
+      <c r="S84" t="s">
+        <v>352</v>
+      </c>
+      <c r="T84" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F85" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="I85" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L85" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="M85" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P85">
         <v>935715</v>
@@ -5964,8 +6933,17 @@
       <c r="Q85">
         <v>689023</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" t="s">
+        <v>351</v>
+      </c>
+      <c r="S85" t="s">
+        <v>352</v>
+      </c>
+      <c r="T85" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>87</v>
       </c>
@@ -5973,37 +6951,37 @@
         <v>805713</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="F86" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="I86" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L86" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M86" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P86">
         <v>935716</v>
@@ -6011,8 +6989,17 @@
       <c r="Q86">
         <v>689024</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" t="s">
+        <v>360</v>
+      </c>
+      <c r="S86" t="s">
+        <v>361</v>
+      </c>
+      <c r="T86" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>88</v>
       </c>
@@ -6020,37 +7007,37 @@
         <v>827440</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F87" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="I87" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L87" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="M87" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P87">
         <v>935718</v>
@@ -6058,8 +7045,17 @@
       <c r="Q87">
         <v>689027</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87" t="s">
+        <v>227</v>
+      </c>
+      <c r="S87" t="s">
+        <v>365</v>
+      </c>
+      <c r="T87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>89</v>
       </c>
@@ -6067,37 +7063,37 @@
         <v>901753</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D88" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="F88" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="I88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L88" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="M88" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P88">
         <v>935720</v>
@@ -6105,8 +7101,17 @@
       <c r="Q88">
         <v>689029</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>351</v>
+      </c>
+      <c r="S88" t="s">
+        <v>352</v>
+      </c>
+      <c r="T88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90</v>
       </c>
@@ -6114,37 +7119,37 @@
         <v>859028</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L89" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="M89" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P89">
         <v>935722</v>
@@ -6152,8 +7157,17 @@
       <c r="Q89">
         <v>689031</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89" t="s">
+        <v>373</v>
+      </c>
+      <c r="S89" t="s">
+        <v>374</v>
+      </c>
+      <c r="T89" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>91</v>
       </c>
@@ -6161,37 +7175,37 @@
         <v>805675</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D90" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L90" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="M90" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P90">
         <v>935724</v>
@@ -6199,8 +7213,17 @@
       <c r="Q90">
         <v>689034</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>373</v>
+      </c>
+      <c r="S90" t="s">
+        <v>374</v>
+      </c>
+      <c r="T90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>92</v>
       </c>
@@ -6208,37 +7231,37 @@
         <v>805719</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="I91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L91" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="M91" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P91">
         <v>935727</v>
@@ -6246,8 +7269,17 @@
       <c r="Q91">
         <v>689037</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91" t="s">
+        <v>227</v>
+      </c>
+      <c r="S91" t="s">
+        <v>365</v>
+      </c>
+      <c r="T91" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>93</v>
       </c>
@@ -6255,37 +7287,37 @@
         <v>805720</v>
       </c>
       <c r="C92" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D92" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E92" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L92" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="M92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P92">
         <v>935729</v>
@@ -6293,8 +7325,17 @@
       <c r="Q92">
         <v>689039</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>373</v>
+      </c>
+      <c r="S92" t="s">
+        <v>374</v>
+      </c>
+      <c r="T92" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>94</v>
       </c>
@@ -6302,37 +7343,37 @@
         <v>858286</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="F93" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="M93" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P93">
         <v>935731</v>
@@ -6340,8 +7381,17 @@
       <c r="Q93">
         <v>689041</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
+        <v>386</v>
+      </c>
+      <c r="S93" t="s">
+        <v>384</v>
+      </c>
+      <c r="T93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -6349,37 +7399,37 @@
         <v>805682</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="E94" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L94" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="M94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P94">
         <v>935733</v>
@@ -6387,8 +7437,17 @@
       <c r="Q94">
         <v>689043</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94" t="s">
+        <v>337</v>
+      </c>
+      <c r="S94" t="s">
+        <v>338</v>
+      </c>
+      <c r="T94" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>96</v>
       </c>
@@ -6396,37 +7455,37 @@
         <v>805670</v>
       </c>
       <c r="C95" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F95" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="I95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L95" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="M95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P95">
         <v>935736</v>
@@ -6434,8 +7493,17 @@
       <c r="Q95">
         <v>689046</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>227</v>
+      </c>
+      <c r="S95" t="s">
+        <v>365</v>
+      </c>
+      <c r="T95" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>97</v>
       </c>
@@ -6443,37 +7511,37 @@
         <v>805678</v>
       </c>
       <c r="C96" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="I96" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L96" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="M96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P96">
         <v>935738</v>
@@ -6481,8 +7549,17 @@
       <c r="Q96">
         <v>689048</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96" t="s">
+        <v>360</v>
+      </c>
+      <c r="S96" t="s">
+        <v>361</v>
+      </c>
+      <c r="T96" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>98</v>
       </c>
@@ -6490,37 +7567,37 @@
         <v>805687</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D97" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L97" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="M97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P97">
         <v>935741</v>
@@ -6528,8 +7605,17 @@
       <c r="Q97">
         <v>689051</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97" t="s">
+        <v>36</v>
+      </c>
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>99</v>
       </c>
@@ -6537,37 +7623,37 @@
         <v>805692</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D98" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L98" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="M98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P98">
         <v>935743</v>
@@ -6575,8 +7661,17 @@
       <c r="Q98">
         <v>689053</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98" t="s">
+        <v>337</v>
+      </c>
+      <c r="S98" t="s">
+        <v>338</v>
+      </c>
+      <c r="T98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>100</v>
       </c>
@@ -6584,37 +7679,37 @@
         <v>805694</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D99" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="E99" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I99" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L99" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="M99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P99">
         <v>935746</v>
@@ -6622,8 +7717,17 @@
       <c r="Q99">
         <v>689056</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99" t="s">
+        <v>373</v>
+      </c>
+      <c r="S99" t="s">
+        <v>374</v>
+      </c>
+      <c r="T99" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>101</v>
       </c>
@@ -6631,43 +7735,43 @@
         <v>941005</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="E100" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G100" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H100" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L100" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="M100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P100">
         <v>935748</v>
@@ -6675,8 +7779,17 @@
       <c r="Q100">
         <v>689059</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100" t="s">
+        <v>243</v>
+      </c>
+      <c r="S100" t="s">
+        <v>244</v>
+      </c>
+      <c r="T100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>102</v>
       </c>
@@ -6684,43 +7797,43 @@
         <v>805459</v>
       </c>
       <c r="C101" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="D101" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="E101" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="F101" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="G101" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H101" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L101" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="M101" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P101">
         <v>936226</v>
@@ -6728,8 +7841,17 @@
       <c r="Q101">
         <v>689610</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101" t="s">
+        <v>407</v>
+      </c>
+      <c r="S101" t="s">
+        <v>406</v>
+      </c>
+      <c r="T101" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>105</v>
       </c>
@@ -6737,43 +7859,43 @@
         <v>805685</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D102" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="E102" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G102" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H102" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I102" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J102">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L102" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="M102" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P102">
         <v>935751</v>
@@ -6781,8 +7903,17 @@
       <c r="Q102">
         <v>689063</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102" t="s">
+        <v>412</v>
+      </c>
+      <c r="S102" t="s">
+        <v>413</v>
+      </c>
+      <c r="T102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>106</v>
       </c>
@@ -6790,46 +7921,55 @@
         <v>840822</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="E103" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H103" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L103" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="M103" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R103" t="s">
+        <v>227</v>
+      </c>
+      <c r="S103" t="s">
+        <v>365</v>
+      </c>
+      <c r="T103" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>107</v>
       </c>
@@ -6837,46 +7977,55 @@
         <v>941045</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F104" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G104" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="H104" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="I104" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J104">
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L104" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="M104" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R104" t="s">
+        <v>422</v>
+      </c>
+      <c r="S104" t="s">
+        <v>265</v>
+      </c>
+      <c r="T104" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>108</v>
       </c>
@@ -6884,46 +8033,55 @@
         <v>805663</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D105" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="E105" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="F105" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G105" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I105" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J105">
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L105" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="M105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R105" t="s">
+        <v>227</v>
+      </c>
+      <c r="S105" t="s">
+        <v>365</v>
+      </c>
+      <c r="T105" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>109</v>
       </c>
@@ -6931,46 +8089,55 @@
         <v>900311</v>
       </c>
       <c r="C106" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="E106" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F106" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H106" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I106" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L106" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="M106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N106">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R106" t="s">
+        <v>227</v>
+      </c>
+      <c r="S106" t="s">
+        <v>365</v>
+      </c>
+      <c r="T106" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>110</v>
       </c>
@@ -6978,46 +8145,55 @@
         <v>816905</v>
       </c>
       <c r="C107" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D107" t="s">
+        <v>427</v>
+      </c>
+      <c r="E107" t="s">
+        <v>417</v>
+      </c>
+      <c r="F107" t="s">
+        <v>296</v>
+      </c>
+      <c r="G107" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" t="s">
+        <v>53</v>
+      </c>
+      <c r="I107" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" t="s">
+        <v>428</v>
+      </c>
+      <c r="M107" t="s">
+        <v>29</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>27</v>
+      </c>
+      <c r="R107" t="s">
+        <v>227</v>
+      </c>
+      <c r="S107" t="s">
         <v>365</v>
       </c>
-      <c r="E107" t="s">
-        <v>356</v>
-      </c>
-      <c r="F107" t="s">
-        <v>265</v>
-      </c>
-      <c r="G107" t="s">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s">
-        <v>30</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107" t="s">
-        <v>24</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="T107" t="s">
         <v>366</v>
       </c>
-      <c r="M107" t="s">
-        <v>26</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>111</v>
       </c>
@@ -7025,46 +8201,55 @@
         <v>840848</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="E108" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F108" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="G108" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H108" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I108" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J108">
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L108" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="M108" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R108" t="s">
+        <v>360</v>
+      </c>
+      <c r="S108" t="s">
+        <v>361</v>
+      </c>
+      <c r="T108" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>112</v>
       </c>
@@ -7072,46 +8257,55 @@
         <v>900309</v>
       </c>
       <c r="C109" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D109" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="E109" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H109" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L109" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="M109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R109" t="s">
+        <v>227</v>
+      </c>
+      <c r="S109" t="s">
+        <v>365</v>
+      </c>
+      <c r="T109" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>113</v>
       </c>
@@ -7119,46 +8313,55 @@
         <v>913652</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D110" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="E110" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F110" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="G110" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H110" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I110" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J110">
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L110" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="M110" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R110" t="s">
+        <v>360</v>
+      </c>
+      <c r="S110" t="s">
+        <v>361</v>
+      </c>
+      <c r="T110" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>114</v>
       </c>
@@ -7166,46 +8369,55 @@
         <v>840823</v>
       </c>
       <c r="C111" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D111" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="E111" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F111" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="G111" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H111" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I111" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J111">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L111" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="M111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
       <c r="O111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R111" t="s">
+        <v>360</v>
+      </c>
+      <c r="S111" t="s">
+        <v>361</v>
+      </c>
+      <c r="T111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>115</v>
       </c>
@@ -7213,46 +8425,55 @@
         <v>871143</v>
       </c>
       <c r="C112" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="E112" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H112" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J112">
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L112" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="M112" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R112" t="s">
+        <v>227</v>
+      </c>
+      <c r="S112" t="s">
+        <v>365</v>
+      </c>
+      <c r="T112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>116</v>
       </c>
@@ -7260,46 +8481,55 @@
         <v>913650</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="E113" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F113" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H113" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J113">
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L113" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="M113" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N113">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O113" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R113" t="s">
+        <v>227</v>
+      </c>
+      <c r="S113" t="s">
+        <v>365</v>
+      </c>
+      <c r="T113" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>117</v>
       </c>
@@ -7307,46 +8537,55 @@
         <v>913651</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="E114" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F114" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="G114" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H114" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I114" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J114">
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L114" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="M114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O114" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R114" t="s">
+        <v>360</v>
+      </c>
+      <c r="S114" t="s">
+        <v>361</v>
+      </c>
+      <c r="T114" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>118</v>
       </c>
@@ -7354,46 +8593,55 @@
         <v>913648</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D115" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="E115" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G115" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H115" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J115">
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L115" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="M115" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R115" t="s">
+        <v>36</v>
+      </c>
+      <c r="S115" t="s">
+        <v>37</v>
+      </c>
+      <c r="T115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>119</v>
       </c>
@@ -7401,46 +8649,55 @@
         <v>805696</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="E116" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F116" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H116" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J116">
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L116" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="M116" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R116" t="s">
+        <v>444</v>
+      </c>
+      <c r="S116" t="s">
+        <v>445</v>
+      </c>
+      <c r="T116" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>120</v>
       </c>
@@ -7448,46 +8705,55 @@
         <v>818963</v>
       </c>
       <c r="C117" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D117" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="E117" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F117" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H117" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J117">
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L117" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="M117" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R117" t="s">
+        <v>227</v>
+      </c>
+      <c r="S117" t="s">
+        <v>365</v>
+      </c>
+      <c r="T117" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>121</v>
       </c>
@@ -7495,46 +8761,55 @@
         <v>941062</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D118" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="E118" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G118" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="H118" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="I118" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J118">
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L118" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="M118" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R118" t="s">
+        <v>422</v>
+      </c>
+      <c r="S118" t="s">
+        <v>265</v>
+      </c>
+      <c r="T118" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>122</v>
       </c>
@@ -7542,46 +8817,55 @@
         <v>805651</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="E119" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="F119" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G119" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H119" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J119">
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L119" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="M119" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R119" t="s">
+        <v>86</v>
+      </c>
+      <c r="S119" t="s">
+        <v>87</v>
+      </c>
+      <c r="T119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>123</v>
       </c>
@@ -7589,46 +8873,55 @@
         <v>929464</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="E120" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I120" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L120" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="M120" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N120">
         <v>50</v>
       </c>
       <c r="O120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R120" t="s">
+        <v>454</v>
+      </c>
+      <c r="S120" t="s">
+        <v>455</v>
+      </c>
+      <c r="T120" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>124</v>
       </c>
@@ -7636,46 +8929,55 @@
         <v>805665</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D121" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G121" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="H121" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="I121" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J121">
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L121" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="M121" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N121">
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R121" t="s">
+        <v>422</v>
+      </c>
+      <c r="S121" t="s">
+        <v>265</v>
+      </c>
+      <c r="T121" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>125</v>
       </c>
@@ -7683,46 +8985,55 @@
         <v>900310</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="E122" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F122" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H122" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J122">
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L122" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="M122" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R122" t="s">
+        <v>461</v>
+      </c>
+      <c r="S122" t="s">
+        <v>462</v>
+      </c>
+      <c r="T122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>127</v>
       </c>
@@ -7730,46 +9041,55 @@
         <v>913653</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D123" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="E123" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="F123" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G123" t="s">
-        <v>395</v>
+        <v>466</v>
       </c>
       <c r="H123" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="I123" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J123">
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L123" t="s">
-        <v>396</v>
+        <v>467</v>
       </c>
       <c r="M123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R123" t="s">
+        <v>86</v>
+      </c>
+      <c r="S123" t="s">
+        <v>87</v>
+      </c>
+      <c r="T123" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>128</v>
       </c>
@@ -7777,46 +9097,55 @@
         <v>932132</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="E124" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="F124" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H124" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L124" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="M124" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R124" t="s">
+        <v>227</v>
+      </c>
+      <c r="S124" t="s">
+        <v>365</v>
+      </c>
+      <c r="T124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>130</v>
       </c>
@@ -7824,43 +9153,43 @@
         <v>805721</v>
       </c>
       <c r="C125" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D125" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="E125" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="F125" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G125" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="H125" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="I125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J125">
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L125" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="M125" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P125">
         <v>935755</v>
@@ -7868,8 +9197,17 @@
       <c r="Q125">
         <v>689068</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125" t="s">
+        <v>227</v>
+      </c>
+      <c r="S125" t="s">
+        <v>365</v>
+      </c>
+      <c r="T125" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>131</v>
       </c>
@@ -7877,43 +9215,43 @@
         <v>939774</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="E126" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="F126" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G126" t="s">
+        <v>133</v>
+      </c>
+      <c r="H126" t="s">
         <v>107</v>
       </c>
-      <c r="H126" t="s">
-        <v>81</v>
-      </c>
       <c r="I126" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J126">
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L126" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="M126" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P126">
         <v>935702</v>
@@ -7921,8 +9259,17 @@
       <c r="Q126">
         <v>689011</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126" t="s">
+        <v>30</v>
+      </c>
+      <c r="S126" t="s">
+        <v>30</v>
+      </c>
+      <c r="T126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>132</v>
       </c>
@@ -7930,46 +9277,55 @@
         <v>940154</v>
       </c>
       <c r="C127" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D127" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="E127" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G127" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="H127" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I127" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L127" t="s">
-        <v>405</v>
+        <v>476</v>
       </c>
       <c r="M127" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q127">
         <v>689034</v>
+      </c>
+      <c r="R127" t="s">
+        <v>79</v>
+      </c>
+      <c r="S127" t="s">
+        <v>80</v>
+      </c>
+      <c r="T127" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1779,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
         <v>24</v>
@@ -2089,7 +2089,7 @@
         <v>24</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s">
         <v>24</v>
@@ -2213,7 +2213,7 @@
         <v>30</v>
       </c>
       <c r="S13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
         <v>24</v>
@@ -2458,13 +2458,13 @@
         <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2644,13 +2644,13 @@
         <v>77</v>
       </c>
       <c r="R20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
         <v>30</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
         <v>30</v>
@@ -3140,13 +3140,13 @@
         <v>100</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3822,13 +3822,13 @@
         <v>130</v>
       </c>
       <c r="R39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4132,10 +4132,10 @@
         <v>141</v>
       </c>
       <c r="R44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T44" t="s">
         <v>24</v>
@@ -4380,13 +4380,13 @@
         <v>137</v>
       </c>
       <c r="R48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -5124,10 +5124,10 @@
         <v>141</v>
       </c>
       <c r="R60" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T60" t="s">
         <v>24</v>
@@ -5186,10 +5186,10 @@
         <v>173</v>
       </c>
       <c r="R61" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T61" t="s">
         <v>24</v>
@@ -5372,13 +5372,13 @@
         <v>178</v>
       </c>
       <c r="R64" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -6860,10 +6860,10 @@
         <v>239</v>
       </c>
       <c r="R88" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T88" t="s">
         <v>24</v>
@@ -7108,13 +7108,13 @@
         <v>251</v>
       </c>
       <c r="R92" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7232,13 +7232,13 @@
         <v>257</v>
       </c>
       <c r="R94" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7855,7 +7855,7 @@
         <v>24</v>
       </c>
       <c r="S104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T104" t="s">
         <v>24</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="334">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Beef Bones</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Beef Flat Iron Steak</t>
   </si>
   <si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Hanger Steak</t>
-  </si>
-  <si>
-    <t>0.40 - 0.50 lbs</t>
   </si>
   <si>
     <t>Hanger steak is a flat, flavorful cut of beef from the upper belly of a cow, also known as the plate. It's a primal cut that's similar to flank and skirt steak, but more tender. The cut gets its name from its location, just below the diaphragm, where it "hangs" between the ribs and loin.</t>
@@ -1528,7 +1525,7 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S2">
         <v>6</v>
@@ -1548,10 +1545,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>11</v>
@@ -1563,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1">
         <v>7.15</v>
@@ -1587,10 +1584,10 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1652,13 +1649,13 @@
         <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1714,13 +1711,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S5">
         <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1776,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1838,7 +1835,7 @@
         <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1861,7 +1858,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>15</v>
@@ -1873,7 +1870,7 @@
         <v>3.5</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1">
         <v>9.75</v>
@@ -1900,13 +1897,13 @@
         <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1962,13 +1959,13 @@
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2024,7 +2021,7 @@
         <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2086,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -2109,7 +2106,7 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>10.5</v>
@@ -2142,19 +2139,19 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="s">
         <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2210,7 +2207,7 @@
         <v>58</v>
       </c>
       <c r="R13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2272,13 +2269,13 @@
         <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2334,7 +2331,7 @@
         <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2396,13 +2393,13 @@
         <v>67</v>
       </c>
       <c r="R16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2458,13 +2455,13 @@
         <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2520,13 +2517,13 @@
         <v>70</v>
       </c>
       <c r="R18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2582,13 +2579,13 @@
         <v>70</v>
       </c>
       <c r="R19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2644,13 +2641,13 @@
         <v>77</v>
       </c>
       <c r="R20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2706,13 +2703,13 @@
         <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2768,13 +2765,13 @@
         <v>83</v>
       </c>
       <c r="R22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2791,7 +2788,7 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
         <v>26</v>
@@ -2827,16 +2824,16 @@
         <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2850,10 +2847,10 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="1">
         <v>19.5</v>
@@ -2889,10 +2886,10 @@
         <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2912,10 +2909,10 @@
         <v>20</v>
       </c>
       <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
         <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
       </c>
       <c r="F25" s="1">
         <v>12</v>
@@ -2951,10 +2948,10 @@
         <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2974,10 +2971,10 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
       </c>
       <c r="F26" s="1">
         <v>37</v>
@@ -3013,16 +3010,16 @@
         <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3036,10 +3033,10 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="1">
         <v>12</v>
@@ -3075,10 +3072,10 @@
         <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3098,10 +3095,10 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
         <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
       </c>
       <c r="F28" s="1">
         <v>40.5</v>
@@ -3137,16 +3134,16 @@
         <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3160,10 +3157,10 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>102</v>
       </c>
       <c r="F29" s="1">
         <v>26</v>
@@ -3199,16 +3196,16 @@
         <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3222,10 +3219,10 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
         <v>104</v>
-      </c>
-      <c r="E30" t="s">
-        <v>105</v>
       </c>
       <c r="F30" s="1">
         <v>26</v>
@@ -3261,16 +3258,16 @@
         <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3284,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>60</v>
@@ -3323,13 +3320,13 @@
         <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R31" t="s">
         <v>24</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T31" t="s">
         <v>24</v>
@@ -3346,10 +3343,10 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
         <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
       </c>
       <c r="F32" s="1">
         <v>25</v>
@@ -3385,16 +3382,16 @@
         <v>24</v>
       </c>
       <c r="Q32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3408,10 +3405,10 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
       </c>
       <c r="F33" s="1">
         <v>5</v>
@@ -3447,10 +3444,10 @@
         <v>24</v>
       </c>
       <c r="Q33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3467,14 +3464,14 @@
         <v>806161</v>
       </c>
       <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>115</v>
       </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
       <c r="F34" s="1">
         <v>26</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1">
         <v>16.900000000000002</v>
@@ -3509,10 +3506,10 @@
         <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S34">
         <v>99</v>
@@ -3529,13 +3526,13 @@
         <v>941000</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
         <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
       </c>
       <c r="F35" s="1">
         <v>47.5</v>
@@ -3547,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1">
         <v>30.875</v>
@@ -3571,10 +3568,10 @@
         <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3591,13 +3588,13 @@
         <v>940998</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
         <v>120</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
       </c>
       <c r="F36" s="1">
         <v>17</v>
@@ -3609,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J36" s="1">
         <v>11.05</v>
@@ -3633,10 +3630,10 @@
         <v>24</v>
       </c>
       <c r="Q36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S36">
         <v>174</v>
@@ -3653,13 +3650,13 @@
         <v>806159</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
         <v>122</v>
-      </c>
-      <c r="E37" t="s">
-        <v>123</v>
       </c>
       <c r="F37" s="1">
         <v>25</v>
@@ -3671,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" s="1">
         <v>16.25</v>
@@ -3695,16 +3692,16 @@
         <v>24</v>
       </c>
       <c r="Q37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S37">
         <v>2</v>
       </c>
       <c r="T37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3715,13 +3712,13 @@
         <v>940994</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
         <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
       </c>
       <c r="F38" s="1">
         <v>14</v>
@@ -3733,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J38" s="1">
         <v>9.1</v>
@@ -3757,16 +3754,16 @@
         <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3777,13 +3774,13 @@
         <v>900311</v>
       </c>
       <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
         <v>127</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>128</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
       </c>
       <c r="F39" s="1">
         <v>20</v>
@@ -3795,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J39" s="1">
         <v>13</v>
@@ -3819,16 +3816,16 @@
         <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3839,13 +3836,13 @@
         <v>840848</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
         <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>132</v>
       </c>
       <c r="F40" s="1">
         <v>16.5</v>
@@ -3857,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J40" s="1">
         <v>10.725</v>
@@ -3881,10 +3878,10 @@
         <v>24</v>
       </c>
       <c r="Q40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3901,13 +3898,13 @@
         <v>840823</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1">
         <v>16.5</v>
@@ -3919,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J41" s="1">
         <v>10.725</v>
@@ -3943,10 +3940,10 @@
         <v>24</v>
       </c>
       <c r="Q41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3963,13 +3960,13 @@
         <v>913652</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F42" s="1">
         <v>16.5</v>
@@ -3981,7 +3978,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J42" s="1">
         <v>10.725</v>
@@ -4005,10 +4002,10 @@
         <v>24</v>
       </c>
       <c r="Q42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4025,13 +4022,13 @@
         <v>805696</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F43" s="1">
         <v>24</v>
@@ -4043,7 +4040,7 @@
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J43" s="1">
         <v>15.600000000000001</v>
@@ -4067,10 +4064,10 @@
         <v>24</v>
       </c>
       <c r="Q43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4087,13 +4084,13 @@
         <v>913651</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1">
         <v>16.5</v>
@@ -4105,7 +4102,7 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J44" s="1">
         <v>10.725</v>
@@ -4129,10 +4126,10 @@
         <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4149,13 +4146,13 @@
         <v>816905</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="1">
         <v>20</v>
@@ -4167,7 +4164,7 @@
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J45" s="1">
         <v>13</v>
@@ -4191,10 +4188,10 @@
         <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4211,13 +4208,13 @@
         <v>932132</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="1">
         <v>20</v>
@@ -4229,7 +4226,7 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1">
         <v>13</v>
@@ -4253,10 +4250,10 @@
         <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4273,13 +4270,13 @@
         <v>840822</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="1">
         <v>20</v>
@@ -4291,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1">
         <v>13</v>
@@ -4315,10 +4312,10 @@
         <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -4335,13 +4332,13 @@
         <v>900309</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1">
         <v>20</v>
@@ -4353,7 +4350,7 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J48" s="1">
         <v>13</v>
@@ -4377,16 +4374,16 @@
         <v>24</v>
       </c>
       <c r="Q48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T48" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4397,13 +4394,13 @@
         <v>913653</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" t="s">
         <v>148</v>
-      </c>
-      <c r="E49" t="s">
-        <v>149</v>
       </c>
       <c r="F49" s="1">
         <v>15</v>
@@ -4415,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J49" s="1">
         <v>9.75</v>
@@ -4439,10 +4436,10 @@
         <v>24</v>
       </c>
       <c r="Q49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R49" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -4459,13 +4456,13 @@
         <v>818963</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" s="1">
         <v>20</v>
@@ -4477,7 +4474,7 @@
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J50" s="1">
         <v>13</v>
@@ -4501,10 +4498,10 @@
         <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4521,13 +4518,13 @@
         <v>871143</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F51" s="1">
         <v>20</v>
@@ -4539,7 +4536,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J51" s="1">
         <v>13</v>
@@ -4563,10 +4560,10 @@
         <v>24</v>
       </c>
       <c r="Q51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4583,13 +4580,13 @@
         <v>913648</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
         <v>155</v>
-      </c>
-      <c r="E52" t="s">
-        <v>156</v>
       </c>
       <c r="F52" s="1">
         <v>17</v>
@@ -4601,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J52" s="1">
         <v>11.05</v>
@@ -4625,16 +4622,16 @@
         <v>24</v>
       </c>
       <c r="Q52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4645,13 +4642,13 @@
         <v>805663</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
         <v>157</v>
-      </c>
-      <c r="E53" t="s">
-        <v>158</v>
       </c>
       <c r="F53" s="1">
         <v>20</v>
@@ -4663,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J53" s="1">
         <v>13</v>
@@ -4687,10 +4684,10 @@
         <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4707,13 +4704,13 @@
         <v>941045</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
         <v>160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>161</v>
       </c>
       <c r="F54" s="1">
         <v>10</v>
@@ -4725,7 +4722,7 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" s="1">
         <v>6.5</v>
@@ -4749,10 +4746,10 @@
         <v>24</v>
       </c>
       <c r="Q54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -4769,13 +4766,13 @@
         <v>805651</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F55" s="1">
         <v>15</v>
@@ -4787,7 +4784,7 @@
         <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J55" s="1">
         <v>9.75</v>
@@ -4811,16 +4808,16 @@
         <v>24</v>
       </c>
       <c r="Q55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4831,13 +4828,13 @@
         <v>941062</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56" s="1">
         <v>10</v>
@@ -4849,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J56" s="1">
         <v>6.5</v>
@@ -4873,16 +4870,16 @@
         <v>24</v>
       </c>
       <c r="Q56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4893,13 +4890,13 @@
         <v>929464</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F57" s="1">
         <v>16</v>
@@ -4911,7 +4908,7 @@
         <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J57" s="1">
         <v>10.4</v>
@@ -4935,10 +4932,10 @@
         <v>24</v>
       </c>
       <c r="Q57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S57">
         <v>50</v>
@@ -4955,13 +4952,13 @@
         <v>805665</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1">
         <v>10</v>
@@ -4973,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J58" s="1">
         <v>6.5</v>
@@ -4997,10 +4994,10 @@
         <v>24</v>
       </c>
       <c r="Q58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -5017,13 +5014,13 @@
         <v>900310</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="1">
         <v>22</v>
@@ -5035,7 +5032,7 @@
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J59" s="1">
         <v>14.3</v>
@@ -5059,16 +5056,16 @@
         <v>24</v>
       </c>
       <c r="Q59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -5079,13 +5076,13 @@
         <v>913650</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" s="1">
         <v>20</v>
@@ -5097,7 +5094,7 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J60" s="1">
         <v>13</v>
@@ -5121,10 +5118,10 @@
         <v>24</v>
       </c>
       <c r="Q60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -5141,10 +5138,10 @@
         <v>813092</v>
       </c>
       <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
         <v>171</v>
-      </c>
-      <c r="D61" t="s">
-        <v>172</v>
       </c>
       <c r="E61" t="s">
         <v>82</v>
@@ -5183,10 +5180,10 @@
         <v>24</v>
       </c>
       <c r="Q61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5203,13 +5200,13 @@
         <v>825835</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F62" s="1">
         <v>2.5</v>
@@ -5245,10 +5242,10 @@
         <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -5265,13 +5262,13 @@
         <v>922133</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" t="s">
         <v>176</v>
-      </c>
-      <c r="E63" t="s">
-        <v>177</v>
       </c>
       <c r="F63" s="1">
         <v>24</v>
@@ -5307,10 +5304,10 @@
         <v>24</v>
       </c>
       <c r="Q63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -5327,13 +5324,13 @@
         <v>913064</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
         <v>179</v>
-      </c>
-      <c r="E64" t="s">
-        <v>180</v>
       </c>
       <c r="F64" s="1">
         <v>24</v>
@@ -5369,16 +5366,16 @@
         <v>24</v>
       </c>
       <c r="Q64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5389,13 +5386,13 @@
         <v>939774</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
         <v>181</v>
-      </c>
-      <c r="E65" t="s">
-        <v>182</v>
       </c>
       <c r="F65" s="1">
         <v>9.5</v>
@@ -5431,10 +5428,10 @@
         <v>24</v>
       </c>
       <c r="Q65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -5451,10 +5448,10 @@
         <v>825839</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
         <v>57</v>
@@ -5493,10 +5490,10 @@
         <v>24</v>
       </c>
       <c r="Q66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S66">
         <v>11</v>
@@ -5513,13 +5510,13 @@
         <v>805703</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" t="s">
         <v>186</v>
-      </c>
-      <c r="E67" t="s">
-        <v>187</v>
       </c>
       <c r="F67" s="1">
         <v>15.5</v>
@@ -5555,10 +5552,10 @@
         <v>24</v>
       </c>
       <c r="Q67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5575,10 +5572,10 @@
         <v>805705</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
@@ -5617,16 +5614,16 @@
         <v>24</v>
       </c>
       <c r="Q68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5637,10 +5634,10 @@
         <v>825840</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
         <v>79</v>
@@ -5679,16 +5676,16 @@
         <v>24</v>
       </c>
       <c r="Q69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5699,13 +5696,13 @@
         <v>805710</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" t="s">
         <v>193</v>
-      </c>
-      <c r="E70" t="s">
-        <v>194</v>
       </c>
       <c r="F70" s="1">
         <v>19</v>
@@ -5741,10 +5738,10 @@
         <v>24</v>
       </c>
       <c r="Q70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -5761,13 +5758,13 @@
         <v>805711</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" t="s">
         <v>196</v>
-      </c>
-      <c r="E71" t="s">
-        <v>197</v>
       </c>
       <c r="F71" s="1">
         <v>20</v>
@@ -5803,10 +5800,10 @@
         <v>24</v>
       </c>
       <c r="Q71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5823,13 +5820,13 @@
         <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F72" s="1">
         <v>13</v>
@@ -5862,19 +5859,19 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q72" t="s">
         <v>54</v>
       </c>
       <c r="R72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -5885,10 +5882,10 @@
         <v>805712</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
         <v>57</v>
@@ -5927,10 +5924,10 @@
         <v>24</v>
       </c>
       <c r="Q73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R73" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -5947,13 +5944,13 @@
         <v>805659</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" t="s">
         <v>202</v>
-      </c>
-      <c r="E74" t="s">
-        <v>203</v>
       </c>
       <c r="F74" s="1">
         <v>21.5</v>
@@ -5989,16 +5986,16 @@
         <v>24</v>
       </c>
       <c r="Q74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -6009,13 +6006,13 @@
         <v>941005</v>
       </c>
       <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" t="s">
         <v>205</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>206</v>
-      </c>
-      <c r="E75" t="s">
-        <v>207</v>
       </c>
       <c r="F75" s="1">
         <v>12</v>
@@ -6027,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J75" s="1">
         <v>7.800000000000001</v>
@@ -6051,10 +6048,10 @@
         <v>24</v>
       </c>
       <c r="Q75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R75" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -6071,13 +6068,13 @@
         <v>805459</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" t="s">
         <v>209</v>
-      </c>
-      <c r="E76" t="s">
-        <v>210</v>
       </c>
       <c r="F76" s="1">
         <v>7</v>
@@ -6089,7 +6086,7 @@
         <v>0.5</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J76" s="1">
         <v>4.55</v>
@@ -6113,10 +6110,10 @@
         <v>24</v>
       </c>
       <c r="Q76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -6133,13 +6130,13 @@
         <v>816242</v>
       </c>
       <c r="C77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" t="s">
         <v>211</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>212</v>
-      </c>
-      <c r="E77" t="s">
-        <v>213</v>
       </c>
       <c r="F77" s="1">
         <v>18</v>
@@ -6175,16 +6172,16 @@
         <v>24</v>
       </c>
       <c r="Q77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -6195,10 +6192,10 @@
         <v>805691</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E78" t="s">
         <v>82</v>
@@ -6237,10 +6234,10 @@
         <v>24</v>
       </c>
       <c r="Q78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R78" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -6257,10 +6254,10 @@
         <v>813080</v>
       </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" t="s">
         <v>82</v>
@@ -6299,10 +6296,10 @@
         <v>24</v>
       </c>
       <c r="Q79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6319,13 +6316,13 @@
         <v>813078</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F80" s="1">
         <v>2.5</v>
@@ -6361,10 +6358,10 @@
         <v>24</v>
       </c>
       <c r="Q80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -6381,13 +6378,13 @@
         <v>805652</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
         <v>221</v>
-      </c>
-      <c r="E81" t="s">
-        <v>222</v>
       </c>
       <c r="F81" s="1">
         <v>17</v>
@@ -6423,10 +6420,10 @@
         <v>24</v>
       </c>
       <c r="Q81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -6443,13 +6440,13 @@
         <v>832792</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F82" s="1">
         <v>19.5</v>
@@ -6485,10 +6482,10 @@
         <v>24</v>
       </c>
       <c r="Q82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -6505,13 +6502,13 @@
         <v>861798</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D83" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" t="s">
         <v>225</v>
-      </c>
-      <c r="E83" t="s">
-        <v>226</v>
       </c>
       <c r="F83" s="1">
         <v>17</v>
@@ -6547,10 +6544,10 @@
         <v>24</v>
       </c>
       <c r="Q83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -6567,13 +6564,13 @@
         <v>940995</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" t="s">
         <v>228</v>
-      </c>
-      <c r="E84" t="s">
-        <v>229</v>
       </c>
       <c r="F84" s="1">
         <v>19.5</v>
@@ -6609,10 +6606,10 @@
         <v>24</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6629,13 +6626,13 @@
         <v>805654</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D85" t="s">
+        <v>230</v>
+      </c>
+      <c r="E85" t="s">
         <v>231</v>
-      </c>
-      <c r="E85" t="s">
-        <v>232</v>
       </c>
       <c r="F85" s="1">
         <v>19.5</v>
@@ -6671,10 +6668,10 @@
         <v>24</v>
       </c>
       <c r="Q85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6691,13 +6688,13 @@
         <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F86" s="1">
         <v>12</v>
@@ -6730,19 +6727,19 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q86" t="s">
         <v>54</v>
       </c>
       <c r="R86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -6753,13 +6750,13 @@
         <v>816241</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" t="s">
         <v>234</v>
-      </c>
-      <c r="E87" t="s">
-        <v>235</v>
       </c>
       <c r="F87" s="1">
         <v>14.5</v>
@@ -6795,10 +6792,10 @@
         <v>24</v>
       </c>
       <c r="Q87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -6815,13 +6812,13 @@
         <v>816246</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88" t="s">
         <v>237</v>
-      </c>
-      <c r="E88" t="s">
-        <v>238</v>
       </c>
       <c r="F88" s="1">
         <v>14.5</v>
@@ -6857,16 +6854,16 @@
         <v>24</v>
       </c>
       <c r="Q88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S88">
         <v>4</v>
       </c>
       <c r="T88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -6877,13 +6874,13 @@
         <v>813079</v>
       </c>
       <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
         <v>240</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>241</v>
-      </c>
-      <c r="E89" t="s">
-        <v>242</v>
       </c>
       <c r="F89" s="1">
         <v>9.5</v>
@@ -6895,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J89" s="1">
         <v>6.175</v>
@@ -6919,16 +6916,16 @@
         <v>24</v>
       </c>
       <c r="Q89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -6939,13 +6936,13 @@
         <v>818957</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" t="s">
         <v>244</v>
-      </c>
-      <c r="E90" t="s">
-        <v>245</v>
       </c>
       <c r="F90" s="1">
         <v>9.5</v>
@@ -6957,7 +6954,7 @@
         <v>0.5</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J90" s="1">
         <v>6.175</v>
@@ -6981,16 +6978,16 @@
         <v>24</v>
       </c>
       <c r="Q90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7001,13 +6998,13 @@
         <v>805677</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F91" s="1">
         <v>12</v>
@@ -7019,7 +7016,7 @@
         <v>0.5</v>
       </c>
       <c r="I91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J91" s="1">
         <v>7.800000000000001</v>
@@ -7043,10 +7040,10 @@
         <v>24</v>
       </c>
       <c r="Q91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -7063,13 +7060,13 @@
         <v>805669</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D92" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" t="s">
         <v>249</v>
-      </c>
-      <c r="E92" t="s">
-        <v>250</v>
       </c>
       <c r="F92" s="1">
         <v>18</v>
@@ -7105,16 +7102,16 @@
         <v>24</v>
       </c>
       <c r="Q92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7125,13 +7122,13 @@
         <v>900315</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E93" t="s">
         <v>252</v>
-      </c>
-      <c r="E93" t="s">
-        <v>253</v>
       </c>
       <c r="F93" s="1">
         <v>18.5</v>
@@ -7164,19 +7161,19 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7187,13 +7184,13 @@
         <v>805676</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
+        <v>254</v>
+      </c>
+      <c r="E94" t="s">
         <v>255</v>
-      </c>
-      <c r="E94" t="s">
-        <v>256</v>
       </c>
       <c r="F94" s="1">
         <v>15.5</v>
@@ -7229,16 +7226,16 @@
         <v>24</v>
       </c>
       <c r="Q94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7249,13 +7246,13 @@
         <v>805679</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F95" s="1">
         <v>12</v>
@@ -7291,10 +7288,10 @@
         <v>24</v>
       </c>
       <c r="Q95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -7311,13 +7308,13 @@
         <v>805673</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D96" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" t="s">
         <v>260</v>
-      </c>
-      <c r="E96" t="s">
-        <v>261</v>
       </c>
       <c r="F96" s="1">
         <v>9</v>
@@ -7353,16 +7350,16 @@
         <v>24</v>
       </c>
       <c r="Q96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S96">
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -7373,13 +7370,13 @@
         <v>953035</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" t="s">
         <v>263</v>
-      </c>
-      <c r="E97" t="s">
-        <v>264</v>
       </c>
       <c r="F97" s="1">
         <v>9.5</v>
@@ -7415,16 +7412,16 @@
         <v>24</v>
       </c>
       <c r="Q97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -7435,13 +7432,13 @@
         <v>953036</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D98" t="s">
+        <v>264</v>
+      </c>
+      <c r="E98" t="s">
         <v>265</v>
-      </c>
-      <c r="E98" t="s">
-        <v>266</v>
       </c>
       <c r="F98" s="1">
         <v>10</v>
@@ -7477,16 +7474,16 @@
         <v>24</v>
       </c>
       <c r="Q98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R98" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7497,13 +7494,13 @@
         <v>953039</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D99" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" t="s">
         <v>267</v>
-      </c>
-      <c r="E99" t="s">
-        <v>268</v>
       </c>
       <c r="F99" s="1">
         <v>10.5</v>
@@ -7539,16 +7536,16 @@
         <v>24</v>
       </c>
       <c r="Q99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7559,13 +7556,13 @@
         <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" t="s">
         <v>269</v>
-      </c>
-      <c r="E100" t="s">
-        <v>270</v>
       </c>
       <c r="F100" s="1">
         <v>12</v>
@@ -7598,19 +7595,19 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7621,13 +7618,13 @@
         <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D101" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" t="s">
         <v>272</v>
-      </c>
-      <c r="E101" t="s">
-        <v>273</v>
       </c>
       <c r="F101" s="1">
         <v>12</v>
@@ -7660,19 +7657,19 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S101">
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7683,13 +7680,13 @@
         <v>805661</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D102" t="s">
+        <v>273</v>
+      </c>
+      <c r="E102" t="s">
         <v>274</v>
-      </c>
-      <c r="E102" t="s">
-        <v>275</v>
       </c>
       <c r="F102" s="1">
         <v>12</v>
@@ -7725,16 +7722,16 @@
         <v>24</v>
       </c>
       <c r="Q102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R102" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7745,13 +7742,13 @@
         <v>805685</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
+        <v>275</v>
+      </c>
+      <c r="E103" t="s">
         <v>276</v>
-      </c>
-      <c r="E103" t="s">
-        <v>277</v>
       </c>
       <c r="F103" s="1">
         <v>18.5</v>
@@ -7763,7 +7760,7 @@
         <v>3.8</v>
       </c>
       <c r="I103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J103" s="1">
         <v>12.025</v>
@@ -7787,10 +7784,10 @@
         <v>24</v>
       </c>
       <c r="Q103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -7807,13 +7804,13 @@
         <v>814849</v>
       </c>
       <c r="C104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D104" t="s">
+        <v>278</v>
+      </c>
+      <c r="E104" t="s">
         <v>279</v>
-      </c>
-      <c r="E104" t="s">
-        <v>280</v>
       </c>
       <c r="F104" s="1">
         <v>12</v>
@@ -7825,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J104" s="1">
         <v>7.800000000000001</v>
@@ -7849,16 +7846,16 @@
         <v>24</v>
       </c>
       <c r="Q104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R104" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S104">
         <v>2</v>
       </c>
       <c r="T104" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -7869,13 +7866,13 @@
         <v>805653</v>
       </c>
       <c r="C105" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" t="s">
         <v>282</v>
       </c>
-      <c r="D105" t="s">
-        <v>283</v>
-      </c>
       <c r="E105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F105" s="1">
         <v>14.5</v>
@@ -7887,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J105" s="1">
         <v>9.425</v>
@@ -7911,10 +7908,10 @@
         <v>24</v>
       </c>
       <c r="Q105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R105" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -7931,13 +7928,13 @@
         <v>805724</v>
       </c>
       <c r="C106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F106" s="1">
         <v>17.5</v>
@@ -7949,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J106" s="1">
         <v>11.375</v>
@@ -7973,10 +7970,10 @@
         <v>24</v>
       </c>
       <c r="Q106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -7993,13 +7990,13 @@
         <v>813084</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F107" s="1">
         <v>19.5</v>
@@ -8011,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J107" s="1">
         <v>12.675</v>
@@ -8035,10 +8032,10 @@
         <v>24</v>
       </c>
       <c r="Q107" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -8055,13 +8052,13 @@
         <v>813086</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F108" s="1">
         <v>15.5</v>
@@ -8073,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J108" s="1">
         <v>10.075000000000001</v>
@@ -8097,10 +8094,10 @@
         <v>24</v>
       </c>
       <c r="Q108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R108" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -8117,13 +8114,13 @@
         <v>805686</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F109" s="1">
         <v>19.5</v>
@@ -8135,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J109" s="1">
         <v>12.675</v>
@@ -8159,10 +8156,10 @@
         <v>24</v>
       </c>
       <c r="Q109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R109" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -8179,13 +8176,13 @@
         <v>805693</v>
       </c>
       <c r="C110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F110" s="1">
         <v>19.5</v>
@@ -8197,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J110" s="1">
         <v>12.675</v>
@@ -8221,16 +8218,16 @@
         <v>24</v>
       </c>
       <c r="Q110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R110" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S110">
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -8241,13 +8238,13 @@
         <v>882704</v>
       </c>
       <c r="C111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F111" s="1">
         <v>21.5</v>
@@ -8259,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J111" s="1">
         <v>13.975</v>
@@ -8283,16 +8280,16 @@
         <v>24</v>
       </c>
       <c r="Q111" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R111" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -8303,13 +8300,13 @@
         <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F112" s="1">
         <v>21.5</v>
@@ -8321,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J112" s="1">
         <v>13.975</v>
@@ -8342,19 +8339,19 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -8365,13 +8362,13 @@
         <v>805713</v>
       </c>
       <c r="C113" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D113" t="s">
+        <v>298</v>
+      </c>
+      <c r="E113" t="s">
         <v>299</v>
-      </c>
-      <c r="E113" t="s">
-        <v>300</v>
       </c>
       <c r="F113" s="1">
         <v>16.5</v>
@@ -8383,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J113" s="1">
         <v>10.725</v>
@@ -8407,10 +8404,10 @@
         <v>24</v>
       </c>
       <c r="Q113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R113" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -8427,13 +8424,13 @@
         <v>827440</v>
       </c>
       <c r="C114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F114" s="1">
         <v>20</v>
@@ -8445,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J114" s="1">
         <v>13</v>
@@ -8469,10 +8466,10 @@
         <v>24</v>
       </c>
       <c r="Q114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R114" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -8489,13 +8486,13 @@
         <v>901753</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D115" t="s">
+        <v>303</v>
+      </c>
+      <c r="E115" t="s">
         <v>304</v>
-      </c>
-      <c r="E115" t="s">
-        <v>305</v>
       </c>
       <c r="F115" s="1">
         <v>21.5</v>
@@ -8507,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J115" s="1">
         <v>13.975</v>
@@ -8531,16 +8528,16 @@
         <v>24</v>
       </c>
       <c r="Q115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R115" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S115">
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -8551,13 +8548,13 @@
         <v>859028</v>
       </c>
       <c r="C116" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D116" t="s">
+        <v>306</v>
+      </c>
+      <c r="E116" t="s">
         <v>307</v>
-      </c>
-      <c r="E116" t="s">
-        <v>308</v>
       </c>
       <c r="F116" s="1">
         <v>18</v>
@@ -8569,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J116" s="1">
         <v>11.700000000000001</v>
@@ -8593,10 +8590,10 @@
         <v>24</v>
       </c>
       <c r="Q116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R116" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S116">
         <v>1</v>
@@ -8613,13 +8610,13 @@
         <v>805675</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F117" s="1">
         <v>18</v>
@@ -8631,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J117" s="1">
         <v>11.700000000000001</v>
@@ -8655,16 +8652,16 @@
         <v>24</v>
       </c>
       <c r="Q117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R117" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S117">
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -8675,13 +8672,13 @@
         <v>805719</v>
       </c>
       <c r="C118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F118" s="1">
         <v>20</v>
@@ -8693,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J118" s="1">
         <v>13</v>
@@ -8717,10 +8714,10 @@
         <v>24</v>
       </c>
       <c r="Q118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S118">
         <v>0</v>
@@ -8737,13 +8734,13 @@
         <v>805720</v>
       </c>
       <c r="C119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F119" s="1">
         <v>18</v>
@@ -8755,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J119" s="1">
         <v>11.700000000000001</v>
@@ -8779,10 +8776,10 @@
         <v>24</v>
       </c>
       <c r="Q119" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R119" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -8799,13 +8796,13 @@
         <v>805721</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D120" t="s">
+        <v>315</v>
+      </c>
+      <c r="E120" t="s">
         <v>316</v>
-      </c>
-      <c r="E120" t="s">
-        <v>317</v>
       </c>
       <c r="F120" s="1">
         <v>20</v>
@@ -8817,7 +8814,7 @@
         <v>6</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J120" s="1">
         <v>13</v>
@@ -8841,10 +8838,10 @@
         <v>24</v>
       </c>
       <c r="Q120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -8861,13 +8858,13 @@
         <v>858286</v>
       </c>
       <c r="C121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F121" s="1">
         <v>9</v>
@@ -8879,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J121" s="1">
         <v>5.8500000000000005</v>
@@ -8903,10 +8900,10 @@
         <v>24</v>
       </c>
       <c r="Q121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R121" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -8923,13 +8920,13 @@
         <v>805682</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F122" s="1">
         <v>19.5</v>
@@ -8941,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J122" s="1">
         <v>12.675</v>
@@ -8965,10 +8962,10 @@
         <v>24</v>
       </c>
       <c r="Q122" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R122" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -8985,13 +8982,13 @@
         <v>805670</v>
       </c>
       <c r="C123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F123" s="1">
         <v>20</v>
@@ -9003,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J123" s="1">
         <v>13</v>
@@ -9027,10 +9024,10 @@
         <v>24</v>
       </c>
       <c r="Q123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R123" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -9047,13 +9044,13 @@
         <v>805678</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F124" s="1">
         <v>16.5</v>
@@ -9065,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J124" s="1">
         <v>10.725</v>
@@ -9089,10 +9086,10 @@
         <v>24</v>
       </c>
       <c r="Q124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R124" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -9109,13 +9106,13 @@
         <v>940154</v>
       </c>
       <c r="C125" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F125" s="1">
         <v>11</v>
@@ -9127,7 +9124,7 @@
         <v>0.5</v>
       </c>
       <c r="I125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J125" s="1">
         <v>7.15</v>
@@ -9151,10 +9148,10 @@
         <v>24</v>
       </c>
       <c r="Q125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R125" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -9171,13 +9168,13 @@
         <v>805687</v>
       </c>
       <c r="C126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F126" s="1">
         <v>17</v>
@@ -9189,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J126" s="1">
         <v>11.05</v>
@@ -9213,16 +9210,16 @@
         <v>24</v>
       </c>
       <c r="Q126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R126" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S126">
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -9233,13 +9230,13 @@
         <v>805692</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F127" s="1">
         <v>19.5</v>
@@ -9251,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J127" s="1">
         <v>12.675</v>
@@ -9275,10 +9272,10 @@
         <v>24</v>
       </c>
       <c r="Q127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R127" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -9295,13 +9292,13 @@
         <v>805694</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E128" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F128" s="1">
         <v>18</v>
@@ -9313,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J128" s="1">
         <v>11.700000000000001</v>
@@ -9337,10 +9334,10 @@
         <v>24</v>
       </c>
       <c r="Q128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R128" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S128">
         <v>0</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -2797,19 +2797,19 @@
         <v>0.4</v>
       </c>
       <c r="H23" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="1">
-        <v>7.605000000000001</v>
+        <v>9.295</v>
       </c>
       <c r="K23" s="1">
-        <v>10.494900000000001</v>
+        <v>12.8271</v>
       </c>
       <c r="L23" s="1">
-        <v>11.787750000000003</v>
+        <v>14.40725</v>
       </c>
       <c r="M23" s="3">
         <v>0.38</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -409,36 +409,43 @@
     <t>12 oz</t>
   </si>
   <si>
+    <t xml:space="preserve">Our Bulk Cajun Chaurice Sausage delivers a balanced heat that’s perfect for adding depth to dishes like rice and beans, jambalaya, gumbo, and eggs. This bulk, unlinked sausage is ready to cook, offering the same great flavor without the casing—ideal for your next Creole-inspired meal! 
+Spiciness level - 5/10
+Ingredients: Pork, Onion, Sea Salt, Green Onion, Fresh Parsley, Garlic, Fresh Thyme, Paprika, Cayenne, Bay Leaf, Celery Seed
+Note: The picture shows linked sausages, but this item is bulk, ground sausage.
+</t>
+  </si>
+  <si>
+    <t>Bulk English Breakfast Sausage</t>
+  </si>
+  <si>
+    <t>A nice all-around breakfast sausage. Fry up as little patties or mix into your omelet or quiche. This sausage is flavored with warming spices and savory herbs. Enjoy with your favorite cup of tea!Ingredients: Pork, Oats, Onion, Sea Salt, Fresh Garlic, Fresh Rosemary, Fresh Thyme, White Pepper, Nutmeg, Marjoram, MaceContains: Wheat&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>Bulk Farm Made Chorizo Sausage</t>
+  </si>
+  <si>
+    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne.</t>
+  </si>
+  <si>
+    <t>Bulk Lamb Merguez Sausage</t>
+  </si>
+  <si>
+    <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.</t>
+  </si>
+  <si>
+    <t>Bulk Thai Curry Sausage</t>
+  </si>
+  <si>
+    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar). Contains: Fish, shellfish, soy.</t>
+  </si>
+  <si>
+    <t>Cajun Chaurice Sausage Links</t>
+  </si>
+  <si>
     <t>Our Cajun Chaurice Sausage is a flavorful, spicy blend of pork, onion, green onion, fresh parsley, garlic, thyme, paprika, cayenne, bay leaf, and celery seed. With a spiciness level of 5/10, it delivers a balanced heat that’s perfect for adding depth to dishes like rice and beans. This bulk, unlinked sausage is ready to cook, offering the same great flavor without the casing—ideal for your next Creole-inspired meal! Note: The picture shows linked sausages, but this item is bulk, ground sausage.</t>
   </si>
   <si>
-    <t>Bulk English Breakfast Sausage</t>
-  </si>
-  <si>
-    <t>A nice all-around breakfast sausage. Fry up as little patties or mix into your omelet or quiche. This sausage is flavored with warming spices and savory herbs. Enjoy with your favorite cup of tea!Ingredients: Pork, Oats, Onion, Sea Salt, Fresh Garlic, Fresh Rosemary, Fresh Thyme, White Pepper, Nutmeg, Marjoram, MaceContains: Wheat&amp;nbsp;</t>
-  </si>
-  <si>
-    <t>Bulk Farm Made Chorizo Sausage</t>
-  </si>
-  <si>
-    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish.Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne, hog casings.</t>
-  </si>
-  <si>
-    <t>Bulk Lamb Merguez Sausage</t>
-  </si>
-  <si>
-    <t>Our Lamb Merguez Sausage brings the vibrant flavors of North Africa to your kitchen. Traditionally grilled over coals as street food, this sausage is spiced with harissa paste, crushed spices, and minced onions and garlic. Perfect for pairing with couscous, beans, eggs, or a fresh arugula salad, it can also be enjoyed the French way—grilled on a baguette, smeared with Dijon or mayonnaise, and topped with crispy French fries! With a mild spiciness level of 3/10, it delivers a flavorful heat to complement its rich lamb base.Ingredients: Lamb, onion, sea salt, chiles, fresh garlic, fresh parsley, paprika, black pepper, sumac, coriander, cumin, allspice, cayenne.</t>
-  </si>
-  <si>
-    <t>Bulk Thai Curry Sausage</t>
-  </si>
-  <si>
-    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.</t>
-  </si>
-  <si>
-    <t>Cajun Chaurice Sausage Links</t>
-  </si>
-  <si>
     <t>Chorizo Verde</t>
   </si>
   <si>
@@ -452,6 +459,9 @@
   </si>
   <si>
     <t>Farm Made Chorizo Sausage Links</t>
+  </si>
+  <si>
+    <t>Our Farm Made Chorizo Sausage is a vibrant, Mexican-style chorizo made with a rich blend of four different chili peppers, giving it a deep red color and a lively flavor. Floral paprika, pleasant smokiness, and fresh oregano from our garden elevate this sausage to new heights. Chorizo and eggs is a classic, but this versatile sausage can be served in tacos, on salads, with rice or potatoes, or added to soups. With a spiciness level of 4/10, it offers a balanced heat perfect for any dish. Ingredients: Pork, red wine vinegar, onion, sea salt, chiles, fresh garlic, fresh oregano, paprika, chipotle pepper, black pepper, coriander, cumin, cayenne, hog casings.</t>
   </si>
   <si>
     <t>Grass-Fed Organ Blend</t>
@@ -525,6 +535,9 @@
     <t>Thai Curry Sausage Links</t>
   </si>
   <si>
+    <t>Our Thai Curry Sausage (Sai Ua) brings the vibrant flavors of Northern Thailand straight to your plate. Bursting with fresh aromatics like lemongrass, turmeric, lime leaf, and galangal, this sausage is like a Thai curry in every bite! A street food staple from Chiang Mai, it’s perfect served with rice, in Thai curry, or alongside grilled and pickled vegetables. Get creative by incorporating it into Asian dishes such as steam buns, dumplings, spring rolls, or a unique twist on Bánh mì.Spiciness: 6.5/10Ingredients: Pork, shallot, garlic, fish sauce (anchovies, salt, sugar), galangal, chiles, tamari (soybeans, salt, sugar), turmeric, brown cane sugar, sea salt, lemongrass, cilantro, green onion, kaffir lime leaf, shrimp paste (shrimp, salt, sugar), hog casings.Contains: Fish, shellfish, soy.</t>
+  </si>
+  <si>
     <t>Lamb</t>
   </si>
   <si>
@@ -882,13 +895,15 @@
     <t>Country Sausage, Bulk</t>
   </si>
   <si>
-    <t>Our Bulk Country Sausage is made from the highest quality pork, raised with care on our heritage hogs that roam open pastures and oak woodlands during the Spring, Summer, and Fall. Their diet of dairy, hazelnuts, and custom-milled grains, along with plenty of exercise, results in flavorful, tender meat that consistently earns praise throughout the Willamette Valley. Perfect for adding robust, savory taste to your dishes!</t>
+    <t xml:space="preserve">Our Bulk Country Sausage is made from the highest quality pork, raised with care on our heritage hogs that roam open pastures and oak woodlands during the Spring, Summer, and Fall. Their diet of dairy, hazelnuts, and custom-milled grains, along with plenty of exercise, results in flavorful, tender meat that consistently earns praise throughout the Willamette Valley. Perfect for adding robust, savory taste to your dishes!
+Ingredients: Pork Water, Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil), Spices, Turbinado Sugar</t>
   </si>
   <si>
     <t>Fresh Garlic Sausage Links</t>
   </si>
   <si>
-    <t>Our 12oz Fresh Garlic Sausage Links come separated into four links, offering a clean, fresh taste that’s not overly garlicky. This versatile sausage is a favorite for everything from pasta dishes to grilling. Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains results in high-quality, flavorful meat praised throughout the Willamette Valley. Please note, recipes may vary and could include a small amount of sugar, but the delicious taste remains unchanged.</t>
+    <t xml:space="preserve">Our 12oz Fresh Garlic Sausage Links come separated into four links, offering a clean, fresh taste that’s not overly garlicky. This versatile sausage is a favorite for everything from pasta dishes to grilling. Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains results in high-quality, flavorful meat praised throughout the Willamette Valley. 
+Ingredients: All-Natural Pork, Water Contains 2% Or Less Of: Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil, Spices, Turbinado Sugar, Garlic, packed in hog casings</t>
   </si>
   <si>
     <t>Honey Maple Ham, Sliced</t>
@@ -915,13 +930,15 @@
     <t>3 oz</t>
   </si>
   <si>
-    <t>Our Landjaeger is a 3-count pack of nitrite-free cured sausage, inspired by the Swiss/German hunters' tradition. With its rich, smoky flavor and satisfying texture, it's one of Ella's favorites! Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains ensures high-quality, flavorful meat that consistently receives praise across the Willamette Valley. Perfect for snacking or sharing!</t>
+    <t xml:space="preserve">Our Landjaeger is a 3-count pack of nitrite-free cured sausage, inspired by the Swiss/German hunters' tradition. With its rich, smoky flavor and satisfying texture, it's one of Ella's favorites! Made from heritage hogs that roam open pastures and oak woodlands, their diet of dairy, hazelnuts, and custom-milled grains ensures high-quality, flavorful meat that consistently receives praise across the Willamette Valley. Perfect for snacking or sharing!
+Ingredients: Pork, Beef, Turbinado Sugar, Sea Salt, Spices, Mustard Seed, Paprika, Granulated Garlic, Celery Powder, Yeast, Allspice, Lactic Acid Culture, Packed in Hog Casing</t>
   </si>
   <si>
     <t>Olympia Provisions Frankfurter</t>
   </si>
   <si>
-    <t>Our Pork Frankfurters are crafted with tender pork shoulder from Deck Family Farm’s 100% pasture-raised heritage hogs. Made artisanally by our Pasture Network partner, Olympia Provisions, these sausages come in a package of four, foot-long links encased in natural lamb casings. Smoked with a blend of hickory and apple wood, they deliver a rich, smoky flavor. Our heritage hogs roam open pastures and oak woodlands, enjoying a diet of dairy, hazelnuts, and custom-milled grains, resulting in high-quality, flavorful meat that consistently garners praise across the Willamette Valley. Perfect for grilling or a satisfying meal!</t>
+    <t xml:space="preserve">Our Pork Frankfurters are crafted with tender pork shoulder from Deck Family Farm’s 100% pasture-raised heritage hogs. Made artisanally by our Pasture Network partner, Olympia Provisions, these sausages come in a package of four, foot-long links encased in natural lamb casings. Smoked with a blend of hickory and apple wood, they deliver a rich, smoky flavor. Our heritage hogs roam open pastures and oak woodlands, enjoying a diet of dairy, hazelnuts, and custom-milled grains, resulting in high-quality, flavorful meat that consistently garners praise across the Willamette Valley. Perfect for grilling or a satisfying meal!
+Ingredients: Pork, pork fat, water, milk powder, Less than 2%: spices, salt, cultured dextrose, dried vinegar, garlic, dextrose, oregano, swiss chard powder, natural flavors, lactic acid culture. Lamb Casing. Contains Milk.</t>
   </si>
   <si>
     <t>Olympia Provisions Saucisson D'Arles Salami</t>
@@ -951,13 +968,17 @@
     <t>Pastrami, Sliced</t>
   </si>
   <si>
-    <t>Our Pastrami is tender, flavorful, and nutritionally dense—making it a favorite for sandwiches. For the classic hot pastrami experience, try heating it with onions and serving it with mustard and a pickle. Perfect for a satisfying, savory meal! Please note, recipes may vary and could include a small amount of sugar, though the delicious taste remains the same.</t>
+    <t xml:space="preserve">Our Pastrami is tender, flavorful, and nutritionally dense—making it a favorite for sandwiches. For the classic hot pastrami experience, try heating it with onions and serving it with mustard and a pickle. Perfect for a satisfying, savory meal! Please note, recipes may vary and could include a small amount of sugar, though the delicious taste remains the same.
+Ingredients: Beef, Water, Sta Salt, Turbinado Sugar, Honey, Cultured Celery Powder, Cherry
+Powder, Pastrami Rub, (Paprika, Salt, Black Pepper, Garlic Power, Onion Powder, Clove)
+</t>
   </si>
   <si>
     <t>Peppered Knife Cut Beef Jerky</t>
   </si>
   <si>
-    <t>Enjoy this protein-dense snack on hikes or drives or whenever you need a peppery boost!*recipes may not match photo, are liable to change and may include a small amount of sugar*</t>
+    <t xml:space="preserve">Enjoy this protein-dense snack on hikes or drives or whenever you need a peppery boost!*recipes may not match photo, are liable to change and may include a small amount of sugar*
+Ingredients: Beef, Water, Honey, Contains 2% or less of the following: Sea Salt, Black Pepper, Cultured Celery Powder, Pure Maple Sugar, Pineapple Juice (Water, Concentrated Pineapple Juice and Ascorbic Acid(Vitamin C), Granulated Garlic, Ginger, Granulated Onion</t>
   </si>
   <si>
     <t>Pepperoni stick</t>
@@ -978,19 +999,22 @@
     <t>Polish Kielbasa</t>
   </si>
   <si>
-    <t>Our Pasture-Raised Polish Kielbasa from Deck Family Farm is a traditional, hearty sausage made with premium cuts of pasture-raised pork, seasoned with garlic, black pepper, and fragrant spices. Naturally smoked to perfection, this kielbasa boasts a rich, savory flavor with a juicy, satisfying bite. Whether grilled, pan-seared, or added to stews, it’s a versatile staple for any meal.</t>
+    <t xml:space="preserve">Our Pasture-Raised Polish Kielbasa from Deck Family Farm is a traditional, hearty sausage made with premium cuts of pasture-raised pork, seasoned with garlic, black pepper, and fragrant spices. Naturally smoked to perfection, this kielbasa boasts a rich, savory flavor with a juicy, satisfying bite. Whether grilled, pan-seared, or added to stews, it’s a versatile staple for any meal.
+Ingredients: Pork, Beef, Water, Contains 2% Or Less Of: Non-Fat Dry Milk, Sea Salt, Spices, Turbinado Sugar, Granulated Garlic, Cultured Celery Powder, Packed in Hog Casings</t>
   </si>
   <si>
     <t>Roast Beef, Sliced</t>
   </si>
   <si>
-    <t>Our 8oz package of Sliced Roast Beef features lean, thinly sliced pieces of this classic deli favorite. Perfect for sandwiches or just enjoying as a quick, tasty snack right out of the package. Please note, recipes may vary and could include a small amount of sugar, but the delicious flavor remains the same.</t>
+    <t xml:space="preserve">Our 8oz package of Sliced Roast Beef features lean, thinly sliced pieces of this classic deli favorite. Perfect for sandwiches or just enjoying as a quick, tasty snack right out of the package. Please note, recipes may vary and could include a small amount of sugar, but the delicious flavor remains the same.
+Ingredients: Beef, Water, Sea Salt, Turbinado Sugar, Onion, Garlic</t>
   </si>
   <si>
     <t>Sage &amp; Sea Salt Sausage</t>
   </si>
   <si>
-    <t>Our 8oz package of Sage and Sea Salt Pork Breakfast Sausage features smaller, perfectly seasoned links that are ideal for breakfast. With a delicious blend of sage and sea salt, these sausages offer a savory, flavorful start to your day.</t>
+    <t xml:space="preserve">Our 8oz package of Sage and Sea Salt Pork Breakfast Sausage features smaller, perfectly seasoned links that are ideal for breakfast. With a delicious blend of sage and sea salt, these sausages offer a savory, flavorful start to your day.
+Ingredients: Pork, Water, Sea Salt, Lemon Juice (Water, Lemon from Concentrate, Lemon Oil), Spices, Turbinado Sugar, Sage, Packed in Sheep Casings</t>
   </si>
   <si>
     <t>Salami de Ouvrier</t>
@@ -1008,13 +1032,15 @@
     <t>Sweet Italian Sausage Links</t>
   </si>
   <si>
-    <t>Our 12oz package of Sweet Italian Sausage Links comes separated into four delicious links. A classic favorite, this sausage is versatile and works in a variety of dishes. Try removing the casing and shaping it into patties, or use it as the base for a flavorful stir-fry. Please note, recipes may vary and could include a small amount of sugar, but the great taste remains unchanged.</t>
+    <t xml:space="preserve">Our 12oz package of Sweet Italian Sausage Links comes separated into four delicious links. A classic favorite, this sausage is versatile and works in a variety of dishes. Try removing the casing and shaping it into patties, or use it as the base for a flavorful stir-fry. Please note, recipes may vary and could include a small amount of sugar, but the great taste remains unchanged.
+Pork, Water, Sea Salt, Lemon Juice (Water, Lemon From Concentrate, Lemon Oil), Spices, Fennel Seed, Turbinado Sugar, Hog Casings </t>
   </si>
   <si>
     <t>Tamari Pressed Beef Jerky</t>
   </si>
   <si>
-    <t>Our Tamari Pressed Beef Jerky is a classic market favorite, loved by both children and adults. With its mild tamari flavor, this jerky makes an excellent all-day snack that’s perfect for on-the-go. Tender, savory, and satisfying—ideal for any adventure!</t>
+    <t xml:space="preserve">Our Tamari Pressed Beef Jerky is a classic market favorite, loved by both children and adults. With its mild tamari flavor, this jerky makes an excellent all-day snack that’s perfect for on-the-go. Tender, savory, and satisfying—ideal for any adventure!
+Ingredients: Beef, Sea Salt, Brown Sugar, Sugar, Organic Dry Tamari (Organic Tamari, (Water, Organic Soybeans, Salt, Organic Alcohol) Organic Maltodextrin), Yeast, Pineapple Juice and Ascorbic Acid (Vitamin C), Dried Maple Syrup (Dextrose, Natural Maple Flavor), Black Pepper, Garlic, Onion, Cultured Celery Powder, Ginger</t>
   </si>
 </sst>
 </file>
@@ -4188,7 +4214,7 @@
         <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -4211,7 +4237,7 @@
         <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
         <v>128</v>
@@ -4250,7 +4276,7 @@
         <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -4273,7 +4299,7 @@
         <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
         <v>128</v>
@@ -4312,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -4335,7 +4361,7 @@
         <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
         <v>128</v>
@@ -4374,7 +4400,7 @@
         <v>24</v>
       </c>
       <c r="Q48" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="R48" t="s">
         <v>24</v>
@@ -4397,10 +4423,10 @@
         <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F49" s="1">
         <v>15</v>
@@ -4436,7 +4462,7 @@
         <v>24</v>
       </c>
       <c r="Q49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R49" t="s">
         <v>26</v>
@@ -4459,7 +4485,7 @@
         <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
         <v>128</v>
@@ -4498,7 +4524,7 @@
         <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4521,7 +4547,7 @@
         <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
         <v>128</v>
@@ -4560,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="Q51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4583,10 +4609,10 @@
         <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F52" s="1">
         <v>17</v>
@@ -4645,10 +4671,10 @@
         <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F53" s="1">
         <v>20</v>
@@ -4684,7 +4710,7 @@
         <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4707,10 +4733,10 @@
         <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F54" s="1">
         <v>10</v>
@@ -4746,7 +4772,7 @@
         <v>24</v>
       </c>
       <c r="Q54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4769,10 +4795,10 @@
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F55" s="1">
         <v>15</v>
@@ -4808,7 +4834,7 @@
         <v>24</v>
       </c>
       <c r="Q55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R55" t="s">
         <v>26</v>
@@ -4831,10 +4857,10 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F56" s="1">
         <v>10</v>
@@ -4870,7 +4896,7 @@
         <v>24</v>
       </c>
       <c r="Q56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4893,10 +4919,10 @@
         <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1">
         <v>16</v>
@@ -4932,7 +4958,7 @@
         <v>24</v>
       </c>
       <c r="Q57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R57" t="s">
         <v>26</v>
@@ -4955,10 +4981,10 @@
         <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F58" s="1">
         <v>10</v>
@@ -4994,7 +5020,7 @@
         <v>24</v>
       </c>
       <c r="Q58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
@@ -5017,7 +5043,7 @@
         <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
         <v>128</v>
@@ -5056,7 +5082,7 @@
         <v>24</v>
       </c>
       <c r="Q59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R59" t="s">
         <v>26</v>
@@ -5079,7 +5105,7 @@
         <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
         <v>128</v>
@@ -5118,7 +5144,7 @@
         <v>24</v>
       </c>
       <c r="Q60" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -5138,10 +5164,10 @@
         <v>813092</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
         <v>82</v>
@@ -5180,7 +5206,7 @@
         <v>24</v>
       </c>
       <c r="Q61" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R61" t="s">
         <v>26</v>
@@ -5200,10 +5226,10 @@
         <v>825835</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
         <v>28</v>
@@ -5242,7 +5268,7 @@
         <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -5262,13 +5288,13 @@
         <v>922133</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F63" s="1">
         <v>24</v>
@@ -5304,7 +5330,7 @@
         <v>24</v>
       </c>
       <c r="Q63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R63" t="s">
         <v>26</v>
@@ -5324,13 +5350,13 @@
         <v>913064</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F64" s="1">
         <v>24</v>
@@ -5366,7 +5392,7 @@
         <v>24</v>
       </c>
       <c r="Q64" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -5386,13 +5412,13 @@
         <v>939774</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F65" s="1">
         <v>9.5</v>
@@ -5428,7 +5454,7 @@
         <v>24</v>
       </c>
       <c r="Q65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R65" t="s">
         <v>26</v>
@@ -5448,10 +5474,10 @@
         <v>825839</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
         <v>57</v>
@@ -5490,7 +5516,7 @@
         <v>24</v>
       </c>
       <c r="Q66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="R66" t="s">
         <v>26</v>
@@ -5510,13 +5536,13 @@
         <v>805703</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F67" s="1">
         <v>15.5</v>
@@ -5552,7 +5578,7 @@
         <v>24</v>
       </c>
       <c r="Q67" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="R67" t="s">
         <v>26</v>
@@ -5572,10 +5598,10 @@
         <v>805705</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
@@ -5614,7 +5640,7 @@
         <v>24</v>
       </c>
       <c r="Q68" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -5634,10 +5660,10 @@
         <v>825840</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
         <v>79</v>
@@ -5676,7 +5702,7 @@
         <v>24</v>
       </c>
       <c r="Q69" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5696,13 +5722,13 @@
         <v>805710</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F70" s="1">
         <v>19</v>
@@ -5738,7 +5764,7 @@
         <v>24</v>
       </c>
       <c r="Q70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R70" t="s">
         <v>26</v>
@@ -5758,13 +5784,13 @@
         <v>805711</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F71" s="1">
         <v>20</v>
@@ -5800,7 +5826,7 @@
         <v>24</v>
       </c>
       <c r="Q71" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="R71" t="s">
         <v>26</v>
@@ -5820,10 +5846,10 @@
         <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -5882,10 +5908,10 @@
         <v>805712</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E73" t="s">
         <v>57</v>
@@ -5924,7 +5950,7 @@
         <v>24</v>
       </c>
       <c r="Q73" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R73" t="s">
         <v>26</v>
@@ -5944,13 +5970,13 @@
         <v>805659</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F74" s="1">
         <v>21.5</v>
@@ -5986,7 +6012,7 @@
         <v>24</v>
       </c>
       <c r="Q74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R74" t="s">
         <v>26</v>
@@ -6006,13 +6032,13 @@
         <v>941005</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F75" s="1">
         <v>12</v>
@@ -6048,7 +6074,7 @@
         <v>24</v>
       </c>
       <c r="Q75" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="R75" t="s">
         <v>26</v>
@@ -6068,13 +6094,13 @@
         <v>805459</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F76" s="1">
         <v>7</v>
@@ -6110,7 +6136,7 @@
         <v>24</v>
       </c>
       <c r="Q76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -6130,13 +6156,13 @@
         <v>816242</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F77" s="1">
         <v>18</v>
@@ -6172,7 +6198,7 @@
         <v>24</v>
       </c>
       <c r="Q77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -6192,10 +6218,10 @@
         <v>805691</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E78" t="s">
         <v>82</v>
@@ -6234,7 +6260,7 @@
         <v>24</v>
       </c>
       <c r="Q78" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -6254,10 +6280,10 @@
         <v>813080</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
         <v>82</v>
@@ -6296,7 +6322,7 @@
         <v>24</v>
       </c>
       <c r="Q79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -6316,10 +6342,10 @@
         <v>813078</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
@@ -6358,7 +6384,7 @@
         <v>24</v>
       </c>
       <c r="Q80" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -6378,13 +6404,13 @@
         <v>805652</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F81" s="1">
         <v>17</v>
@@ -6420,7 +6446,7 @@
         <v>24</v>
       </c>
       <c r="Q81" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R81" t="s">
         <v>26</v>
@@ -6440,13 +6466,13 @@
         <v>832792</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F82" s="1">
         <v>19.5</v>
@@ -6482,7 +6508,7 @@
         <v>24</v>
       </c>
       <c r="Q82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -6502,13 +6528,13 @@
         <v>861798</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F83" s="1">
         <v>17</v>
@@ -6544,7 +6570,7 @@
         <v>24</v>
       </c>
       <c r="Q83" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -6564,13 +6590,13 @@
         <v>940995</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F84" s="1">
         <v>19.5</v>
@@ -6606,7 +6632,7 @@
         <v>24</v>
       </c>
       <c r="Q84" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R84" t="s">
         <v>26</v>
@@ -6626,13 +6652,13 @@
         <v>805654</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F85" s="1">
         <v>19.5</v>
@@ -6668,7 +6694,7 @@
         <v>24</v>
       </c>
       <c r="Q85" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -6688,10 +6714,10 @@
         <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
@@ -6750,13 +6776,13 @@
         <v>816241</v>
       </c>
       <c r="C87" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F87" s="1">
         <v>14.5</v>
@@ -6792,7 +6818,7 @@
         <v>24</v>
       </c>
       <c r="Q87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R87" t="s">
         <v>26</v>
@@ -6812,13 +6838,13 @@
         <v>816246</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F88" s="1">
         <v>14.5</v>
@@ -6854,7 +6880,7 @@
         <v>24</v>
       </c>
       <c r="Q88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="R88" t="s">
         <v>26</v>
@@ -6874,13 +6900,13 @@
         <v>813079</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F89" s="1">
         <v>9.5</v>
@@ -6916,7 +6942,7 @@
         <v>24</v>
       </c>
       <c r="Q89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="R89" t="s">
         <v>26</v>
@@ -6936,13 +6962,13 @@
         <v>818957</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D90" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F90" s="1">
         <v>9.5</v>
@@ -6978,7 +7004,7 @@
         <v>24</v>
       </c>
       <c r="Q90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="R90" t="s">
         <v>26</v>
@@ -6998,13 +7024,13 @@
         <v>805677</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E91" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F91" s="1">
         <v>12</v>
@@ -7040,7 +7066,7 @@
         <v>24</v>
       </c>
       <c r="Q91" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -7060,13 +7086,13 @@
         <v>805669</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F92" s="1">
         <v>18</v>
@@ -7102,7 +7128,7 @@
         <v>24</v>
       </c>
       <c r="Q92" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R92" t="s">
         <v>26</v>
@@ -7122,13 +7148,13 @@
         <v>900315</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E93" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F93" s="1">
         <v>18.5</v>
@@ -7164,7 +7190,7 @@
         <v>26</v>
       </c>
       <c r="Q93" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R93" t="s">
         <v>26</v>
@@ -7184,13 +7210,13 @@
         <v>805676</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F94" s="1">
         <v>15.5</v>
@@ -7226,7 +7252,7 @@
         <v>24</v>
       </c>
       <c r="Q94" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="R94" t="s">
         <v>26</v>
@@ -7246,13 +7272,13 @@
         <v>805679</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E95" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F95" s="1">
         <v>12</v>
@@ -7288,7 +7314,7 @@
         <v>24</v>
       </c>
       <c r="Q95" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -7308,13 +7334,13 @@
         <v>805673</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F96" s="1">
         <v>9</v>
@@ -7350,7 +7376,7 @@
         <v>24</v>
       </c>
       <c r="Q96" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="R96" t="s">
         <v>26</v>
@@ -7370,13 +7396,13 @@
         <v>953035</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F97" s="1">
         <v>9.5</v>
@@ -7412,7 +7438,7 @@
         <v>24</v>
       </c>
       <c r="Q97" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="R97" t="s">
         <v>26</v>
@@ -7432,13 +7458,13 @@
         <v>953036</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F98" s="1">
         <v>10</v>
@@ -7474,7 +7500,7 @@
         <v>24</v>
       </c>
       <c r="Q98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="R98" t="s">
         <v>26</v>
@@ -7494,13 +7520,13 @@
         <v>953039</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E99" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F99" s="1">
         <v>10.5</v>
@@ -7536,7 +7562,7 @@
         <v>24</v>
       </c>
       <c r="Q99" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -7556,13 +7582,13 @@
         <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D100" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E100" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F100" s="1">
         <v>12</v>
@@ -7598,7 +7624,7 @@
         <v>26</v>
       </c>
       <c r="Q100" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -7618,13 +7644,13 @@
         <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F101" s="1">
         <v>12</v>
@@ -7660,7 +7686,7 @@
         <v>26</v>
       </c>
       <c r="Q101" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R101" t="s">
         <v>26</v>
@@ -7680,13 +7706,13 @@
         <v>805661</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F102" s="1">
         <v>12</v>
@@ -7722,7 +7748,7 @@
         <v>24</v>
       </c>
       <c r="Q102" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -7742,13 +7768,13 @@
         <v>805685</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D103" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F103" s="1">
         <v>18.5</v>
@@ -7784,7 +7810,7 @@
         <v>24</v>
       </c>
       <c r="Q103" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -7804,13 +7830,13 @@
         <v>814849</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E104" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F104" s="1">
         <v>12</v>
@@ -7846,7 +7872,7 @@
         <v>24</v>
       </c>
       <c r="Q104" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="R104" t="s">
         <v>26</v>
@@ -7866,13 +7892,13 @@
         <v>805653</v>
       </c>
       <c r="C105" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D105" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E105" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F105" s="1">
         <v>14.5</v>
@@ -7908,7 +7934,7 @@
         <v>24</v>
       </c>
       <c r="Q105" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R105" t="s">
         <v>26</v>
@@ -7928,13 +7954,13 @@
         <v>805724</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D106" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E106" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F106" s="1">
         <v>17.5</v>
@@ -7970,7 +7996,7 @@
         <v>24</v>
       </c>
       <c r="Q106" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R106" t="s">
         <v>26</v>
@@ -7990,10 +8016,10 @@
         <v>813084</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D107" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E107" t="s">
         <v>131</v>
@@ -8032,7 +8058,7 @@
         <v>24</v>
       </c>
       <c r="Q107" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R107" t="s">
         <v>26</v>
@@ -8052,10 +8078,10 @@
         <v>813086</v>
       </c>
       <c r="C108" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E108" t="s">
         <v>131</v>
@@ -8094,7 +8120,7 @@
         <v>24</v>
       </c>
       <c r="Q108" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="R108" t="s">
         <v>26</v>
@@ -8114,10 +8140,10 @@
         <v>805686</v>
       </c>
       <c r="C109" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D109" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E109" t="s">
         <v>131</v>
@@ -8156,7 +8182,7 @@
         <v>24</v>
       </c>
       <c r="Q109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="R109" t="s">
         <v>26</v>
@@ -8176,13 +8202,13 @@
         <v>805693</v>
       </c>
       <c r="C110" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E110" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F110" s="1">
         <v>19.5</v>
@@ -8218,7 +8244,7 @@
         <v>24</v>
       </c>
       <c r="Q110" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="R110" t="s">
         <v>26</v>
@@ -8238,10 +8264,10 @@
         <v>882704</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E111" t="s">
         <v>131</v>
@@ -8280,7 +8306,7 @@
         <v>24</v>
       </c>
       <c r="Q111" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="R111" t="s">
         <v>26</v>
@@ -8300,10 +8326,10 @@
         <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E112" t="s">
         <v>131</v>
@@ -8342,7 +8368,7 @@
         <v>26</v>
       </c>
       <c r="Q112" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R112" t="s">
         <v>26</v>
@@ -8362,13 +8388,13 @@
         <v>805713</v>
       </c>
       <c r="C113" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D113" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E113" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F113" s="1">
         <v>16.5</v>
@@ -8404,7 +8430,7 @@
         <v>24</v>
       </c>
       <c r="Q113" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="R113" t="s">
         <v>26</v>
@@ -8424,10 +8450,10 @@
         <v>827440</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D114" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E114" t="s">
         <v>131</v>
@@ -8466,7 +8492,7 @@
         <v>24</v>
       </c>
       <c r="Q114" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="R114" t="s">
         <v>26</v>
@@ -8486,13 +8512,13 @@
         <v>901753</v>
       </c>
       <c r="C115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E115" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F115" s="1">
         <v>21.5</v>
@@ -8528,7 +8554,7 @@
         <v>24</v>
       </c>
       <c r="Q115" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="R115" t="s">
         <v>26</v>
@@ -8548,13 +8574,13 @@
         <v>859028</v>
       </c>
       <c r="C116" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D116" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F116" s="1">
         <v>18</v>
@@ -8590,7 +8616,7 @@
         <v>24</v>
       </c>
       <c r="Q116" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R116" t="s">
         <v>26</v>
@@ -8610,13 +8636,13 @@
         <v>805675</v>
       </c>
       <c r="C117" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D117" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E117" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F117" s="1">
         <v>18</v>
@@ -8652,7 +8678,7 @@
         <v>24</v>
       </c>
       <c r="Q117" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R117" t="s">
         <v>26</v>
@@ -8672,13 +8698,13 @@
         <v>805719</v>
       </c>
       <c r="C118" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D118" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F118" s="1">
         <v>20</v>
@@ -8714,7 +8740,7 @@
         <v>24</v>
       </c>
       <c r="Q118" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="R118" t="s">
         <v>26</v>
@@ -8734,13 +8760,13 @@
         <v>805720</v>
       </c>
       <c r="C119" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E119" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F119" s="1">
         <v>18</v>
@@ -8776,7 +8802,7 @@
         <v>24</v>
       </c>
       <c r="Q119" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="R119" t="s">
         <v>26</v>
@@ -8796,13 +8822,13 @@
         <v>805721</v>
       </c>
       <c r="C120" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D120" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F120" s="1">
         <v>20</v>
@@ -8838,7 +8864,7 @@
         <v>24</v>
       </c>
       <c r="Q120" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="R120" t="s">
         <v>26</v>
@@ -8858,13 +8884,13 @@
         <v>858286</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F121" s="1">
         <v>9</v>
@@ -8900,7 +8926,7 @@
         <v>24</v>
       </c>
       <c r="Q121" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="R121" t="s">
         <v>26</v>
@@ -8920,10 +8946,10 @@
         <v>805682</v>
       </c>
       <c r="C122" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E122" t="s">
         <v>131</v>
@@ -8962,7 +8988,7 @@
         <v>24</v>
       </c>
       <c r="Q122" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="R122" t="s">
         <v>26</v>
@@ -8982,13 +9008,13 @@
         <v>805670</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E123" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F123" s="1">
         <v>20</v>
@@ -9024,7 +9050,7 @@
         <v>24</v>
       </c>
       <c r="Q123" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="R123" t="s">
         <v>26</v>
@@ -9044,13 +9070,13 @@
         <v>805678</v>
       </c>
       <c r="C124" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E124" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F124" s="1">
         <v>16.5</v>
@@ -9086,7 +9112,7 @@
         <v>24</v>
       </c>
       <c r="Q124" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="R124" t="s">
         <v>26</v>
@@ -9106,13 +9132,13 @@
         <v>940154</v>
       </c>
       <c r="C125" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D125" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E125" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F125" s="1">
         <v>11</v>
@@ -9148,7 +9174,7 @@
         <v>24</v>
       </c>
       <c r="Q125" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="R125" t="s">
         <v>26</v>
@@ -9168,13 +9194,13 @@
         <v>805687</v>
       </c>
       <c r="C126" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F126" s="1">
         <v>17</v>
@@ -9210,7 +9236,7 @@
         <v>24</v>
       </c>
       <c r="Q126" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="R126" t="s">
         <v>26</v>
@@ -9230,10 +9256,10 @@
         <v>805692</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E127" t="s">
         <v>131</v>
@@ -9272,7 +9298,7 @@
         <v>24</v>
       </c>
       <c r="Q127" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="R127" t="s">
         <v>26</v>
@@ -9292,13 +9318,13 @@
         <v>805694</v>
       </c>
       <c r="C128" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E128" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F128" s="1">
         <v>18</v>
@@ -9334,7 +9360,7 @@
         <v>24</v>
       </c>
       <c r="Q128" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="R128" t="s">
         <v>26</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -253,7 +253,7 @@
     <t>1.10 - 1.40 lbs</t>
   </si>
   <si>
-    <t>It is a long, flat cut that runs from the rib end of the animal to the hip or rump. The grain of flank steak is very long and makes it a bit tougher than some other cuts, but marinating and slow cooking can tenderize it. Flank steak is high in protein and low in fat.</t>
+    <t>It is a long, flat cut that runs from the rib end of the animal to the hip or rump. The grain of flank steak is very long and makes it a bit tougher than some other cuts, but marinating can tenderize it and it does well cooked medium-rare over high heat on a grill. Flank steak is high in protein and low in fat. An excellent choice for tacos!</t>
   </si>
   <si>
     <t>Hamburger Patties</t>
@@ -316,7 +316,7 @@
     <t>Skirt Steak, Large</t>
   </si>
   <si>
-    <t>Large, .80 - 1.40 lbs</t>
+    <t>Large, .80 - 1.20 lbs</t>
   </si>
   <si>
     <t>Our Grass-Fed Skirt Steak from Deck Family Farm is a flavorful, tender cut perfect for bold, hearty meals. Known for its rich marbling and deep beefy taste, this cut shines when marinated and seared at high heat for a juicy, satisfying dish.</t>
@@ -1554,7 +1554,7 @@
         <v>26</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>24</v>
@@ -1678,7 +1678,7 @@
         <v>24</v>
       </c>
       <c r="S4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
@@ -1923,13 +1923,13 @@
         <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1985,13 +1985,13 @@
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="s">
         <v>24</v>
@@ -2295,10 +2295,10 @@
         <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T14" t="s">
         <v>24</v>
@@ -2422,7 +2422,7 @@
         <v>24</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
         <v>24</v>
@@ -2484,7 +2484,7 @@
         <v>24</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T17" t="s">
         <v>24</v>
@@ -2546,7 +2546,7 @@
         <v>24</v>
       </c>
       <c r="S18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T18" t="s">
         <v>24</v>
@@ -2732,7 +2732,7 @@
         <v>24</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s">
         <v>24</v>
@@ -2856,7 +2856,7 @@
         <v>24</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
         <v>24</v>
@@ -3195,19 +3195,19 @@
         <v>0.8</v>
       </c>
       <c r="H29" s="2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="1">
-        <v>18.59</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="K29" s="1">
-        <v>25.6542</v>
+        <v>23.322000000000003</v>
       </c>
       <c r="L29" s="1">
-        <v>28.8145</v>
+        <v>26.195000000000004</v>
       </c>
       <c r="M29" s="3">
         <v>0.38</v>
@@ -3225,13 +3225,13 @@
         <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
         <v>24</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
         <v>24</v>
@@ -3349,13 +3349,13 @@
         <v>106</v>
       </c>
       <c r="R31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -4406,7 +4406,7 @@
         <v>24</v>
       </c>
       <c r="S48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T48" t="s">
         <v>24</v>
@@ -5457,10 +5457,10 @@
         <v>185</v>
       </c>
       <c r="R65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T65" t="s">
         <v>24</v>
@@ -5953,10 +5953,10 @@
         <v>203</v>
       </c>
       <c r="R73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T73" t="s">
         <v>24</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -76,22 +76,31 @@
     <t>100% Grassfed Beef</t>
   </si>
   <si>
+    <t>Bavette Steak</t>
+  </si>
+  <si>
+    <t>0.9 - 1.6 lbs</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Bavette steak, also known as flap steak or sirloin flap, is a thin, flat, and tender cut of beef that comes from the bottom sirloin area. It's characterized by its loose texture and rich, beefy flavor. It is very similar to flank steak, often used interchangeably. Bavette is excellent for grilling or stir-frying. Perfect for your next taco night or steak dinner!</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Beef Back Ribs</t>
   </si>
   <si>
     <t>3.00 - 3.80 lbs</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Beef Bones</t>
@@ -679,7 +688,9 @@
     <t>Pet Food, Organ Blend</t>
   </si>
   <si>
-    <t>Our Organ Blend Pet Food combines the rich, nutrient-dense benefits of pork and lamb organs, creating a wholesome and flavorful meal for your pet. Packed with essential vitamins, minerals, and protein, this blend supports your pet’s overall health, vitality, and energy levels. Sourced from heritage pigs and lambs raised on open pastures and a natural diet, our organ blend offers a high-quality, premium option for those seeking the best nutrition for their furry companions. Give your pet the gift of natural, nourishing food with this nutrient-packed organ blend!</t>
+    <t xml:space="preserve">Our Organ Blend Pet Food combines the rich, nutrient-dense benefits of pork and lamb organs, creating a wholesome and flavorful meal for your pet. Packed with essential vitamins, minerals, and protein, this blend supports your pet’s overall health, vitality, and energy levels. Sourced from heritage pigs and lambs raised on open pastures and a natural diet, our organ blend offers a high-quality, premium option for those seeking the best nutrition for their furry companions. Give your pet the gift of natural, nourishing food with this nutrient-packed organ blend!
+This blend is 15-25% Liver and Kidney, 5-10% heart and tongue, and 65-80% Pork and Lamb Meat.
+</t>
   </si>
   <si>
     <t>Pork Bones</t>
@@ -1423,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T128"/>
+  <dimension ref="A1:T129"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -1500,10 +1511,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="B2">
-        <v>813072</v>
+        <v>960228</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1515,25 +1526,25 @@
         <v>22</v>
       </c>
       <c r="F2" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H2" s="2">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1">
-        <v>35.36</v>
+        <v>21.125</v>
       </c>
       <c r="K2" s="1">
-        <v>48.7968</v>
+        <v>29.152499999999996</v>
       </c>
       <c r="L2" s="1">
-        <v>54.808</v>
+        <v>32.74375</v>
       </c>
       <c r="M2" s="3">
         <v>0.38</v>
@@ -1557,15 +1568,15 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>922135</v>
+        <v>813072</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1577,46 +1588,46 @@
         <v>28</v>
       </c>
       <c r="F3" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>35.36</v>
+      </c>
+      <c r="K3" s="1">
+        <v>48.7968</v>
+      </c>
+      <c r="L3" s="1">
+        <v>54.808</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1">
-        <v>7.15</v>
-      </c>
-      <c r="K3" s="1">
-        <v>9.866999999999999</v>
-      </c>
-      <c r="L3" s="1">
-        <v>11.082500000000001</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
         <v>24</v>
@@ -1624,40 +1635,40 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>813075</v>
+        <v>922135</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" s="1">
-        <v>15.210000000000003</v>
+        <v>7.15</v>
       </c>
       <c r="K4" s="1">
-        <v>20.989800000000002</v>
+        <v>9.866999999999999</v>
       </c>
       <c r="L4" s="1">
-        <v>23.575500000000005</v>
+        <v>11.082500000000001</v>
       </c>
       <c r="M4" s="3">
         <v>0.38</v>
@@ -1675,10 +1686,10 @@
         <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
@@ -1686,10 +1697,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>805660</v>
+        <v>813075</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1701,25 +1712,25 @@
         <v>35</v>
       </c>
       <c r="F5" s="1">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H5" s="2">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1">
-        <v>18.525000000000002</v>
+        <v>15.210000000000003</v>
       </c>
       <c r="K5" s="1">
-        <v>25.564500000000002</v>
+        <v>20.989800000000002</v>
       </c>
       <c r="L5" s="1">
-        <v>28.713750000000005</v>
+        <v>23.575500000000005</v>
       </c>
       <c r="M5" s="3">
         <v>0.38</v>
@@ -1740,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>26</v>
@@ -1748,10 +1759,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>825832</v>
+        <v>805660</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1763,25 +1774,25 @@
         <v>38</v>
       </c>
       <c r="F6" s="1">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="G6" s="2">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1">
-        <v>15.210000000000003</v>
+        <v>18.525000000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>20.989800000000002</v>
+        <v>25.564500000000002</v>
       </c>
       <c r="L6" s="1">
-        <v>23.575500000000005</v>
+        <v>28.713750000000005</v>
       </c>
       <c r="M6" s="3">
         <v>0.38</v>
@@ -1802,18 +1813,18 @@
         <v>26</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>841579</v>
+        <v>825832</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1828,22 +1839,22 @@
         <v>26</v>
       </c>
       <c r="G7" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1">
-        <v>18.59</v>
+        <v>15.210000000000003</v>
       </c>
       <c r="K7" s="1">
-        <v>25.6542</v>
+        <v>20.989800000000002</v>
       </c>
       <c r="L7" s="1">
-        <v>28.8145</v>
+        <v>23.575500000000005</v>
       </c>
       <c r="M7" s="3">
         <v>0.38</v>
@@ -1872,10 +1883,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>825834</v>
+        <v>841579</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1884,28 +1895,28 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H8" s="2">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1">
-        <v>9.75</v>
+        <v>18.59</v>
       </c>
       <c r="K8" s="1">
-        <v>13.454999999999998</v>
+        <v>25.6542</v>
       </c>
       <c r="L8" s="1">
-        <v>15.1125</v>
+        <v>28.8145</v>
       </c>
       <c r="M8" s="3">
         <v>0.38</v>
@@ -1920,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
         <v>26</v>
@@ -1929,45 +1940,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>813076</v>
+        <v>825834</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1">
-        <v>13.9425</v>
+        <v>9.75</v>
       </c>
       <c r="K9" s="1">
-        <v>19.24065</v>
+        <v>13.454999999999998</v>
       </c>
       <c r="L9" s="1">
-        <v>21.610875</v>
+        <v>15.1125</v>
       </c>
       <c r="M9" s="3">
         <v>0.38</v>
@@ -1996,10 +2007,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>813071</v>
+        <v>813076</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -2011,25 +2022,25 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H10" s="2">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="1">
-        <v>28.51875</v>
+        <v>13.9425</v>
       </c>
       <c r="K10" s="1">
-        <v>39.355875</v>
+        <v>19.24065</v>
       </c>
       <c r="L10" s="1">
-        <v>44.2040625</v>
+        <v>21.610875</v>
       </c>
       <c r="M10" s="3">
         <v>0.38</v>
@@ -2053,15 +2064,15 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>894281</v>
+        <v>813071</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2076,22 +2087,22 @@
         <v>19.5</v>
       </c>
       <c r="G11" s="2">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H11" s="2">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="1">
-        <v>21.547500000000003</v>
+        <v>28.51875</v>
       </c>
       <c r="K11" s="1">
-        <v>29.735550000000003</v>
+        <v>39.355875</v>
       </c>
       <c r="L11" s="1">
-        <v>33.398625</v>
+        <v>44.2040625</v>
       </c>
       <c r="M11" s="3">
         <v>0.38</v>
@@ -2120,40 +2131,40 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>894281</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="1">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>21.547500000000003</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>29.735550000000003</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>33.398625</v>
       </c>
       <c r="M12" s="3">
         <v>0.38</v>
@@ -2165,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
@@ -2177,45 +2188,45 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>805667</v>
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="G13" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="1">
-        <v>12.025</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>16.5945</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>18.63875</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3">
         <v>0.38</v>
@@ -2227,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
         <v>26</v>
@@ -2239,15 +2250,15 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>813067</v>
+        <v>805667</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -2259,25 +2270,25 @@
         <v>60</v>
       </c>
       <c r="F14" s="1">
-        <v>43</v>
+        <v>18.5</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H14" s="2">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="1">
-        <v>15.372500000000002</v>
+        <v>12.025</v>
       </c>
       <c r="K14" s="1">
-        <v>21.21405</v>
+        <v>16.5945</v>
       </c>
       <c r="L14" s="1">
-        <v>23.827375000000004</v>
+        <v>18.63875</v>
       </c>
       <c r="M14" s="3">
         <v>0.38</v>
@@ -2295,10 +2306,10 @@
         <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
         <v>24</v>
@@ -2306,10 +2317,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>825833</v>
+        <v>813067</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -2321,25 +2332,25 @@
         <v>63</v>
       </c>
       <c r="F15" s="1">
-        <v>9.5</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="1">
-        <v>16.98125</v>
+        <v>15.372500000000002</v>
       </c>
       <c r="K15" s="1">
-        <v>23.434124999999998</v>
+        <v>21.21405</v>
       </c>
       <c r="L15" s="1">
-        <v>26.3209375</v>
+        <v>23.827375000000004</v>
       </c>
       <c r="M15" s="3">
         <v>0.38</v>
@@ -2357,10 +2368,10 @@
         <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T15" t="s">
         <v>24</v>
@@ -2368,10 +2379,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>869027</v>
+        <v>825833</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -2383,25 +2394,25 @@
         <v>66</v>
       </c>
       <c r="F16" s="1">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="G16" s="2">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H16" s="2">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="1">
-        <v>27.982499999999998</v>
+        <v>16.98125</v>
       </c>
       <c r="K16" s="1">
-        <v>38.615849999999995</v>
+        <v>23.434124999999998</v>
       </c>
       <c r="L16" s="1">
-        <v>43.372875</v>
+        <v>26.3209375</v>
       </c>
       <c r="M16" s="3">
         <v>0.38</v>
@@ -2419,10 +2430,10 @@
         <v>67</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
         <v>24</v>
@@ -2430,10 +2441,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>856878</v>
+        <v>869027</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -2445,25 +2456,25 @@
         <v>69</v>
       </c>
       <c r="F17" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H17" s="2">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="1">
-        <v>46.800000000000004</v>
+        <v>27.982499999999998</v>
       </c>
       <c r="K17" s="1">
-        <v>64.584</v>
+        <v>38.615849999999995</v>
       </c>
       <c r="L17" s="1">
-        <v>72.54</v>
+        <v>43.372875</v>
       </c>
       <c r="M17" s="3">
         <v>0.38</v>
@@ -2481,21 +2492,21 @@
         <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>941001</v>
+        <v>856878</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -2507,25 +2518,25 @@
         <v>72</v>
       </c>
       <c r="F18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
-        <v>3.99</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="1">
-        <v>38.61975</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="K18" s="1">
-        <v>53.295255</v>
+        <v>64.584</v>
       </c>
       <c r="L18" s="1">
-        <v>59.86061250000001</v>
+        <v>72.54</v>
       </c>
       <c r="M18" s="3">
         <v>0.38</v>
@@ -2540,13 +2551,13 @@
         <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s">
         <v>24</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T18" t="s">
         <v>24</v>
@@ -2554,40 +2565,40 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>941002</v>
+        <v>941001</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
-        <v>2.99</v>
+        <v>3.99</v>
       </c>
       <c r="I19" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="1">
-        <v>30.9465</v>
+        <v>38.61975</v>
       </c>
       <c r="K19" s="1">
-        <v>42.70617</v>
+        <v>53.295255</v>
       </c>
       <c r="L19" s="1">
-        <v>47.967075</v>
+        <v>59.86061250000001</v>
       </c>
       <c r="M19" s="3">
         <v>0.38</v>
@@ -2602,54 +2613,54 @@
         <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>805658</v>
+        <v>941002</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2">
         <v>2.3</v>
       </c>
       <c r="H20" s="2">
-        <v>2.9</v>
+        <v>2.99</v>
       </c>
       <c r="I20" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="1">
-        <v>27.039999999999996</v>
+        <v>30.9465</v>
       </c>
       <c r="K20" s="1">
-        <v>37.31519999999999</v>
+        <v>42.70617</v>
       </c>
       <c r="L20" s="1">
-        <v>41.91199999999999</v>
+        <v>47.967075</v>
       </c>
       <c r="M20" s="3">
         <v>0.38</v>
@@ -2664,7 +2675,7 @@
         <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s">
         <v>26</v>
@@ -2673,15 +2684,15 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>813074</v>
+        <v>805658</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2693,25 +2704,25 @@
         <v>79</v>
       </c>
       <c r="F21" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H21" s="2">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="1">
-        <v>21.125</v>
+        <v>27.039999999999996</v>
       </c>
       <c r="K21" s="1">
-        <v>29.152499999999996</v>
+        <v>37.31519999999999</v>
       </c>
       <c r="L21" s="1">
-        <v>32.74375</v>
+        <v>41.91199999999999</v>
       </c>
       <c r="M21" s="3">
         <v>0.38</v>
@@ -2729,10 +2740,10 @@
         <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="s">
         <v>24</v>
@@ -2740,10 +2751,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>805664</v>
+        <v>813074</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -2755,25 +2766,25 @@
         <v>82</v>
       </c>
       <c r="F22" s="1">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="1">
-        <v>10.075000000000001</v>
+        <v>21.125</v>
       </c>
       <c r="K22" s="1">
-        <v>13.903500000000001</v>
+        <v>29.152499999999996</v>
       </c>
       <c r="L22" s="1">
-        <v>15.616250000000003</v>
+        <v>32.74375</v>
       </c>
       <c r="M22" s="3">
         <v>0.38</v>
@@ -2802,10 +2813,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>825830</v>
+        <v>805664</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2814,28 +2825,28 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F23" s="1">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="G23" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="1">
-        <v>9.295</v>
+        <v>10.075000000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>12.8271</v>
+        <v>13.903500000000001</v>
       </c>
       <c r="L23" s="1">
-        <v>14.40725</v>
+        <v>15.616250000000003</v>
       </c>
       <c r="M23" s="3">
         <v>0.38</v>
@@ -2850,54 +2861,54 @@
         <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>805701</v>
+        <v>825830</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H24" s="2">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="I24" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1">
-        <v>16.4775</v>
+        <v>9.295</v>
       </c>
       <c r="K24" s="1">
-        <v>22.738949999999996</v>
+        <v>12.8271</v>
       </c>
       <c r="L24" s="1">
-        <v>25.540125</v>
+        <v>14.40725</v>
       </c>
       <c r="M24" s="3">
         <v>0.38</v>
@@ -2921,15 +2932,15 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>805688</v>
+        <v>805701</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2941,25 +2952,25 @@
         <v>90</v>
       </c>
       <c r="F25" s="1">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I25" t="s">
         <v>23</v>
       </c>
       <c r="J25" s="1">
-        <v>7.800000000000001</v>
+        <v>16.4775</v>
       </c>
       <c r="K25" s="1">
-        <v>10.764</v>
+        <v>22.738949999999996</v>
       </c>
       <c r="L25" s="1">
-        <v>12.090000000000002</v>
+        <v>25.540125</v>
       </c>
       <c r="M25" s="3">
         <v>0.38</v>
@@ -2988,10 +2999,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>805716</v>
+        <v>805688</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -3003,25 +3014,25 @@
         <v>93</v>
       </c>
       <c r="F26" s="1">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="1">
-        <v>16.835</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K26" s="1">
-        <v>23.2323</v>
+        <v>10.764</v>
       </c>
       <c r="L26" s="1">
-        <v>26.094250000000002</v>
+        <v>12.090000000000002</v>
       </c>
       <c r="M26" s="3">
         <v>0.38</v>
@@ -3050,10 +3061,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>805689</v>
+        <v>805716</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -3062,28 +3073,28 @@
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="1">
-        <v>7.800000000000001</v>
+        <v>16.835</v>
       </c>
       <c r="K27" s="1">
-        <v>10.764</v>
+        <v>23.2323</v>
       </c>
       <c r="L27" s="1">
-        <v>12.090000000000002</v>
+        <v>26.094250000000002</v>
       </c>
       <c r="M27" s="3">
         <v>0.38</v>
@@ -3098,7 +3109,7 @@
         <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R27" t="s">
         <v>26</v>
@@ -3112,40 +3123,40 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>805668</v>
+        <v>805689</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1">
-        <v>40.5</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="1">
-        <v>25.008750000000003</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K28" s="1">
-        <v>34.512075</v>
+        <v>10.764</v>
       </c>
       <c r="L28" s="1">
-        <v>38.763562500000006</v>
+        <v>12.090000000000002</v>
       </c>
       <c r="M28" s="3">
         <v>0.38</v>
@@ -3174,10 +3185,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>929452</v>
+        <v>805668</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -3189,25 +3200,25 @@
         <v>101</v>
       </c>
       <c r="F29" s="1">
-        <v>26</v>
+        <v>40.5</v>
       </c>
       <c r="G29" s="2">
         <v>0.8</v>
       </c>
       <c r="H29" s="2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
       </c>
       <c r="J29" s="1">
-        <v>16.900000000000002</v>
+        <v>25.008750000000003</v>
       </c>
       <c r="K29" s="1">
-        <v>23.322000000000003</v>
+        <v>34.512075</v>
       </c>
       <c r="L29" s="1">
-        <v>26.195000000000004</v>
+        <v>38.763562500000006</v>
       </c>
       <c r="M29" s="3">
         <v>0.38</v>
@@ -3231,15 +3242,15 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>894282</v>
+        <v>929452</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -3254,22 +3265,22 @@
         <v>26</v>
       </c>
       <c r="G30" s="2">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H30" s="2">
-        <v>0.79</v>
+        <v>1.2</v>
       </c>
       <c r="I30" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="1">
-        <v>10.0555</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="K30" s="1">
-        <v>13.87659</v>
+        <v>23.322000000000003</v>
       </c>
       <c r="L30" s="1">
-        <v>15.586025000000001</v>
+        <v>26.195000000000004</v>
       </c>
       <c r="M30" s="3">
         <v>0.38</v>
@@ -3284,33 +3295,33 @@
         <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>813069</v>
+        <v>894282</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1">
         <v>26</v>
@@ -3319,19 +3330,19 @@
         <v>0.4</v>
       </c>
       <c r="H31" s="2">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="1">
-        <v>9.295</v>
+        <v>10.0555</v>
       </c>
       <c r="K31" s="1">
-        <v>12.8271</v>
+        <v>13.87659</v>
       </c>
       <c r="L31" s="1">
-        <v>14.40725</v>
+        <v>15.586025000000001</v>
       </c>
       <c r="M31" s="3">
         <v>0.38</v>
@@ -3346,7 +3357,7 @@
         <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R31" t="s">
         <v>26</v>
@@ -3360,40 +3371,40 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>814845</v>
+        <v>813069</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32" s="2">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="2">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="1">
-        <v>23.562500000000007</v>
+        <v>9.295</v>
       </c>
       <c r="K32" s="1">
-        <v>32.51625000000001</v>
+        <v>12.8271</v>
       </c>
       <c r="L32" s="1">
-        <v>36.52187500000001</v>
+        <v>14.40725</v>
       </c>
       <c r="M32" s="3">
         <v>0.38</v>
@@ -3417,15 +3428,15 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>883799</v>
+        <v>814845</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -3437,25 +3448,25 @@
         <v>111</v>
       </c>
       <c r="F33" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H33" s="2">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="1">
-        <v>9.262500000000001</v>
+        <v>23.562500000000007</v>
       </c>
       <c r="K33" s="1">
-        <v>12.782250000000001</v>
+        <v>32.51625000000001</v>
       </c>
       <c r="L33" s="1">
-        <v>14.356875000000002</v>
+        <v>36.52187500000001</v>
       </c>
       <c r="M33" s="3">
         <v>0.38</v>
@@ -3484,61 +3495,61 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>883799</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
         <v>2</v>
       </c>
-      <c r="B34">
-        <v>806161</v>
-      </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="H34" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1">
+        <v>9.262500000000001</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12.782250000000001</v>
+      </c>
+      <c r="L34" s="1">
+        <v>14.356875000000002</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="1">
-        <v>26</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="1">
-        <v>16.900000000000002</v>
-      </c>
-      <c r="K34" s="1">
-        <v>23.322000000000003</v>
-      </c>
-      <c r="L34" s="1">
-        <v>26.195000000000004</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>116</v>
-      </c>
       <c r="R34" t="s">
         <v>26</v>
       </c>
       <c r="S34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T34" t="s">
         <v>24</v>
@@ -3546,13 +3557,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>941000</v>
+        <v>806161</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>117</v>
@@ -3561,7 +3572,7 @@
         <v>118</v>
       </c>
       <c r="F35" s="1">
-        <v>47.5</v>
+        <v>26</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -3570,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1">
-        <v>30.875</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="K35" s="1">
-        <v>42.607499999999995</v>
+        <v>23.322000000000003</v>
       </c>
       <c r="L35" s="1">
-        <v>47.85625</v>
+        <v>26.195000000000004</v>
       </c>
       <c r="M35" s="3">
         <v>0.38</v>
@@ -3594,13 +3605,13 @@
         <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R35" t="s">
         <v>26</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="T35" t="s">
         <v>24</v>
@@ -3608,61 +3619,61 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>940998</v>
+        <v>941000</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="1">
+        <v>30.875</v>
+      </c>
+      <c r="K36" s="1">
+        <v>42.607499999999995</v>
+      </c>
+      <c r="L36" s="1">
+        <v>47.85625</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
         <v>119</v>
       </c>
-      <c r="E36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="1">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="1">
-        <v>11.05</v>
-      </c>
-      <c r="K36" s="1">
-        <v>15.249</v>
-      </c>
-      <c r="L36" s="1">
-        <v>17.1275</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>116</v>
-      </c>
       <c r="R36" t="s">
         <v>26</v>
       </c>
       <c r="S36">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="T36" t="s">
         <v>24</v>
@@ -3670,22 +3681,22 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>806159</v>
+        <v>940998</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -3694,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1">
-        <v>16.25</v>
+        <v>11.05</v>
       </c>
       <c r="K37" s="1">
-        <v>22.424999999999997</v>
+        <v>15.249</v>
       </c>
       <c r="L37" s="1">
-        <v>25.1875</v>
+        <v>17.1275</v>
       </c>
       <c r="M37" s="3">
         <v>0.38</v>
@@ -3718,27 +3729,27 @@
         <v>24</v>
       </c>
       <c r="Q37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R37" t="s">
         <v>26</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="T37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>940994</v>
+        <v>806159</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>124</v>
@@ -3747,7 +3758,7 @@
         <v>125</v>
       </c>
       <c r="F38" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -3756,16 +3767,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J38" s="1">
-        <v>9.1</v>
+        <v>16.25</v>
       </c>
       <c r="K38" s="1">
-        <v>12.557999999999998</v>
+        <v>22.424999999999997</v>
       </c>
       <c r="L38" s="1">
-        <v>14.105</v>
+        <v>25.1875</v>
       </c>
       <c r="M38" s="3">
         <v>0.38</v>
@@ -3780,13 +3791,13 @@
         <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R38" t="s">
         <v>26</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s">
         <v>26</v>
@@ -3794,13 +3805,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>900311</v>
+        <v>940994</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>127</v>
@@ -3809,25 +3820,25 @@
         <v>128</v>
       </c>
       <c r="F39" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="K39" s="1">
-        <v>17.939999999999998</v>
+        <v>12.557999999999998</v>
       </c>
       <c r="L39" s="1">
-        <v>20.150000000000002</v>
+        <v>14.105</v>
       </c>
       <c r="M39" s="3">
         <v>0.38</v>
@@ -3842,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R39" t="s">
         <v>26</v>
@@ -3856,13 +3867,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40">
-        <v>840848</v>
+        <v>900311</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
         <v>130</v>
@@ -3871,25 +3882,25 @@
         <v>131</v>
       </c>
       <c r="F40" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H40" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1">
-        <v>10.725</v>
+        <v>13</v>
       </c>
       <c r="K40" s="1">
-        <v>14.800499999999998</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L40" s="1">
-        <v>16.62375</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M40" s="3">
         <v>0.38</v>
@@ -3913,24 +3924,24 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>840823</v>
+        <v>840848</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
         <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F41" s="1">
         <v>16.5</v>
@@ -3942,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1">
         <v>10.725</v>
@@ -3966,7 +3977,7 @@
         <v>24</v>
       </c>
       <c r="Q41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R41" t="s">
         <v>26</v>
@@ -3980,19 +3991,19 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B42">
-        <v>913652</v>
+        <v>840823</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F42" s="1">
         <v>16.5</v>
@@ -4004,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J42" s="1">
         <v>10.725</v>
@@ -4028,7 +4039,7 @@
         <v>24</v>
       </c>
       <c r="Q42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R42" t="s">
         <v>26</v>
@@ -4042,40 +4053,40 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B43">
-        <v>805696</v>
+        <v>913652</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F43" s="1">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="G43" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1">
-        <v>15.600000000000001</v>
+        <v>10.725</v>
       </c>
       <c r="K43" s="1">
-        <v>21.528</v>
+        <v>14.800499999999998</v>
       </c>
       <c r="L43" s="1">
-        <v>24.180000000000003</v>
+        <v>16.62375</v>
       </c>
       <c r="M43" s="3">
         <v>0.38</v>
@@ -4090,7 +4101,7 @@
         <v>24</v>
       </c>
       <c r="Q43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R43" t="s">
         <v>26</v>
@@ -4104,40 +4115,40 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B44">
-        <v>913651</v>
+        <v>805696</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F44" s="1">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H44" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1">
-        <v>10.725</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="K44" s="1">
-        <v>14.800499999999998</v>
+        <v>21.528</v>
       </c>
       <c r="L44" s="1">
-        <v>16.62375</v>
+        <v>24.180000000000003</v>
       </c>
       <c r="M44" s="3">
         <v>0.38</v>
@@ -4152,7 +4163,7 @@
         <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R44" t="s">
         <v>26</v>
@@ -4166,40 +4177,40 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B45">
-        <v>816905</v>
+        <v>913651</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F45" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G45" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J45" s="1">
-        <v>13</v>
+        <v>10.725</v>
       </c>
       <c r="K45" s="1">
-        <v>17.939999999999998</v>
+        <v>14.800499999999998</v>
       </c>
       <c r="L45" s="1">
-        <v>20.150000000000002</v>
+        <v>16.62375</v>
       </c>
       <c r="M45" s="3">
         <v>0.38</v>
@@ -4214,7 +4225,7 @@
         <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R45" t="s">
         <v>26</v>
@@ -4228,19 +4239,19 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B46">
-        <v>932132</v>
+        <v>816905</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F46" s="1">
         <v>20</v>
@@ -4252,7 +4263,7 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1">
         <v>13</v>
@@ -4276,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R46" t="s">
         <v>26</v>
@@ -4290,19 +4301,19 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B47">
-        <v>840822</v>
+        <v>932132</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F47" s="1">
         <v>20</v>
@@ -4314,7 +4325,7 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J47" s="1">
         <v>13</v>
@@ -4338,7 +4349,7 @@
         <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R47" t="s">
         <v>26</v>
@@ -4352,19 +4363,19 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B48">
-        <v>900309</v>
+        <v>840822</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F48" s="1">
         <v>20</v>
@@ -4376,7 +4387,7 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1">
         <v>13</v>
@@ -4400,13 +4411,13 @@
         <v>24</v>
       </c>
       <c r="Q48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T48" t="s">
         <v>24</v>
@@ -4414,40 +4425,40 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B49">
-        <v>913653</v>
+        <v>900309</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F49" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="H49" s="2">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="1">
         <v>13</v>
       </c>
-      <c r="I49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="1">
-        <v>9.75</v>
-      </c>
       <c r="K49" s="1">
-        <v>13.454999999999998</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L49" s="1">
-        <v>15.1125</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M49" s="3">
         <v>0.38</v>
@@ -4471,45 +4482,45 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B50">
-        <v>818963</v>
+        <v>913653</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F50" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H50" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K50" s="1">
-        <v>17.939999999999998</v>
+        <v>13.454999999999998</v>
       </c>
       <c r="L50" s="1">
-        <v>20.150000000000002</v>
+        <v>15.1125</v>
       </c>
       <c r="M50" s="3">
         <v>0.38</v>
@@ -4524,7 +4535,7 @@
         <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R50" t="s">
         <v>26</v>
@@ -4538,19 +4549,19 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B51">
-        <v>871143</v>
+        <v>818963</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F51" s="1">
         <v>20</v>
@@ -4562,7 +4573,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J51" s="1">
         <v>13</v>
@@ -4586,7 +4597,7 @@
         <v>24</v>
       </c>
       <c r="Q51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R51" t="s">
         <v>26</v>
@@ -4600,40 +4611,40 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B52">
-        <v>913648</v>
+        <v>871143</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="F52" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H52" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J52" s="1">
-        <v>11.05</v>
+        <v>13</v>
       </c>
       <c r="K52" s="1">
-        <v>15.249</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L52" s="1">
-        <v>17.1275</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M52" s="3">
         <v>0.38</v>
@@ -4648,7 +4659,7 @@
         <v>24</v>
       </c>
       <c r="Q52" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="R52" t="s">
         <v>26</v>
@@ -4657,45 +4668,45 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B53">
-        <v>805663</v>
+        <v>913648</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F53" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H53" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J53" s="1">
-        <v>13</v>
+        <v>11.05</v>
       </c>
       <c r="K53" s="1">
-        <v>17.939999999999998</v>
+        <v>15.249</v>
       </c>
       <c r="L53" s="1">
-        <v>20.150000000000002</v>
+        <v>17.1275</v>
       </c>
       <c r="M53" s="3">
         <v>0.38</v>
@@ -4710,7 +4721,7 @@
         <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="R53" t="s">
         <v>26</v>
@@ -4719,18 +4730,18 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54">
-        <v>941045</v>
+        <v>805663</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
         <v>161</v>
@@ -4739,25 +4750,25 @@
         <v>162</v>
       </c>
       <c r="F54" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H54" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J54" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K54" s="1">
-        <v>8.969999999999999</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L54" s="1">
-        <v>10.075000000000001</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M54" s="3">
         <v>0.38</v>
@@ -4772,7 +4783,7 @@
         <v>24</v>
       </c>
       <c r="Q54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="R54" t="s">
         <v>26</v>
@@ -4781,61 +4792,61 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B55">
-        <v>805651</v>
+        <v>941045</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>8.969999999999999</v>
+      </c>
+      <c r="L55" s="1">
+        <v>10.075000000000001</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" t="s">
         <v>163</v>
       </c>
-      <c r="E55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="1">
-        <v>15</v>
-      </c>
-      <c r="G55" s="2">
-        <v>16</v>
-      </c>
-      <c r="H55" s="2">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="1">
-        <v>9.75</v>
-      </c>
-      <c r="K55" s="1">
-        <v>13.454999999999998</v>
-      </c>
-      <c r="L55" s="1">
-        <v>15.1125</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>164</v>
-      </c>
       <c r="R55" t="s">
         <v>26</v>
       </c>
@@ -4843,45 +4854,45 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56">
-        <v>941062</v>
+        <v>805651</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
         <v>162</v>
       </c>
       <c r="F56" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H56" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J56" s="1">
-        <v>6.5</v>
+        <v>9.75</v>
       </c>
       <c r="K56" s="1">
-        <v>8.969999999999999</v>
+        <v>13.454999999999998</v>
       </c>
       <c r="L56" s="1">
-        <v>10.075000000000001</v>
+        <v>15.1125</v>
       </c>
       <c r="M56" s="3">
         <v>0.38</v>
@@ -4896,7 +4907,7 @@
         <v>24</v>
       </c>
       <c r="Q56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R56" t="s">
         <v>26</v>
@@ -4910,40 +4921,40 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57">
-        <v>929464</v>
+        <v>941062</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F57" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H57" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J57" s="1">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="K57" s="1">
-        <v>14.351999999999999</v>
+        <v>8.969999999999999</v>
       </c>
       <c r="L57" s="1">
-        <v>16.12</v>
+        <v>10.075000000000001</v>
       </c>
       <c r="M57" s="3">
         <v>0.38</v>
@@ -4964,48 +4975,48 @@
         <v>26</v>
       </c>
       <c r="S57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58">
-        <v>805665</v>
+        <v>929464</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
         <v>162</v>
       </c>
       <c r="F58" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H58" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J58" s="1">
-        <v>6.5</v>
+        <v>10.4</v>
       </c>
       <c r="K58" s="1">
-        <v>8.969999999999999</v>
+        <v>14.351999999999999</v>
       </c>
       <c r="L58" s="1">
-        <v>10.075000000000001</v>
+        <v>16.12</v>
       </c>
       <c r="M58" s="3">
         <v>0.38</v>
@@ -5020,13 +5031,13 @@
         <v>24</v>
       </c>
       <c r="Q58" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R58" t="s">
         <v>26</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T58" t="s">
         <v>24</v>
@@ -5034,40 +5045,40 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59">
-        <v>900310</v>
+        <v>805665</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F59" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H59" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J59" s="1">
-        <v>14.3</v>
+        <v>6.5</v>
       </c>
       <c r="K59" s="1">
-        <v>19.733999999999998</v>
+        <v>8.969999999999999</v>
       </c>
       <c r="L59" s="1">
-        <v>22.165000000000003</v>
+        <v>10.075000000000001</v>
       </c>
       <c r="M59" s="3">
         <v>0.38</v>
@@ -5091,27 +5102,27 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B60">
-        <v>913650</v>
+        <v>900310</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F60" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G60" s="2">
         <v>14</v>
@@ -5120,16 +5131,16 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J60" s="1">
-        <v>13</v>
+        <v>14.3</v>
       </c>
       <c r="K60" s="1">
-        <v>17.939999999999998</v>
+        <v>19.733999999999998</v>
       </c>
       <c r="L60" s="1">
-        <v>20.150000000000002</v>
+        <v>22.165000000000003</v>
       </c>
       <c r="M60" s="3">
         <v>0.38</v>
@@ -5144,7 +5155,7 @@
         <v>24</v>
       </c>
       <c r="Q60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R60" t="s">
         <v>26</v>
@@ -5153,36 +5164,36 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B61">
-        <v>813092</v>
+        <v>913650</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="F61" s="1">
         <v>20</v>
       </c>
       <c r="G61" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J61" s="1">
         <v>13</v>
@@ -5220,40 +5231,40 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>825835</v>
+        <v>813092</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F62" s="1">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>23</v>
       </c>
       <c r="J62" s="1">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K62" s="1">
-        <v>8.969999999999999</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L62" s="1">
-        <v>10.075000000000001</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M62" s="3">
         <v>0.38</v>
@@ -5268,7 +5279,7 @@
         <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R62" t="s">
         <v>26</v>
@@ -5282,40 +5293,40 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>922133</v>
+        <v>825835</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="G63" s="2">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H63" s="2">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
         <v>23</v>
       </c>
       <c r="J63" s="1">
-        <v>14.040000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="K63" s="1">
-        <v>19.3752</v>
+        <v>8.969999999999999</v>
       </c>
       <c r="L63" s="1">
-        <v>21.762</v>
+        <v>10.075000000000001</v>
       </c>
       <c r="M63" s="3">
         <v>0.38</v>
@@ -5344,13 +5355,13 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>913064</v>
+        <v>922133</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
         <v>181</v>
@@ -5362,22 +5373,22 @@
         <v>24</v>
       </c>
       <c r="G64" s="2">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H64" s="2">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="I64" t="s">
         <v>23</v>
       </c>
       <c r="J64" s="1">
-        <v>27.3</v>
+        <v>14.040000000000001</v>
       </c>
       <c r="K64" s="1">
-        <v>37.674</v>
+        <v>19.3752</v>
       </c>
       <c r="L64" s="1">
-        <v>42.315000000000005</v>
+        <v>21.762</v>
       </c>
       <c r="M64" s="3">
         <v>0.38</v>
@@ -5392,7 +5403,7 @@
         <v>24</v>
       </c>
       <c r="Q64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="R64" t="s">
         <v>26</v>
@@ -5401,45 +5412,45 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>939774</v>
+        <v>913064</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1">
-        <v>9.5</v>
+        <v>24</v>
       </c>
       <c r="G65" s="2">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H65" s="2">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="I65" t="s">
         <v>23</v>
       </c>
       <c r="J65" s="1">
-        <v>5.866250000000001</v>
+        <v>27.3</v>
       </c>
       <c r="K65" s="1">
-        <v>8.095425</v>
+        <v>37.674</v>
       </c>
       <c r="L65" s="1">
-        <v>9.092687500000002</v>
+        <v>42.315000000000005</v>
       </c>
       <c r="M65" s="3">
         <v>0.38</v>
@@ -5454,39 +5465,39 @@
         <v>24</v>
       </c>
       <c r="Q65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S65">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B66">
-        <v>825839</v>
+        <v>939774</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
         <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="F66" s="1">
-        <v>21.5</v>
+        <v>9.5</v>
       </c>
       <c r="G66" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H66" s="2">
         <v>1.1</v>
@@ -5495,13 +5506,13 @@
         <v>23</v>
       </c>
       <c r="J66" s="1">
-        <v>13.975</v>
+        <v>5.866250000000001</v>
       </c>
       <c r="K66" s="1">
-        <v>19.2855</v>
+        <v>8.095425</v>
       </c>
       <c r="L66" s="1">
-        <v>21.66125</v>
+        <v>9.092687500000002</v>
       </c>
       <c r="M66" s="3">
         <v>0.38</v>
@@ -5516,13 +5527,13 @@
         <v>24</v>
       </c>
       <c r="Q66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S66">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T66" t="s">
         <v>24</v>
@@ -5530,40 +5541,40 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>805703</v>
+        <v>825839</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="F67" s="1">
-        <v>15.5</v>
+        <v>21.5</v>
       </c>
       <c r="G67" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H67" s="2">
         <v>1.1</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1.5</v>
       </c>
       <c r="I67" t="s">
         <v>23</v>
       </c>
       <c r="J67" s="1">
-        <v>13.097500000000002</v>
+        <v>13.975</v>
       </c>
       <c r="K67" s="1">
-        <v>18.074550000000002</v>
+        <v>19.2855</v>
       </c>
       <c r="L67" s="1">
-        <v>20.301125000000003</v>
+        <v>21.66125</v>
       </c>
       <c r="M67" s="3">
         <v>0.38</v>
@@ -5584,7 +5595,7 @@
         <v>26</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T67" t="s">
         <v>24</v>
@@ -5592,40 +5603,40 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>805705</v>
+        <v>805703</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
         <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="F68" s="1">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="G68" s="2">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H68" s="2">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="I68" t="s">
         <v>23</v>
       </c>
       <c r="J68" s="1">
-        <v>19.84125</v>
+        <v>13.097500000000002</v>
       </c>
       <c r="K68" s="1">
-        <v>27.380924999999998</v>
+        <v>18.074550000000002</v>
       </c>
       <c r="L68" s="1">
-        <v>30.7539375</v>
+        <v>20.301125000000003</v>
       </c>
       <c r="M68" s="3">
         <v>0.38</v>
@@ -5640,7 +5651,7 @@
         <v>24</v>
       </c>
       <c r="Q68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R68" t="s">
         <v>26</v>
@@ -5649,45 +5660,45 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>825840</v>
+        <v>805705</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F69" s="1">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="G69" s="2">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H69" s="2">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="I69" t="s">
         <v>23</v>
       </c>
       <c r="J69" s="1">
-        <v>15.4375</v>
+        <v>19.84125</v>
       </c>
       <c r="K69" s="1">
-        <v>21.303749999999997</v>
+        <v>27.380924999999998</v>
       </c>
       <c r="L69" s="1">
-        <v>23.928125</v>
+        <v>30.7539375</v>
       </c>
       <c r="M69" s="3">
         <v>0.38</v>
@@ -5702,7 +5713,7 @@
         <v>24</v>
       </c>
       <c r="Q69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R69" t="s">
         <v>26</v>
@@ -5716,40 +5727,40 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>805710</v>
+        <v>825840</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="F70" s="1">
         <v>19</v>
       </c>
       <c r="G70" s="2">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H70" s="2">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="I70" t="s">
         <v>23</v>
       </c>
       <c r="J70" s="1">
-        <v>27.7875</v>
+        <v>15.4375</v>
       </c>
       <c r="K70" s="1">
-        <v>38.34675</v>
+        <v>21.303749999999997</v>
       </c>
       <c r="L70" s="1">
-        <v>43.07062500000001</v>
+        <v>23.928125</v>
       </c>
       <c r="M70" s="3">
         <v>0.38</v>
@@ -5773,18 +5784,18 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>805711</v>
+        <v>805710</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
         <v>198</v>
@@ -5793,25 +5804,25 @@
         <v>199</v>
       </c>
       <c r="F71" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="I71" t="s">
         <v>23</v>
       </c>
       <c r="J71" s="1">
-        <v>32.5</v>
+        <v>27.7875</v>
       </c>
       <c r="K71" s="1">
-        <v>44.849999999999994</v>
+        <v>38.34675</v>
       </c>
       <c r="L71" s="1">
-        <v>50.375</v>
+        <v>43.07062500000001</v>
       </c>
       <c r="M71" s="3">
         <v>0.38</v>
@@ -5840,40 +5851,40 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>805711</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
         <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="F72" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I72" t="s">
         <v>23</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>44.849999999999994</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
+        <v>50.375</v>
       </c>
       <c r="M72" s="3">
         <v>0.38</v>
@@ -5885,10 +5896,10 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q72" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="R72" t="s">
         <v>26</v>
@@ -5897,45 +5908,45 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>76</v>
-      </c>
-      <c r="B73">
-        <v>805712</v>
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F73" s="1">
-        <v>21.5</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
         <v>23</v>
       </c>
       <c r="J73" s="1">
-        <v>13.975</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>19.2855</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1">
-        <v>21.66125</v>
+        <v>0</v>
       </c>
       <c r="M73" s="3">
         <v>0.38</v>
@@ -5947,57 +5958,57 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q73" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B74">
-        <v>805659</v>
+        <v>805712</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="F74" s="1">
         <v>21.5</v>
       </c>
       <c r="G74" s="2">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H74" s="2">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="I74" t="s">
         <v>23</v>
       </c>
       <c r="J74" s="1">
-        <v>39.129999999999995</v>
+        <v>13.975</v>
       </c>
       <c r="K74" s="1">
-        <v>53.99939999999999</v>
+        <v>19.2855</v>
       </c>
       <c r="L74" s="1">
-        <v>60.65149999999999</v>
+        <v>21.66125</v>
       </c>
       <c r="M74" s="3">
         <v>0.38</v>
@@ -6015,67 +6026,67 @@
         <v>206</v>
       </c>
       <c r="R74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T74" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>941005</v>
+        <v>805659</v>
       </c>
       <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
         <v>207</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>208</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="1">
+        <v>39.129999999999995</v>
+      </c>
+      <c r="K75" s="1">
+        <v>53.99939999999999</v>
+      </c>
+      <c r="L75" s="1">
+        <v>60.65149999999999</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75" t="s">
         <v>209</v>
       </c>
-      <c r="F75" s="1">
-        <v>12</v>
-      </c>
-      <c r="G75" s="2">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="1">
-        <v>7.800000000000001</v>
-      </c>
-      <c r="K75" s="1">
-        <v>10.764</v>
-      </c>
-      <c r="L75" s="1">
-        <v>12.090000000000002</v>
-      </c>
-      <c r="M75" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>210</v>
-      </c>
       <c r="R75" t="s">
         <v>26</v>
       </c>
@@ -6083,18 +6094,18 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76">
-        <v>805459</v>
+        <v>941005</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
         <v>211</v>
@@ -6103,25 +6114,25 @@
         <v>212</v>
       </c>
       <c r="F76" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H76" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J76" s="1">
-        <v>4.55</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K76" s="1">
-        <v>6.278999999999999</v>
+        <v>10.764</v>
       </c>
       <c r="L76" s="1">
-        <v>7.0525</v>
+        <v>12.090000000000002</v>
       </c>
       <c r="M76" s="3">
         <v>0.38</v>
@@ -6136,7 +6147,7 @@
         <v>24</v>
       </c>
       <c r="Q76" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R76" t="s">
         <v>26</v>
@@ -6150,13 +6161,13 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B77">
-        <v>816242</v>
+        <v>805459</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
         <v>214</v>
@@ -6165,25 +6176,25 @@
         <v>215</v>
       </c>
       <c r="F77" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G77" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H77" s="2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J77" s="1">
-        <v>14.04</v>
+        <v>4.55</v>
       </c>
       <c r="K77" s="1">
-        <v>19.375199999999996</v>
+        <v>6.278999999999999</v>
       </c>
       <c r="L77" s="1">
-        <v>21.762</v>
+        <v>7.0525</v>
       </c>
       <c r="M77" s="3">
         <v>0.38</v>
@@ -6198,7 +6209,7 @@
         <v>24</v>
       </c>
       <c r="Q77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R77" t="s">
         <v>26</v>
@@ -6207,45 +6218,45 @@
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B78">
-        <v>805691</v>
+        <v>816242</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D78" t="s">
         <v>217</v>
       </c>
       <c r="E78" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="F78" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I78" t="s">
         <v>23</v>
       </c>
       <c r="J78" s="1">
-        <v>11.05</v>
+        <v>14.04</v>
       </c>
       <c r="K78" s="1">
-        <v>15.249</v>
+        <v>19.375199999999996</v>
       </c>
       <c r="L78" s="1">
-        <v>17.1275</v>
+        <v>21.762</v>
       </c>
       <c r="M78" s="3">
         <v>0.38</v>
@@ -6260,7 +6271,7 @@
         <v>24</v>
       </c>
       <c r="Q78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R78" t="s">
         <v>26</v>
@@ -6269,27 +6280,27 @@
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79">
-        <v>813080</v>
+        <v>805691</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
@@ -6301,13 +6312,13 @@
         <v>23</v>
       </c>
       <c r="J79" s="1">
-        <v>7.800000000000001</v>
+        <v>11.05</v>
       </c>
       <c r="K79" s="1">
-        <v>10.764</v>
+        <v>15.249</v>
       </c>
       <c r="L79" s="1">
-        <v>12.090000000000002</v>
+        <v>17.1275</v>
       </c>
       <c r="M79" s="3">
         <v>0.38</v>
@@ -6322,7 +6333,7 @@
         <v>24</v>
       </c>
       <c r="Q79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R79" t="s">
         <v>26</v>
@@ -6336,40 +6347,40 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B80">
-        <v>813078</v>
+        <v>813080</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
         <v>23</v>
       </c>
       <c r="J80" s="1">
-        <v>6.5</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K80" s="1">
-        <v>8.969999999999999</v>
+        <v>10.764</v>
       </c>
       <c r="L80" s="1">
-        <v>10.075000000000001</v>
+        <v>12.090000000000002</v>
       </c>
       <c r="M80" s="3">
         <v>0.38</v>
@@ -6384,7 +6395,7 @@
         <v>24</v>
       </c>
       <c r="Q80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R80" t="s">
         <v>26</v>
@@ -6398,40 +6409,40 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B81">
-        <v>805652</v>
+        <v>813078</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="F81" s="1">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="G81" s="2">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I81" t="s">
         <v>23</v>
       </c>
       <c r="J81" s="1">
-        <v>14.917500000000002</v>
+        <v>6.5</v>
       </c>
       <c r="K81" s="1">
-        <v>20.58615</v>
+        <v>8.969999999999999</v>
       </c>
       <c r="L81" s="1">
-        <v>23.122125000000004</v>
+        <v>10.075000000000001</v>
       </c>
       <c r="M81" s="3">
         <v>0.38</v>
@@ -6460,22 +6471,22 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>832792</v>
+        <v>805652</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D82" t="s">
         <v>226</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F82" s="1">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2">
         <v>1.2</v>
@@ -6487,13 +6498,13 @@
         <v>23</v>
       </c>
       <c r="J82" s="1">
-        <v>17.111250000000002</v>
+        <v>14.917500000000002</v>
       </c>
       <c r="K82" s="1">
-        <v>23.613525</v>
+        <v>20.58615</v>
       </c>
       <c r="L82" s="1">
-        <v>26.522437500000002</v>
+        <v>23.122125000000004</v>
       </c>
       <c r="M82" s="3">
         <v>0.38</v>
@@ -6508,7 +6519,7 @@
         <v>24</v>
       </c>
       <c r="Q82" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="R82" t="s">
         <v>26</v>
@@ -6522,40 +6533,40 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B83">
-        <v>861798</v>
+        <v>832792</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D83" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" t="s">
         <v>227</v>
       </c>
-      <c r="E83" t="s">
-        <v>228</v>
-      </c>
       <c r="F83" s="1">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="G83" s="2">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H83" s="2">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="I83" t="s">
         <v>23</v>
       </c>
       <c r="J83" s="1">
-        <v>30.3875</v>
+        <v>17.111250000000002</v>
       </c>
       <c r="K83" s="1">
-        <v>41.934749999999994</v>
+        <v>23.613525</v>
       </c>
       <c r="L83" s="1">
-        <v>47.100625</v>
+        <v>26.522437500000002</v>
       </c>
       <c r="M83" s="3">
         <v>0.38</v>
@@ -6570,7 +6581,7 @@
         <v>24</v>
       </c>
       <c r="Q83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R83" t="s">
         <v>26</v>
@@ -6584,13 +6595,13 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B84">
-        <v>940995</v>
+        <v>861798</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
         <v>230</v>
@@ -6599,25 +6610,25 @@
         <v>231</v>
       </c>
       <c r="F84" s="1">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="G84" s="2">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H84" s="2">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I84" t="s">
         <v>23</v>
       </c>
       <c r="J84" s="1">
-        <v>39.926249999999996</v>
+        <v>30.3875</v>
       </c>
       <c r="K84" s="1">
-        <v>55.09822499999999</v>
+        <v>41.934749999999994</v>
       </c>
       <c r="L84" s="1">
-        <v>61.885687499999996</v>
+        <v>47.100625</v>
       </c>
       <c r="M84" s="3">
         <v>0.38</v>
@@ -6646,13 +6657,13 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B85">
-        <v>805654</v>
+        <v>940995</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D85" t="s">
         <v>233</v>
@@ -6664,22 +6675,22 @@
         <v>19.5</v>
       </c>
       <c r="G85" s="2">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H85" s="2">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="I85" t="s">
         <v>23</v>
       </c>
       <c r="J85" s="1">
-        <v>30.356625</v>
+        <v>39.926249999999996</v>
       </c>
       <c r="K85" s="1">
-        <v>41.8921425</v>
+        <v>55.09822499999999</v>
       </c>
       <c r="L85" s="1">
-        <v>47.052768750000006</v>
+        <v>61.885687499999996</v>
       </c>
       <c r="M85" s="3">
         <v>0.38</v>
@@ -6694,7 +6705,7 @@
         <v>24</v>
       </c>
       <c r="Q85" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R85" t="s">
         <v>26</v>
@@ -6708,40 +6719,40 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>38</v>
-      </c>
-      <c r="B86" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="B86">
+        <v>805654</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="F86" s="1">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="I86" t="s">
         <v>23</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <v>30.356625</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>41.8921425</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
+        <v>47.052768750000006</v>
       </c>
       <c r="M86" s="3">
         <v>0.38</v>
@@ -6753,10 +6764,10 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q86" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="R86" t="s">
         <v>26</v>
@@ -6765,45 +6776,45 @@
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>47</v>
-      </c>
-      <c r="B87">
-        <v>816241</v>
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="F87" s="1">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
         <v>23</v>
       </c>
       <c r="J87" s="1">
-        <v>23.5625</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>32.51625</v>
+        <v>0</v>
       </c>
       <c r="L87" s="1">
-        <v>36.521875</v>
+        <v>0</v>
       </c>
       <c r="M87" s="3">
         <v>0.38</v>
@@ -6815,10 +6826,10 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q87" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
         <v>26</v>
@@ -6827,18 +6838,18 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88">
-        <v>816246</v>
+        <v>816241</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D88" t="s">
         <v>239</v>
@@ -6850,22 +6861,22 @@
         <v>14.5</v>
       </c>
       <c r="G88" s="2">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H88" s="2">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="I88" t="s">
         <v>23</v>
       </c>
       <c r="J88" s="1">
-        <v>9.896250000000002</v>
+        <v>23.5625</v>
       </c>
       <c r="K88" s="1">
-        <v>13.656825000000001</v>
+        <v>32.51625</v>
       </c>
       <c r="L88" s="1">
-        <v>15.339187500000003</v>
+        <v>36.521875</v>
       </c>
       <c r="M88" s="3">
         <v>0.38</v>
@@ -6886,69 +6897,69 @@
         <v>26</v>
       </c>
       <c r="S88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89">
-        <v>813079</v>
+        <v>816246</v>
       </c>
       <c r="C89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" t="s">
         <v>242</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>243</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="1">
+        <v>9.896250000000002</v>
+      </c>
+      <c r="K89" s="1">
+        <v>13.656825000000001</v>
+      </c>
+      <c r="L89" s="1">
+        <v>15.339187500000003</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q89" t="s">
         <v>244</v>
       </c>
-      <c r="F89" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="G89" s="2">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>29</v>
-      </c>
-      <c r="J89" s="1">
-        <v>6.175</v>
-      </c>
-      <c r="K89" s="1">
-        <v>8.5215</v>
-      </c>
-      <c r="L89" s="1">
-        <v>9.57125</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>245</v>
-      </c>
       <c r="R89" t="s">
         <v>26</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T89" t="s">
         <v>26</v>
@@ -6956,13 +6967,13 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B90">
-        <v>818957</v>
+        <v>813079</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
         <v>246</v>
@@ -6974,13 +6985,13 @@
         <v>9.5</v>
       </c>
       <c r="G90" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H90" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J90" s="1">
         <v>6.175</v>
@@ -7018,22 +7029,22 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91">
-        <v>805677</v>
+        <v>818957</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D91" t="s">
         <v>249</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F91" s="1">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="G91" s="2">
         <v>0.5</v>
@@ -7042,16 +7053,16 @@
         <v>0.5</v>
       </c>
       <c r="I91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J91" s="1">
-        <v>7.800000000000001</v>
+        <v>6.175</v>
       </c>
       <c r="K91" s="1">
-        <v>10.764</v>
+        <v>8.5215</v>
       </c>
       <c r="L91" s="1">
-        <v>12.090000000000002</v>
+        <v>9.57125</v>
       </c>
       <c r="M91" s="3">
         <v>0.38</v>
@@ -7066,7 +7077,7 @@
         <v>24</v>
       </c>
       <c r="Q91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R91" t="s">
         <v>26</v>
@@ -7075,45 +7086,45 @@
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B92">
-        <v>805669</v>
+        <v>805677</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F92" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G92" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J92" s="1">
-        <v>17.55</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K92" s="1">
-        <v>24.218999999999998</v>
+        <v>10.764</v>
       </c>
       <c r="L92" s="1">
-        <v>27.2025</v>
+        <v>12.090000000000002</v>
       </c>
       <c r="M92" s="3">
         <v>0.38</v>
@@ -7137,18 +7148,18 @@
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B93">
-        <v>900315</v>
+        <v>805669</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D93" t="s">
         <v>254</v>
@@ -7157,25 +7168,25 @@
         <v>255</v>
       </c>
       <c r="F93" s="1">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H93" s="2">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
         <v>23</v>
       </c>
       <c r="J93" s="1">
-        <v>75.75750000000001</v>
+        <v>17.55</v>
       </c>
       <c r="K93" s="1">
-        <v>104.54535</v>
+        <v>24.218999999999998</v>
       </c>
       <c r="L93" s="1">
-        <v>117.42412500000002</v>
+        <v>27.2025</v>
       </c>
       <c r="M93" s="3">
         <v>0.38</v>
@@ -7187,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q93" t="s">
         <v>256</v>
@@ -7204,13 +7215,13 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B94">
-        <v>805676</v>
+        <v>900315</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
         <v>257</v>
@@ -7219,25 +7230,25 @@
         <v>258</v>
       </c>
       <c r="F94" s="1">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="G94" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H94" s="2">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="I94" t="s">
         <v>23</v>
       </c>
       <c r="J94" s="1">
-        <v>12.59375</v>
+        <v>75.75750000000001</v>
       </c>
       <c r="K94" s="1">
-        <v>17.379375</v>
+        <v>104.54535</v>
       </c>
       <c r="L94" s="1">
-        <v>19.5203125</v>
+        <v>117.42412500000002</v>
       </c>
       <c r="M94" s="3">
         <v>0.38</v>
@@ -7249,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q94" t="s">
         <v>259</v>
@@ -7266,22 +7277,22 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B95">
-        <v>805679</v>
+        <v>805676</v>
       </c>
       <c r="C95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D95" t="s">
         <v>260</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F95" s="1">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
@@ -7293,13 +7304,13 @@
         <v>23</v>
       </c>
       <c r="J95" s="1">
-        <v>9.75</v>
+        <v>12.59375</v>
       </c>
       <c r="K95" s="1">
-        <v>13.454999999999998</v>
+        <v>17.379375</v>
       </c>
       <c r="L95" s="1">
-        <v>15.1125</v>
+        <v>19.5203125</v>
       </c>
       <c r="M95" s="3">
         <v>0.38</v>
@@ -7314,7 +7325,7 @@
         <v>24</v>
       </c>
       <c r="Q95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R95" t="s">
         <v>26</v>
@@ -7323,45 +7334,45 @@
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B96">
-        <v>805673</v>
+        <v>805679</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E96" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F96" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H96" s="2">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I96" t="s">
         <v>23</v>
       </c>
       <c r="J96" s="1">
-        <v>32.175000000000004</v>
+        <v>9.75</v>
       </c>
       <c r="K96" s="1">
-        <v>44.401500000000006</v>
+        <v>13.454999999999998</v>
       </c>
       <c r="L96" s="1">
-        <v>49.87125000000001</v>
+        <v>15.1125</v>
       </c>
       <c r="M96" s="3">
         <v>0.38</v>
@@ -7379,24 +7390,24 @@
         <v>264</v>
       </c>
       <c r="R96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B97">
-        <v>953035</v>
+        <v>805673</v>
       </c>
       <c r="C97" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D97" t="s">
         <v>265</v>
@@ -7405,25 +7416,25 @@
         <v>266</v>
       </c>
       <c r="F97" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G97" s="2">
-        <v>4.21</v>
+        <v>5</v>
       </c>
       <c r="H97" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I97" t="s">
         <v>23</v>
       </c>
       <c r="J97" s="1">
-        <v>28.435875000000003</v>
+        <v>32.175000000000004</v>
       </c>
       <c r="K97" s="1">
-        <v>39.241507500000004</v>
+        <v>44.401500000000006</v>
       </c>
       <c r="L97" s="1">
-        <v>44.07560625000001</v>
+        <v>49.87125000000001</v>
       </c>
       <c r="M97" s="3">
         <v>0.38</v>
@@ -7438,7 +7449,7 @@
         <v>24</v>
       </c>
       <c r="Q97" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R97" t="s">
         <v>26</v>
@@ -7452,40 +7463,40 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B98">
-        <v>953036</v>
+        <v>953035</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F98" s="1">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G98" s="2">
-        <v>3.2</v>
+        <v>4.21</v>
       </c>
       <c r="H98" s="2">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I98" t="s">
         <v>23</v>
       </c>
       <c r="J98" s="1">
-        <v>24.05</v>
+        <v>28.435875000000003</v>
       </c>
       <c r="K98" s="1">
-        <v>33.189</v>
+        <v>39.241507500000004</v>
       </c>
       <c r="L98" s="1">
-        <v>37.2775</v>
+        <v>44.07560625000001</v>
       </c>
       <c r="M98" s="3">
         <v>0.38</v>
@@ -7500,7 +7511,7 @@
         <v>24</v>
       </c>
       <c r="Q98" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R98" t="s">
         <v>26</v>
@@ -7514,40 +7525,40 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B99">
-        <v>953039</v>
+        <v>953036</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F99" s="1">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H99" s="2">
-        <v>3.19</v>
+        <v>4.2</v>
       </c>
       <c r="I99" t="s">
         <v>23</v>
       </c>
       <c r="J99" s="1">
-        <v>19.417125</v>
+        <v>24.05</v>
       </c>
       <c r="K99" s="1">
-        <v>26.795632499999996</v>
+        <v>33.189</v>
       </c>
       <c r="L99" s="1">
-        <v>30.09654375</v>
+        <v>37.2775</v>
       </c>
       <c r="M99" s="3">
         <v>0.38</v>
@@ -7562,7 +7573,7 @@
         <v>24</v>
       </c>
       <c r="Q99" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R99" t="s">
         <v>26</v>
@@ -7576,40 +7587,40 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>63</v>
-      </c>
-      <c r="B100" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="B100">
+        <v>953039</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F100" s="1">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="G100" s="2">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H100" s="2">
-        <v>5.7</v>
+        <v>3.19</v>
       </c>
       <c r="I100" t="s">
         <v>23</v>
       </c>
       <c r="J100" s="1">
-        <v>42.12000000000001</v>
+        <v>19.417125</v>
       </c>
       <c r="K100" s="1">
-        <v>58.12560000000001</v>
+        <v>26.795632499999996</v>
       </c>
       <c r="L100" s="1">
-        <v>65.28600000000002</v>
+        <v>30.09654375</v>
       </c>
       <c r="M100" s="3">
         <v>0.38</v>
@@ -7621,10 +7632,10 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q100" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R100" t="s">
         <v>26</v>
@@ -7638,13 +7649,13 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D101" t="s">
         <v>274</v>
@@ -7656,22 +7667,22 @@
         <v>12</v>
       </c>
       <c r="G101" s="2">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H101" s="2">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I101" t="s">
         <v>23</v>
       </c>
       <c r="J101" s="1">
-        <v>35.489999999999995</v>
+        <v>42.12000000000001</v>
       </c>
       <c r="K101" s="1">
-        <v>48.97619999999999</v>
+        <v>58.12560000000001</v>
       </c>
       <c r="L101" s="1">
-        <v>55.009499999999996</v>
+        <v>65.28600000000002</v>
       </c>
       <c r="M101" s="3">
         <v>0.38</v>
@@ -7686,7 +7697,7 @@
         <v>26</v>
       </c>
       <c r="Q101" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="R101" t="s">
         <v>26</v>
@@ -7700,40 +7711,40 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>61</v>
-      </c>
-      <c r="B102">
-        <v>805661</v>
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F102" s="1">
         <v>12</v>
       </c>
       <c r="G102" s="2">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H102" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I102" t="s">
         <v>23</v>
       </c>
       <c r="J102" s="1">
-        <v>27.3</v>
+        <v>35.489999999999995</v>
       </c>
       <c r="K102" s="1">
-        <v>37.674</v>
+        <v>48.97619999999999</v>
       </c>
       <c r="L102" s="1">
-        <v>42.315000000000005</v>
+        <v>55.009499999999996</v>
       </c>
       <c r="M102" s="3">
         <v>0.38</v>
@@ -7745,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="R102" t="s">
         <v>26</v>
@@ -7762,40 +7773,40 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B103">
-        <v>805685</v>
+        <v>805661</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D103" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F103" s="1">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="G103" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" s="2">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J103" s="1">
-        <v>12.025</v>
+        <v>27.3</v>
       </c>
       <c r="K103" s="1">
-        <v>16.5945</v>
+        <v>37.674</v>
       </c>
       <c r="L103" s="1">
-        <v>18.63875</v>
+        <v>42.315000000000005</v>
       </c>
       <c r="M103" s="3">
         <v>0.38</v>
@@ -7810,7 +7821,7 @@
         <v>24</v>
       </c>
       <c r="Q103" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="R103" t="s">
         <v>26</v>
@@ -7819,18 +7830,18 @@
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>814849</v>
+        <v>805685</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
         <v>281</v>
@@ -7839,25 +7850,25 @@
         <v>282</v>
       </c>
       <c r="F104" s="1">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="G104" s="2">
         <v>2</v>
       </c>
       <c r="H104" s="2">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="I104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J104" s="1">
-        <v>7.800000000000001</v>
+        <v>12.025</v>
       </c>
       <c r="K104" s="1">
-        <v>10.764</v>
+        <v>16.5945</v>
       </c>
       <c r="L104" s="1">
-        <v>12.090000000000002</v>
+        <v>18.63875</v>
       </c>
       <c r="M104" s="3">
         <v>0.38</v>
@@ -7875,51 +7886,51 @@
         <v>283</v>
       </c>
       <c r="R104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B105">
-        <v>805653</v>
+        <v>814849</v>
       </c>
       <c r="C105" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" t="s">
         <v>284</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>285</v>
       </c>
-      <c r="E105" t="s">
-        <v>162</v>
-      </c>
       <c r="F105" s="1">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J105" s="1">
-        <v>9.425</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K105" s="1">
-        <v>13.0065</v>
+        <v>10.764</v>
       </c>
       <c r="L105" s="1">
-        <v>14.608750000000002</v>
+        <v>12.090000000000002</v>
       </c>
       <c r="M105" s="3">
         <v>0.38</v>
@@ -7940,30 +7951,30 @@
         <v>26</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T105" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106">
-        <v>805724</v>
+        <v>805653</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F106" s="1">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="G106" s="2">
         <v>0</v>
@@ -7972,16 +7983,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J106" s="1">
-        <v>11.375</v>
+        <v>9.425</v>
       </c>
       <c r="K106" s="1">
-        <v>15.697499999999998</v>
+        <v>13.0065</v>
       </c>
       <c r="L106" s="1">
-        <v>17.63125</v>
+        <v>14.608750000000002</v>
       </c>
       <c r="M106" s="3">
         <v>0.38</v>
@@ -7996,7 +8007,7 @@
         <v>24</v>
       </c>
       <c r="Q106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R106" t="s">
         <v>26</v>
@@ -8010,22 +8021,22 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107">
-        <v>813084</v>
+        <v>805724</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E107" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F107" s="1">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="G107" s="2">
         <v>0</v>
@@ -8034,16 +8045,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J107" s="1">
-        <v>12.675</v>
+        <v>11.375</v>
       </c>
       <c r="K107" s="1">
-        <v>17.4915</v>
+        <v>15.697499999999998</v>
       </c>
       <c r="L107" s="1">
-        <v>19.646250000000002</v>
+        <v>17.63125</v>
       </c>
       <c r="M107" s="3">
         <v>0.38</v>
@@ -8058,7 +8069,7 @@
         <v>24</v>
       </c>
       <c r="Q107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R107" t="s">
         <v>26</v>
@@ -8072,22 +8083,22 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B108">
-        <v>813086</v>
+        <v>813084</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F108" s="1">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="G108" s="2">
         <v>0</v>
@@ -8096,16 +8107,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J108" s="1">
-        <v>10.075000000000001</v>
+        <v>12.675</v>
       </c>
       <c r="K108" s="1">
-        <v>13.903500000000001</v>
+        <v>17.4915</v>
       </c>
       <c r="L108" s="1">
-        <v>15.616250000000003</v>
+        <v>19.646250000000002</v>
       </c>
       <c r="M108" s="3">
         <v>0.38</v>
@@ -8120,7 +8131,7 @@
         <v>24</v>
       </c>
       <c r="Q108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R108" t="s">
         <v>26</v>
@@ -8134,22 +8145,22 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109">
-        <v>805686</v>
+        <v>813086</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F109" s="1">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="G109" s="2">
         <v>0</v>
@@ -8158,16 +8169,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J109" s="1">
-        <v>12.675</v>
+        <v>10.075000000000001</v>
       </c>
       <c r="K109" s="1">
-        <v>17.4915</v>
+        <v>13.903500000000001</v>
       </c>
       <c r="L109" s="1">
-        <v>19.646250000000002</v>
+        <v>15.616250000000003</v>
       </c>
       <c r="M109" s="3">
         <v>0.38</v>
@@ -8182,7 +8193,7 @@
         <v>24</v>
       </c>
       <c r="Q109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R109" t="s">
         <v>26</v>
@@ -8196,19 +8207,19 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110">
-        <v>805693</v>
+        <v>805686</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D110" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E110" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F110" s="1">
         <v>19.5</v>
@@ -8220,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J110" s="1">
         <v>12.675</v>
@@ -8244,7 +8255,7 @@
         <v>24</v>
       </c>
       <c r="Q110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R110" t="s">
         <v>26</v>
@@ -8253,27 +8264,27 @@
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111">
-        <v>882704</v>
+        <v>805693</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F111" s="1">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="G111" s="2">
         <v>0</v>
@@ -8282,16 +8293,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J111" s="1">
-        <v>13.975</v>
+        <v>12.675</v>
       </c>
       <c r="K111" s="1">
-        <v>19.2855</v>
+        <v>17.4915</v>
       </c>
       <c r="L111" s="1">
-        <v>21.66125</v>
+        <v>19.646250000000002</v>
       </c>
       <c r="M111" s="3">
         <v>0.38</v>
@@ -8306,7 +8317,7 @@
         <v>24</v>
       </c>
       <c r="Q111" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R111" t="s">
         <v>26</v>
@@ -8320,19 +8331,19 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>86</v>
-      </c>
-      <c r="B112" t="s">
-        <v>54</v>
+        <v>85</v>
+      </c>
+      <c r="B112">
+        <v>882704</v>
       </c>
       <c r="C112" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E112" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F112" s="1">
         <v>21.5</v>
@@ -8344,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J112" s="1">
         <v>13.975</v>
@@ -8365,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R112" t="s">
         <v>26</v>
@@ -8382,22 +8393,22 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>87</v>
-      </c>
-      <c r="B113">
-        <v>805713</v>
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
       </c>
       <c r="C113" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E113" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="F113" s="1">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="G113" s="2">
         <v>0</v>
@@ -8406,16 +8417,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J113" s="1">
-        <v>10.725</v>
+        <v>13.975</v>
       </c>
       <c r="K113" s="1">
-        <v>14.800499999999998</v>
+        <v>19.2855</v>
       </c>
       <c r="L113" s="1">
-        <v>16.62375</v>
+        <v>21.66125</v>
       </c>
       <c r="M113" s="3">
         <v>0.38</v>
@@ -8427,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q113" t="s">
         <v>303</v>
@@ -8439,27 +8450,27 @@
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114">
-        <v>827440</v>
+        <v>805713</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D114" t="s">
         <v>304</v>
       </c>
       <c r="E114" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F114" s="1">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
@@ -8468,16 +8479,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J114" s="1">
-        <v>13</v>
+        <v>10.725</v>
       </c>
       <c r="K114" s="1">
-        <v>17.939999999999998</v>
+        <v>14.800499999999998</v>
       </c>
       <c r="L114" s="1">
-        <v>20.150000000000002</v>
+        <v>16.62375</v>
       </c>
       <c r="M114" s="3">
         <v>0.38</v>
@@ -8492,7 +8503,7 @@
         <v>24</v>
       </c>
       <c r="Q114" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R114" t="s">
         <v>26</v>
@@ -8506,22 +8517,22 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115">
-        <v>901753</v>
+        <v>827440</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D115" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="F115" s="1">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="G115" s="2">
         <v>0</v>
@@ -8530,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J115" s="1">
-        <v>13.975</v>
+        <v>13</v>
       </c>
       <c r="K115" s="1">
-        <v>19.2855</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L115" s="1">
-        <v>21.66125</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M115" s="3">
         <v>0.38</v>
@@ -8563,18 +8574,18 @@
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116">
-        <v>859028</v>
+        <v>901753</v>
       </c>
       <c r="C116" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
         <v>309</v>
@@ -8583,7 +8594,7 @@
         <v>310</v>
       </c>
       <c r="F116" s="1">
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="G116" s="2">
         <v>0</v>
@@ -8592,16 +8603,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1">
-        <v>11.700000000000001</v>
+        <v>13.975</v>
       </c>
       <c r="K116" s="1">
-        <v>16.146</v>
+        <v>19.2855</v>
       </c>
       <c r="L116" s="1">
-        <v>18.135</v>
+        <v>21.66125</v>
       </c>
       <c r="M116" s="3">
         <v>0.38</v>
@@ -8622,27 +8633,27 @@
         <v>26</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117">
-        <v>805675</v>
+        <v>859028</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D117" t="s">
         <v>312</v>
       </c>
       <c r="E117" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F117" s="1">
         <v>18</v>
@@ -8654,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J117" s="1">
         <v>11.700000000000001</v>
@@ -8678,36 +8689,36 @@
         <v>24</v>
       </c>
       <c r="Q117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R117" t="s">
         <v>26</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T117" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118">
-        <v>805719</v>
+        <v>805675</v>
       </c>
       <c r="C118" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>310</v>
       </c>
       <c r="F118" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -8716,16 +8727,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J118" s="1">
-        <v>13</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="K118" s="1">
-        <v>17.939999999999998</v>
+        <v>16.146</v>
       </c>
       <c r="L118" s="1">
-        <v>20.150000000000002</v>
+        <v>18.135</v>
       </c>
       <c r="M118" s="3">
         <v>0.38</v>
@@ -8740,7 +8751,7 @@
         <v>24</v>
       </c>
       <c r="Q118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R118" t="s">
         <v>26</v>
@@ -8749,27 +8760,27 @@
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119">
-        <v>805720</v>
+        <v>805719</v>
       </c>
       <c r="C119" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D119" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E119" t="s">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="F119" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -8778,16 +8789,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J119" s="1">
-        <v>11.700000000000001</v>
+        <v>13</v>
       </c>
       <c r="K119" s="1">
-        <v>16.146</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L119" s="1">
-        <v>18.135</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M119" s="3">
         <v>0.38</v>
@@ -8802,7 +8813,7 @@
         <v>24</v>
       </c>
       <c r="Q119" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R119" t="s">
         <v>26</v>
@@ -8816,40 +8827,40 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <v>805721</v>
+        <v>805720</v>
       </c>
       <c r="C120" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D120" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E120" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F120" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H120" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J120" s="1">
-        <v>13</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="K120" s="1">
-        <v>17.939999999999998</v>
+        <v>16.146</v>
       </c>
       <c r="L120" s="1">
-        <v>20.150000000000002</v>
+        <v>18.135</v>
       </c>
       <c r="M120" s="3">
         <v>0.38</v>
@@ -8878,40 +8889,40 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B121">
-        <v>858286</v>
+        <v>805721</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D121" t="s">
         <v>321</v>
       </c>
       <c r="E121" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F121" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H121" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J121" s="1">
-        <v>5.8500000000000005</v>
+        <v>13</v>
       </c>
       <c r="K121" s="1">
-        <v>8.073</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L121" s="1">
-        <v>9.0675</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M121" s="3">
         <v>0.38</v>
@@ -8926,7 +8937,7 @@
         <v>24</v>
       </c>
       <c r="Q121" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R121" t="s">
         <v>26</v>
@@ -8940,22 +8951,22 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122">
-        <v>805682</v>
+        <v>858286</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E122" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="F122" s="1">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -8964,16 +8975,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J122" s="1">
-        <v>12.675</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="K122" s="1">
-        <v>17.4915</v>
+        <v>8.073</v>
       </c>
       <c r="L122" s="1">
-        <v>19.646250000000002</v>
+        <v>9.0675</v>
       </c>
       <c r="M122" s="3">
         <v>0.38</v>
@@ -8988,7 +8999,7 @@
         <v>24</v>
       </c>
       <c r="Q122" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R122" t="s">
         <v>26</v>
@@ -9002,22 +9013,22 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123">
-        <v>805670</v>
+        <v>805682</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F123" s="1">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="G123" s="2">
         <v>0</v>
@@ -9026,16 +9037,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J123" s="1">
-        <v>13</v>
+        <v>12.675</v>
       </c>
       <c r="K123" s="1">
-        <v>17.939999999999998</v>
+        <v>17.4915</v>
       </c>
       <c r="L123" s="1">
-        <v>20.150000000000002</v>
+        <v>19.646250000000002</v>
       </c>
       <c r="M123" s="3">
         <v>0.38</v>
@@ -9050,7 +9061,7 @@
         <v>24</v>
       </c>
       <c r="Q123" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R123" t="s">
         <v>26</v>
@@ -9064,22 +9075,22 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124">
-        <v>805678</v>
+        <v>805670</v>
       </c>
       <c r="C124" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E124" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F124" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G124" s="2">
         <v>0</v>
@@ -9088,16 +9099,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J124" s="1">
-        <v>10.725</v>
+        <v>13</v>
       </c>
       <c r="K124" s="1">
-        <v>14.800499999999998</v>
+        <v>17.939999999999998</v>
       </c>
       <c r="L124" s="1">
-        <v>16.62375</v>
+        <v>20.150000000000002</v>
       </c>
       <c r="M124" s="3">
         <v>0.38</v>
@@ -9112,7 +9123,7 @@
         <v>24</v>
       </c>
       <c r="Q124" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R124" t="s">
         <v>26</v>
@@ -9126,40 +9137,40 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B125">
-        <v>940154</v>
+        <v>805678</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E125" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="F125" s="1">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="G125" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H125" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J125" s="1">
-        <v>7.15</v>
+        <v>10.725</v>
       </c>
       <c r="K125" s="1">
-        <v>9.866999999999999</v>
+        <v>14.800499999999998</v>
       </c>
       <c r="L125" s="1">
-        <v>11.082500000000001</v>
+        <v>16.62375</v>
       </c>
       <c r="M125" s="3">
         <v>0.38</v>
@@ -9174,7 +9185,7 @@
         <v>24</v>
       </c>
       <c r="Q125" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R125" t="s">
         <v>26</v>
@@ -9188,40 +9199,40 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B126">
-        <v>805687</v>
+        <v>940154</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D126" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
+        <v>310</v>
       </c>
       <c r="F126" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H126" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J126" s="1">
-        <v>11.05</v>
+        <v>7.15</v>
       </c>
       <c r="K126" s="1">
-        <v>15.249</v>
+        <v>9.866999999999999</v>
       </c>
       <c r="L126" s="1">
-        <v>17.1275</v>
+        <v>11.082500000000001</v>
       </c>
       <c r="M126" s="3">
         <v>0.38</v>
@@ -9236,7 +9247,7 @@
         <v>24</v>
       </c>
       <c r="Q126" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R126" t="s">
         <v>26</v>
@@ -9245,27 +9256,27 @@
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127">
-        <v>805692</v>
+        <v>805687</v>
       </c>
       <c r="C127" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E127" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F127" s="1">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="G127" s="2">
         <v>0</v>
@@ -9274,16 +9285,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J127" s="1">
-        <v>12.675</v>
+        <v>11.05</v>
       </c>
       <c r="K127" s="1">
-        <v>17.4915</v>
+        <v>15.249</v>
       </c>
       <c r="L127" s="1">
-        <v>19.646250000000002</v>
+        <v>17.1275</v>
       </c>
       <c r="M127" s="3">
         <v>0.38</v>
@@ -9298,7 +9309,7 @@
         <v>24</v>
       </c>
       <c r="Q127" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R127" t="s">
         <v>26</v>
@@ -9307,68 +9318,130 @@
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>99</v>
+      </c>
+      <c r="B128">
+        <v>805692</v>
+      </c>
+      <c r="C128" t="s">
+        <v>287</v>
+      </c>
+      <c r="D128" t="s">
+        <v>336</v>
+      </c>
+      <c r="E128" t="s">
+        <v>134</v>
+      </c>
+      <c r="F128" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" s="1">
+        <v>12.675</v>
+      </c>
+      <c r="K128" s="1">
+        <v>17.4915</v>
+      </c>
+      <c r="L128" s="1">
+        <v>19.646250000000002</v>
+      </c>
+      <c r="M128" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N128" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>337</v>
+      </c>
+      <c r="R128" t="s">
+        <v>26</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>100</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>805694</v>
       </c>
-      <c r="C128" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" t="s">
-        <v>335</v>
-      </c>
-      <c r="E128" t="s">
-        <v>302</v>
-      </c>
-      <c r="F128" s="1">
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" t="s">
+        <v>338</v>
+      </c>
+      <c r="E129" t="s">
+        <v>305</v>
+      </c>
+      <c r="F129" s="1">
         <v>18</v>
       </c>
-      <c r="G128" s="2">
-        <v>0</v>
-      </c>
-      <c r="H128" s="2">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>29</v>
-      </c>
-      <c r="J128" s="1">
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>32</v>
+      </c>
+      <c r="J129" s="1">
         <v>11.700000000000001</v>
       </c>
-      <c r="K128" s="1">
+      <c r="K129" s="1">
         <v>16.146</v>
       </c>
-      <c r="L128" s="1">
+      <c r="L129" s="1">
         <v>18.135</v>
       </c>
-      <c r="M128" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="N128" s="3">
-        <v>0.55</v>
-      </c>
-      <c r="O128">
-        <v>1</v>
-      </c>
-      <c r="P128" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>336</v>
-      </c>
-      <c r="R128" t="s">
-        <v>26</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-      <c r="T128" t="s">
+      <c r="M129" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N129" s="3">
+        <v>0.55</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>339</v>
+      </c>
+      <c r="R129" t="s">
+        <v>26</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -91,30 +91,30 @@
     <t>Bavette steak, also known as flap steak or sirloin flap, is a thin, flat, and tender cut of beef that comes from the bottom sirloin area. It's characterized by its loose texture and rich, beefy flavor. It is very similar to flank steak, often used interchangeably. Bavette is excellent for grilling or stir-frying. Perfect for your next taco night or steak dinner!</t>
   </si>
   <si>
+    <t>Beef Back Ribs</t>
+  </si>
+  <si>
+    <t>3.00 - 3.80 lbs</t>
+  </si>
+  <si>
+    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
+  </si>
+  <si>
+    <t>Beef Bones</t>
+  </si>
+  <si>
+    <t>3.00 - 5.00 lbs</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>Beef Back Ribs</t>
-  </si>
-  <si>
-    <t>3.00 - 3.80 lbs</t>
-  </si>
-  <si>
-    <t>Back ribs, also called long-ribs, are taken from the loin area of cattle. They are smaller and have a higher proportion of flesh to bone than short ribs. Back ribs are more delicate than short ribs because they have less fat and marbling.</t>
-  </si>
-  <si>
-    <t>Beef Bones</t>
-  </si>
-  <si>
-    <t>3.00 - 5.00 lbs</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
-  </si>
-  <si>
     <t>Beef Flat Iron Steak</t>
   </si>
   <si>
@@ -358,7 +358,8 @@
     <t>2.00 - 3.70 lbs</t>
   </si>
   <si>
-    <t>Our Grass-Fed Beef Tallow (Unrendered) from Deck Family Farm is a versatile, nutrient-rich product for home cooks and DIY enthusiasts. Unrendered tallow is raw, allowing you to render it yourself for cooking, skincare, or soap-making. It comes directly from our pasture-raised cattle, ensuring a high-quality, natural fat source with a clean, rich flavor</t>
+    <t xml:space="preserve">Our Grass-Fed Beef Tallow (Unrendered) from Deck Family Farm is a versatile, nutrient-rich product for home cooks and DIY enthusiasts. Unrendered tallow is raw, allowing you to render it yourself for cooking, skincare, or soap-making. It comes directly from our pasture-raised cattle, ensuring a high-quality, natural fat source with a clean, rich flavor. 1Lb of unrendered tallow gives about 1 Pint of rendered tallow. 
+Instructions: Chop or grind into small pieces, simmer on low with a small amount of water, strain through a fine sieve, let fat harden in fridge. Remove the fat block from the liquid at the bottom. Cook fat to 230 degrees F to clarify.</t>
   </si>
   <si>
     <t>Honey Nuts, &amp; Fruit</t>
@@ -1562,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1582,10 +1583,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>16</v>
@@ -1621,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
@@ -1644,10 +1645,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>11</v>
@@ -1659,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1">
         <v>7.15</v>
@@ -1683,10 +1684,10 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1748,13 +1749,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1810,13 +1811,13 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1872,7 +1873,7 @@
         <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1934,7 +1935,7 @@
         <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1957,7 +1958,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
@@ -1969,7 +1970,7 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
         <v>9.75</v>
@@ -1996,13 +1997,13 @@
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2058,13 +2059,13 @@
         <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2120,7 +2121,7 @@
         <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2182,7 +2183,7 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2205,7 +2206,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>10.5</v>
@@ -2238,19 +2239,19 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s">
         <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2306,7 +2307,7 @@
         <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2430,7 +2431,7 @@
         <v>67</v>
       </c>
       <c r="R16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2492,13 +2493,13 @@
         <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2616,13 +2617,13 @@
         <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2678,13 +2679,13 @@
         <v>73</v>
       </c>
       <c r="R20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2740,7 +2741,7 @@
         <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2802,13 +2803,13 @@
         <v>83</v>
       </c>
       <c r="R22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2864,13 +2865,13 @@
         <v>86</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2926,13 +2927,13 @@
         <v>88</v>
       </c>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2988,7 +2989,7 @@
         <v>91</v>
       </c>
       <c r="R25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3050,7 +3051,7 @@
         <v>94</v>
       </c>
       <c r="R26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3112,7 +3113,7 @@
         <v>97</v>
       </c>
       <c r="R27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3174,7 +3175,7 @@
         <v>99</v>
       </c>
       <c r="R28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3236,7 +3237,7 @@
         <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3298,13 +3299,13 @@
         <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3360,13 +3361,13 @@
         <v>105</v>
       </c>
       <c r="R31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3422,13 +3423,13 @@
         <v>109</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3484,7 +3485,7 @@
         <v>112</v>
       </c>
       <c r="R33" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3546,7 +3547,7 @@
         <v>115</v>
       </c>
       <c r="R34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3581,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1">
         <v>16.900000000000002</v>
@@ -3608,7 +3609,7 @@
         <v>119</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S35">
         <v>99</v>
@@ -3643,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1">
         <v>30.875</v>
@@ -3670,7 +3671,7 @@
         <v>119</v>
       </c>
       <c r="R36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1">
         <v>11.05</v>
@@ -3732,7 +3733,7 @@
         <v>119</v>
       </c>
       <c r="R37" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S37">
         <v>174</v>
@@ -3767,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" s="1">
         <v>16.25</v>
@@ -3794,13 +3795,13 @@
         <v>126</v>
       </c>
       <c r="R38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S38">
         <v>2</v>
       </c>
       <c r="T38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3829,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" s="1">
         <v>9.1</v>
@@ -3856,13 +3857,13 @@
         <v>126</v>
       </c>
       <c r="R39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3891,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" s="1">
         <v>13</v>
@@ -3918,13 +3919,13 @@
         <v>132</v>
       </c>
       <c r="R40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3953,7 +3954,7 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" s="1">
         <v>10.725</v>
@@ -3980,7 +3981,7 @@
         <v>135</v>
       </c>
       <c r="R41" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4015,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1">
         <v>10.725</v>
@@ -4042,7 +4043,7 @@
         <v>137</v>
       </c>
       <c r="R42" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4077,7 +4078,7 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J43" s="1">
         <v>10.725</v>
@@ -4104,7 +4105,7 @@
         <v>139</v>
       </c>
       <c r="R43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4139,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1">
         <v>15.600000000000001</v>
@@ -4166,7 +4167,7 @@
         <v>141</v>
       </c>
       <c r="R44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4201,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J45" s="1">
         <v>10.725</v>
@@ -4228,7 +4229,7 @@
         <v>143</v>
       </c>
       <c r="R45" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4263,7 +4264,7 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J46" s="1">
         <v>13</v>
@@ -4290,7 +4291,7 @@
         <v>145</v>
       </c>
       <c r="R46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4325,7 +4326,7 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J47" s="1">
         <v>13</v>
@@ -4352,7 +4353,7 @@
         <v>147</v>
       </c>
       <c r="R47" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -4387,7 +4388,7 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J48" s="1">
         <v>13</v>
@@ -4414,7 +4415,7 @@
         <v>149</v>
       </c>
       <c r="R48" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -4449,7 +4450,7 @@
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J49" s="1">
         <v>13</v>
@@ -4476,13 +4477,13 @@
         <v>151</v>
       </c>
       <c r="R49" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4511,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J50" s="1">
         <v>9.75</v>
@@ -4538,7 +4539,7 @@
         <v>154</v>
       </c>
       <c r="R50" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4573,7 +4574,7 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51" s="1">
         <v>13</v>
@@ -4600,7 +4601,7 @@
         <v>156</v>
       </c>
       <c r="R51" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4635,7 +4636,7 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J52" s="1">
         <v>13</v>
@@ -4662,7 +4663,7 @@
         <v>158</v>
       </c>
       <c r="R52" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4697,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J53" s="1">
         <v>11.05</v>
@@ -4724,13 +4725,13 @@
         <v>141</v>
       </c>
       <c r="R53" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4759,7 +4760,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J54" s="1">
         <v>13</v>
@@ -4786,13 +4787,13 @@
         <v>163</v>
       </c>
       <c r="R54" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4821,7 +4822,7 @@
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J55" s="1">
         <v>6.5</v>
@@ -4848,7 +4849,7 @@
         <v>163</v>
       </c>
       <c r="R55" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4883,7 +4884,7 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J56" s="1">
         <v>9.75</v>
@@ -4910,13 +4911,13 @@
         <v>167</v>
       </c>
       <c r="R56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4945,7 +4946,7 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J57" s="1">
         <v>6.5</v>
@@ -4972,13 +4973,13 @@
         <v>167</v>
       </c>
       <c r="R57" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5007,7 +5008,7 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J58" s="1">
         <v>10.4</v>
@@ -5034,7 +5035,7 @@
         <v>170</v>
       </c>
       <c r="R58" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S58">
         <v>50</v>
@@ -5069,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J59" s="1">
         <v>6.5</v>
@@ -5096,7 +5097,7 @@
         <v>170</v>
       </c>
       <c r="R59" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -5131,7 +5132,7 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J60" s="1">
         <v>14.3</v>
@@ -5158,13 +5159,13 @@
         <v>173</v>
       </c>
       <c r="R60" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5193,7 +5194,7 @@
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J61" s="1">
         <v>13</v>
@@ -5220,7 +5221,7 @@
         <v>175</v>
       </c>
       <c r="R61" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5282,7 +5283,7 @@
         <v>178</v>
       </c>
       <c r="R62" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -5305,7 +5306,7 @@
         <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1">
         <v>2.5</v>
@@ -5344,7 +5345,7 @@
         <v>180</v>
       </c>
       <c r="R63" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -5406,7 +5407,7 @@
         <v>183</v>
       </c>
       <c r="R64" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -5468,13 +5469,13 @@
         <v>183</v>
       </c>
       <c r="R65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5592,7 +5593,7 @@
         <v>190</v>
       </c>
       <c r="R67" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S67">
         <v>11</v>
@@ -5654,7 +5655,7 @@
         <v>193</v>
       </c>
       <c r="R68" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5716,13 +5717,13 @@
         <v>195</v>
       </c>
       <c r="R69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5778,13 +5779,13 @@
         <v>197</v>
       </c>
       <c r="R70" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5840,7 +5841,7 @@
         <v>200</v>
       </c>
       <c r="R71" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5902,7 +5903,7 @@
         <v>203</v>
       </c>
       <c r="R72" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5925,7 +5926,7 @@
         <v>204</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" s="1">
         <v>13</v>
@@ -5958,19 +5959,19 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q73" t="s">
         <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -6088,13 +6089,13 @@
         <v>209</v>
       </c>
       <c r="R75" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6123,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J76" s="1">
         <v>7.800000000000001</v>
@@ -6150,7 +6151,7 @@
         <v>213</v>
       </c>
       <c r="R76" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -6185,7 +6186,7 @@
         <v>0.5</v>
       </c>
       <c r="I77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J77" s="1">
         <v>4.55</v>
@@ -6212,7 +6213,7 @@
         <v>213</v>
       </c>
       <c r="R77" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -6274,13 +6275,13 @@
         <v>219</v>
       </c>
       <c r="R78" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6336,7 +6337,7 @@
         <v>221</v>
       </c>
       <c r="R79" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6398,7 +6399,7 @@
         <v>223</v>
       </c>
       <c r="R80" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -6421,7 +6422,7 @@
         <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1">
         <v>2.5</v>
@@ -6460,7 +6461,7 @@
         <v>225</v>
       </c>
       <c r="R81" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -6522,7 +6523,7 @@
         <v>228</v>
       </c>
       <c r="R82" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -6584,7 +6585,7 @@
         <v>228</v>
       </c>
       <c r="R83" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -6646,7 +6647,7 @@
         <v>232</v>
       </c>
       <c r="R84" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6708,7 +6709,7 @@
         <v>235</v>
       </c>
       <c r="R85" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6770,7 +6771,7 @@
         <v>235</v>
       </c>
       <c r="R86" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -6793,7 +6794,7 @@
         <v>238</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" s="1">
         <v>12</v>
@@ -6826,19 +6827,19 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q87" t="s">
         <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -6894,7 +6895,7 @@
         <v>241</v>
       </c>
       <c r="R88" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -6956,13 +6957,13 @@
         <v>244</v>
       </c>
       <c r="R89" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S89">
         <v>4</v>
       </c>
       <c r="T89" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -6991,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J90" s="1">
         <v>6.175</v>
@@ -7018,13 +7019,13 @@
         <v>248</v>
       </c>
       <c r="R90" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7053,7 +7054,7 @@
         <v>0.5</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J91" s="1">
         <v>6.175</v>
@@ -7080,13 +7081,13 @@
         <v>251</v>
       </c>
       <c r="R91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -7115,7 +7116,7 @@
         <v>0.5</v>
       </c>
       <c r="I92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J92" s="1">
         <v>7.800000000000001</v>
@@ -7142,7 +7143,7 @@
         <v>253</v>
       </c>
       <c r="R92" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -7204,13 +7205,13 @@
         <v>256</v>
       </c>
       <c r="R93" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7260,19 +7261,19 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q94" t="s">
         <v>259</v>
       </c>
       <c r="R94" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7328,13 +7329,13 @@
         <v>262</v>
       </c>
       <c r="R95" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -7452,13 +7453,13 @@
         <v>267</v>
       </c>
       <c r="R97" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -7514,13 +7515,13 @@
         <v>267</v>
       </c>
       <c r="R98" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7576,13 +7577,13 @@
         <v>267</v>
       </c>
       <c r="R99" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7638,13 +7639,13 @@
         <v>267</v>
       </c>
       <c r="R100" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7694,19 +7695,19 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q101" t="s">
         <v>276</v>
       </c>
       <c r="R101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S101">
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7756,19 +7757,19 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q102" t="s">
         <v>276</v>
       </c>
       <c r="R102" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7824,13 +7825,13 @@
         <v>276</v>
       </c>
       <c r="R103" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -7859,7 +7860,7 @@
         <v>3.8</v>
       </c>
       <c r="I104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J104" s="1">
         <v>12.025</v>
@@ -7921,7 +7922,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J105" s="1">
         <v>7.800000000000001</v>
@@ -7948,13 +7949,13 @@
         <v>286</v>
       </c>
       <c r="R105" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S105">
         <v>2</v>
       </c>
       <c r="T105" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -7983,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J106" s="1">
         <v>9.425</v>
@@ -8010,7 +8011,7 @@
         <v>289</v>
       </c>
       <c r="R106" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -8045,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J107" s="1">
         <v>11.375</v>
@@ -8072,7 +8073,7 @@
         <v>291</v>
       </c>
       <c r="R107" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -8107,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J108" s="1">
         <v>12.675</v>
@@ -8134,7 +8135,7 @@
         <v>293</v>
       </c>
       <c r="R108" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -8169,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J109" s="1">
         <v>10.075000000000001</v>
@@ -8196,7 +8197,7 @@
         <v>295</v>
       </c>
       <c r="R109" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -8231,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J110" s="1">
         <v>12.675</v>
@@ -8258,7 +8259,7 @@
         <v>297</v>
       </c>
       <c r="R110" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -8293,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J111" s="1">
         <v>12.675</v>
@@ -8320,13 +8321,13 @@
         <v>299</v>
       </c>
       <c r="R111" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -8355,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J112" s="1">
         <v>13.975</v>
@@ -8382,13 +8383,13 @@
         <v>301</v>
       </c>
       <c r="R112" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -8417,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J113" s="1">
         <v>13.975</v>
@@ -8438,19 +8439,19 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q113" t="s">
         <v>303</v>
       </c>
       <c r="R113" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -8479,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J114" s="1">
         <v>10.725</v>
@@ -8506,7 +8507,7 @@
         <v>306</v>
       </c>
       <c r="R114" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -8541,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J115" s="1">
         <v>13</v>
@@ -8568,7 +8569,7 @@
         <v>308</v>
       </c>
       <c r="R115" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -8603,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J116" s="1">
         <v>13.975</v>
@@ -8630,13 +8631,13 @@
         <v>311</v>
       </c>
       <c r="R116" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S116">
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -8665,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J117" s="1">
         <v>11.700000000000001</v>
@@ -8692,7 +8693,7 @@
         <v>314</v>
       </c>
       <c r="R117" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -8727,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J118" s="1">
         <v>11.700000000000001</v>
@@ -8754,13 +8755,13 @@
         <v>316</v>
       </c>
       <c r="R118" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -8789,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J119" s="1">
         <v>13</v>
@@ -8816,7 +8817,7 @@
         <v>318</v>
       </c>
       <c r="R119" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -8851,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J120" s="1">
         <v>11.700000000000001</v>
@@ -8878,7 +8879,7 @@
         <v>320</v>
       </c>
       <c r="R120" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -8913,7 +8914,7 @@
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J121" s="1">
         <v>13</v>
@@ -8940,7 +8941,7 @@
         <v>323</v>
       </c>
       <c r="R121" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -8975,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J122" s="1">
         <v>5.8500000000000005</v>
@@ -9002,7 +9003,7 @@
         <v>325</v>
       </c>
       <c r="R122" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -9037,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J123" s="1">
         <v>12.675</v>
@@ -9064,7 +9065,7 @@
         <v>327</v>
       </c>
       <c r="R123" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -9099,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J124" s="1">
         <v>13</v>
@@ -9126,7 +9127,7 @@
         <v>329</v>
       </c>
       <c r="R124" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -9161,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J125" s="1">
         <v>10.725</v>
@@ -9188,7 +9189,7 @@
         <v>331</v>
       </c>
       <c r="R125" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -9223,7 +9224,7 @@
         <v>0.5</v>
       </c>
       <c r="I126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J126" s="1">
         <v>7.15</v>
@@ -9250,7 +9251,7 @@
         <v>333</v>
       </c>
       <c r="R126" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -9285,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J127" s="1">
         <v>11.05</v>
@@ -9312,13 +9313,13 @@
         <v>335</v>
       </c>
       <c r="R127" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S127">
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -9347,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J128" s="1">
         <v>12.675</v>
@@ -9374,7 +9375,7 @@
         <v>337</v>
       </c>
       <c r="R128" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -9409,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J129" s="1">
         <v>11.700000000000001</v>
@@ -9436,7 +9437,7 @@
         <v>339</v>
       </c>
       <c r="R129" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S129">
         <v>0</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1566,7 +1566,7 @@
         <v>24</v>
       </c>
       <c r="S2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T2" t="s">
         <v>24</v>
@@ -1997,13 +1997,13 @@
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2369,13 +2369,13 @@
         <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T18" t="s">
         <v>24</v>
@@ -3485,10 +3485,10 @@
         <v>112</v>
       </c>
       <c r="R33" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T33" t="s">
         <v>24</v>
@@ -4353,10 +4353,10 @@
         <v>147</v>
       </c>
       <c r="R47" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s">
         <v>24</v>
@@ -4477,13 +4477,13 @@
         <v>151</v>
       </c>
       <c r="R49" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T49" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -5593,10 +5593,10 @@
         <v>190</v>
       </c>
       <c r="R67" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S67">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T67" t="s">
         <v>24</v>
@@ -6030,7 +6030,7 @@
         <v>24</v>
       </c>
       <c r="S74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T74" t="s">
         <v>24</v>
@@ -6960,7 +6960,7 @@
         <v>33</v>
       </c>
       <c r="S89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T89" t="s">
         <v>33</v>
@@ -7394,7 +7394,7 @@
         <v>24</v>
       </c>
       <c r="S96">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T96" t="s">
         <v>24</v>
@@ -7887,13 +7887,13 @@
         <v>283</v>
       </c>
       <c r="R104" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="S104">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>33</v>
       </c>
       <c r="S117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T117" t="s">
         <v>24</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="342">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Bavette steak, also known as flap steak or sirloin flap, is a thin, flat, and tender cut of beef that comes from the bottom sirloin area. It's characterized by its loose texture and rich, beefy flavor. It is very similar to flank steak, often used interchangeably. Bavette is excellent for grilling or stir-frying. Perfect for your next taco night or steak dinner!</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Beef Back Ribs</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>Our Grass-Fed Beef Bones from Deck Family Farm are a flavorful, nutrient-rich addition to your kitchen. These bones are packed with collagen, minerals, and robust flavor—perfect for creating rich broths, hearty soups, or slow-cooked stews.</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Beef Flat Iron Steak</t>
@@ -590,6 +590,9 @@
     <t>Lamb Kabob</t>
   </si>
   <si>
+    <t>1.1 - 1.35</t>
+  </si>
+  <si>
     <t>Our Lamb Kabobs are made from premium, pasture-raised lambs that are rotated on lush, organic pastures throughout the year. Occasionally grazing on other organic lands and cover crops, our lambs enjoy a varied, natural diet, which enhances the rich flavor and tenderness of the meat. Perfect for grilling or roasting, these kabobs offer a delicious and wholesome choice for your next BBQ or family dinner. Enjoy the exceptional taste of lamb raised with care and sustainability in mind.</t>
   </si>
   <si>
@@ -812,6 +815,9 @@
   </si>
   <si>
     <t>Chicken Part, Wings</t>
+  </si>
+  <si>
+    <t>1.50 - 2.00</t>
   </si>
   <si>
     <t>Our Chicken Wings are a flavorful, juicy cut of white meat with a rich, concentrated poultry flavor, often enjoyed for their versatility in dishes like classic Buffalo wings. Whether you're frying, grilling, or baking, these wings deliver a delicious bite every time. Sourced from our pasture-raised broilers, who enjoy a diet of grass, herbs, and clover, our chickens are well-fed, happy, and healthy, ensuring high-quality meat with exceptional taste. Perfect for your next family gathering or game day, our chicken wings offer a satisfying and wholesome option for any occasion.</t>
@@ -1539,13 +1545,13 @@
         <v>23</v>
       </c>
       <c r="J2" s="1">
-        <v>21.125</v>
+        <v>21.13</v>
       </c>
       <c r="K2" s="1">
-        <v>29.152499999999996</v>
+        <v>29.15</v>
       </c>
       <c r="L2" s="1">
-        <v>32.74375</v>
+        <v>32.74</v>
       </c>
       <c r="M2" s="3">
         <v>0.38</v>
@@ -1563,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1583,10 +1589,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>16</v>
@@ -1604,10 +1610,10 @@
         <v>35.36</v>
       </c>
       <c r="K3" s="1">
-        <v>48.7968</v>
+        <v>48.8</v>
       </c>
       <c r="L3" s="1">
-        <v>54.808</v>
+        <v>54.81</v>
       </c>
       <c r="M3" s="3">
         <v>0.38</v>
@@ -1622,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
@@ -1645,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>11</v>
@@ -1660,16 +1666,16 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1">
         <v>7.15</v>
       </c>
       <c r="K4" s="1">
-        <v>9.866999999999999</v>
+        <v>9.87</v>
       </c>
       <c r="L4" s="1">
-        <v>11.082500000000001</v>
+        <v>11.08</v>
       </c>
       <c r="M4" s="3">
         <v>0.38</v>
@@ -1684,10 +1690,10 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1725,13 +1731,13 @@
         <v>23</v>
       </c>
       <c r="J5" s="1">
-        <v>15.210000000000003</v>
+        <v>15.21</v>
       </c>
       <c r="K5" s="1">
-        <v>20.989800000000002</v>
+        <v>20.99</v>
       </c>
       <c r="L5" s="1">
-        <v>23.575500000000005</v>
+        <v>23.58</v>
       </c>
       <c r="M5" s="3">
         <v>0.38</v>
@@ -1749,13 +1755,13 @@
         <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1787,13 +1793,13 @@
         <v>23</v>
       </c>
       <c r="J6" s="1">
-        <v>18.525000000000002</v>
+        <v>18.53</v>
       </c>
       <c r="K6" s="1">
-        <v>25.564500000000002</v>
+        <v>25.56</v>
       </c>
       <c r="L6" s="1">
-        <v>28.713750000000005</v>
+        <v>28.71</v>
       </c>
       <c r="M6" s="3">
         <v>0.38</v>
@@ -1811,13 +1817,13 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1849,13 +1855,13 @@
         <v>23</v>
       </c>
       <c r="J7" s="1">
-        <v>15.210000000000003</v>
+        <v>15.21</v>
       </c>
       <c r="K7" s="1">
-        <v>20.989800000000002</v>
+        <v>20.99</v>
       </c>
       <c r="L7" s="1">
-        <v>23.575500000000005</v>
+        <v>23.58</v>
       </c>
       <c r="M7" s="3">
         <v>0.38</v>
@@ -1873,7 +1879,7 @@
         <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1914,10 +1920,10 @@
         <v>18.59</v>
       </c>
       <c r="K8" s="1">
-        <v>25.6542</v>
+        <v>25.65</v>
       </c>
       <c r="L8" s="1">
-        <v>28.8145</v>
+        <v>28.81</v>
       </c>
       <c r="M8" s="3">
         <v>0.38</v>
@@ -1935,7 +1941,7 @@
         <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1958,7 +1964,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
@@ -1970,16 +1976,16 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1">
         <v>9.75</v>
       </c>
       <c r="K9" s="1">
-        <v>13.454999999999998</v>
+        <v>13.45</v>
       </c>
       <c r="L9" s="1">
-        <v>15.1125</v>
+        <v>15.11</v>
       </c>
       <c r="M9" s="3">
         <v>0.38</v>
@@ -1997,13 +2003,13 @@
         <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2035,13 +2041,13 @@
         <v>23</v>
       </c>
       <c r="J10" s="1">
-        <v>13.9425</v>
+        <v>13.94</v>
       </c>
       <c r="K10" s="1">
-        <v>19.24065</v>
+        <v>19.24</v>
       </c>
       <c r="L10" s="1">
-        <v>21.610875</v>
+        <v>21.61</v>
       </c>
       <c r="M10" s="3">
         <v>0.38</v>
@@ -2059,13 +2065,13 @@
         <v>50</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2097,13 +2103,13 @@
         <v>23</v>
       </c>
       <c r="J11" s="1">
-        <v>28.51875</v>
+        <v>28.52</v>
       </c>
       <c r="K11" s="1">
-        <v>39.355875</v>
+        <v>39.36</v>
       </c>
       <c r="L11" s="1">
-        <v>44.2040625</v>
+        <v>44.2</v>
       </c>
       <c r="M11" s="3">
         <v>0.38</v>
@@ -2121,7 +2127,7 @@
         <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2159,13 +2165,13 @@
         <v>23</v>
       </c>
       <c r="J12" s="1">
-        <v>21.547500000000003</v>
+        <v>21.55</v>
       </c>
       <c r="K12" s="1">
-        <v>29.735550000000003</v>
+        <v>29.74</v>
       </c>
       <c r="L12" s="1">
-        <v>33.398625</v>
+        <v>33.4</v>
       </c>
       <c r="M12" s="3">
         <v>0.38</v>
@@ -2183,7 +2189,7 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2206,7 +2212,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
         <v>10.5</v>
@@ -2239,19 +2245,19 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
         <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2283,13 +2289,13 @@
         <v>23</v>
       </c>
       <c r="J14" s="1">
-        <v>12.025</v>
+        <v>12.03</v>
       </c>
       <c r="K14" s="1">
-        <v>16.5945</v>
+        <v>16.59</v>
       </c>
       <c r="L14" s="1">
-        <v>18.63875</v>
+        <v>18.64</v>
       </c>
       <c r="M14" s="3">
         <v>0.38</v>
@@ -2307,7 +2313,7 @@
         <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2345,13 +2351,13 @@
         <v>23</v>
       </c>
       <c r="J15" s="1">
-        <v>15.372500000000002</v>
+        <v>15.37</v>
       </c>
       <c r="K15" s="1">
-        <v>21.21405</v>
+        <v>21.21</v>
       </c>
       <c r="L15" s="1">
-        <v>23.827375000000004</v>
+        <v>23.83</v>
       </c>
       <c r="M15" s="3">
         <v>0.38</v>
@@ -2369,13 +2375,13 @@
         <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2407,13 +2413,13 @@
         <v>23</v>
       </c>
       <c r="J16" s="1">
-        <v>16.98125</v>
+        <v>16.98</v>
       </c>
       <c r="K16" s="1">
-        <v>23.434124999999998</v>
+        <v>23.43</v>
       </c>
       <c r="L16" s="1">
-        <v>26.3209375</v>
+        <v>26.32</v>
       </c>
       <c r="M16" s="3">
         <v>0.38</v>
@@ -2431,7 +2437,7 @@
         <v>67</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2469,13 +2475,13 @@
         <v>23</v>
       </c>
       <c r="J17" s="1">
-        <v>27.982499999999998</v>
+        <v>27.98</v>
       </c>
       <c r="K17" s="1">
-        <v>38.615849999999995</v>
+        <v>38.62</v>
       </c>
       <c r="L17" s="1">
-        <v>43.372875</v>
+        <v>43.37</v>
       </c>
       <c r="M17" s="3">
         <v>0.38</v>
@@ -2493,13 +2499,13 @@
         <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2531,10 +2537,10 @@
         <v>23</v>
       </c>
       <c r="J18" s="1">
-        <v>46.800000000000004</v>
+        <v>46.8</v>
       </c>
       <c r="K18" s="1">
-        <v>64.584</v>
+        <v>64.58</v>
       </c>
       <c r="L18" s="1">
         <v>72.54</v>
@@ -2558,7 +2564,7 @@
         <v>24</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
         <v>24</v>
@@ -2593,13 +2599,13 @@
         <v>23</v>
       </c>
       <c r="J19" s="1">
-        <v>38.61975</v>
+        <v>38.62</v>
       </c>
       <c r="K19" s="1">
-        <v>53.295255</v>
+        <v>53.3</v>
       </c>
       <c r="L19" s="1">
-        <v>59.86061250000001</v>
+        <v>59.86</v>
       </c>
       <c r="M19" s="3">
         <v>0.38</v>
@@ -2617,13 +2623,13 @@
         <v>73</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2655,13 +2661,13 @@
         <v>23</v>
       </c>
       <c r="J20" s="1">
-        <v>30.9465</v>
+        <v>30.95</v>
       </c>
       <c r="K20" s="1">
-        <v>42.70617</v>
+        <v>42.71</v>
       </c>
       <c r="L20" s="1">
-        <v>47.967075</v>
+        <v>47.97</v>
       </c>
       <c r="M20" s="3">
         <v>0.38</v>
@@ -2679,13 +2685,13 @@
         <v>73</v>
       </c>
       <c r="R20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2717,13 +2723,13 @@
         <v>23</v>
       </c>
       <c r="J21" s="1">
-        <v>27.039999999999996</v>
+        <v>27.04</v>
       </c>
       <c r="K21" s="1">
-        <v>37.31519999999999</v>
+        <v>37.32</v>
       </c>
       <c r="L21" s="1">
-        <v>41.91199999999999</v>
+        <v>41.91</v>
       </c>
       <c r="M21" s="3">
         <v>0.38</v>
@@ -2741,7 +2747,7 @@
         <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2779,13 +2785,13 @@
         <v>23</v>
       </c>
       <c r="J22" s="1">
-        <v>21.125</v>
+        <v>21.13</v>
       </c>
       <c r="K22" s="1">
-        <v>29.152499999999996</v>
+        <v>29.15</v>
       </c>
       <c r="L22" s="1">
-        <v>32.74375</v>
+        <v>32.74</v>
       </c>
       <c r="M22" s="3">
         <v>0.38</v>
@@ -2803,13 +2809,13 @@
         <v>83</v>
       </c>
       <c r="R22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2841,13 +2847,13 @@
         <v>23</v>
       </c>
       <c r="J23" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="K23" s="1">
-        <v>13.903500000000001</v>
+        <v>13.9</v>
       </c>
       <c r="L23" s="1">
-        <v>15.616250000000003</v>
+        <v>15.62</v>
       </c>
       <c r="M23" s="3">
         <v>0.38</v>
@@ -2865,13 +2871,13 @@
         <v>86</v>
       </c>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2903,13 +2909,13 @@
         <v>23</v>
       </c>
       <c r="J24" s="1">
-        <v>9.295</v>
+        <v>9.29</v>
       </c>
       <c r="K24" s="1">
-        <v>12.8271</v>
+        <v>12.83</v>
       </c>
       <c r="L24" s="1">
-        <v>14.40725</v>
+        <v>14.41</v>
       </c>
       <c r="M24" s="3">
         <v>0.38</v>
@@ -2927,13 +2933,13 @@
         <v>88</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2965,13 +2971,13 @@
         <v>23</v>
       </c>
       <c r="J25" s="1">
-        <v>16.4775</v>
+        <v>16.48</v>
       </c>
       <c r="K25" s="1">
-        <v>22.738949999999996</v>
+        <v>22.74</v>
       </c>
       <c r="L25" s="1">
-        <v>25.540125</v>
+        <v>25.54</v>
       </c>
       <c r="M25" s="3">
         <v>0.38</v>
@@ -2989,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="R25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3027,13 +3033,13 @@
         <v>23</v>
       </c>
       <c r="J26" s="1">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K26" s="1">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="L26" s="1">
-        <v>12.090000000000002</v>
+        <v>12.09</v>
       </c>
       <c r="M26" s="3">
         <v>0.38</v>
@@ -3051,7 +3057,7 @@
         <v>94</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3089,13 +3095,13 @@
         <v>23</v>
       </c>
       <c r="J27" s="1">
-        <v>16.835</v>
+        <v>16.84</v>
       </c>
       <c r="K27" s="1">
-        <v>23.2323</v>
+        <v>23.23</v>
       </c>
       <c r="L27" s="1">
-        <v>26.094250000000002</v>
+        <v>26.09</v>
       </c>
       <c r="M27" s="3">
         <v>0.38</v>
@@ -3113,7 +3119,7 @@
         <v>97</v>
       </c>
       <c r="R27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3151,13 +3157,13 @@
         <v>23</v>
       </c>
       <c r="J28" s="1">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K28" s="1">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="L28" s="1">
-        <v>12.090000000000002</v>
+        <v>12.09</v>
       </c>
       <c r="M28" s="3">
         <v>0.38</v>
@@ -3175,7 +3181,7 @@
         <v>99</v>
       </c>
       <c r="R28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3213,13 +3219,13 @@
         <v>23</v>
       </c>
       <c r="J29" s="1">
-        <v>25.008750000000003</v>
+        <v>25.01</v>
       </c>
       <c r="K29" s="1">
-        <v>34.512075</v>
+        <v>34.51</v>
       </c>
       <c r="L29" s="1">
-        <v>38.763562500000006</v>
+        <v>38.76</v>
       </c>
       <c r="M29" s="3">
         <v>0.38</v>
@@ -3237,7 +3243,7 @@
         <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3275,13 +3281,13 @@
         <v>23</v>
       </c>
       <c r="J30" s="1">
-        <v>16.900000000000002</v>
+        <v>16.9</v>
       </c>
       <c r="K30" s="1">
-        <v>23.322000000000003</v>
+        <v>23.32</v>
       </c>
       <c r="L30" s="1">
-        <v>26.195000000000004</v>
+        <v>26.2</v>
       </c>
       <c r="M30" s="3">
         <v>0.38</v>
@@ -3299,13 +3305,13 @@
         <v>105</v>
       </c>
       <c r="R30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3337,13 +3343,13 @@
         <v>23</v>
       </c>
       <c r="J31" s="1">
-        <v>10.0555</v>
+        <v>10.06</v>
       </c>
       <c r="K31" s="1">
-        <v>13.87659</v>
+        <v>13.88</v>
       </c>
       <c r="L31" s="1">
-        <v>15.586025000000001</v>
+        <v>15.59</v>
       </c>
       <c r="M31" s="3">
         <v>0.38</v>
@@ -3361,13 +3367,13 @@
         <v>105</v>
       </c>
       <c r="R31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3399,13 +3405,13 @@
         <v>23</v>
       </c>
       <c r="J32" s="1">
-        <v>9.295</v>
+        <v>9.29</v>
       </c>
       <c r="K32" s="1">
-        <v>12.8271</v>
+        <v>12.83</v>
       </c>
       <c r="L32" s="1">
-        <v>14.40725</v>
+        <v>14.41</v>
       </c>
       <c r="M32" s="3">
         <v>0.38</v>
@@ -3423,13 +3429,13 @@
         <v>109</v>
       </c>
       <c r="R32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3461,13 +3467,13 @@
         <v>23</v>
       </c>
       <c r="J33" s="1">
-        <v>23.562500000000007</v>
+        <v>23.56</v>
       </c>
       <c r="K33" s="1">
-        <v>32.51625000000001</v>
+        <v>32.52</v>
       </c>
       <c r="L33" s="1">
-        <v>36.52187500000001</v>
+        <v>36.52</v>
       </c>
       <c r="M33" s="3">
         <v>0.38</v>
@@ -3485,13 +3491,13 @@
         <v>112</v>
       </c>
       <c r="R33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3523,13 +3529,13 @@
         <v>23</v>
       </c>
       <c r="J34" s="1">
-        <v>9.262500000000001</v>
+        <v>9.26</v>
       </c>
       <c r="K34" s="1">
-        <v>12.782250000000001</v>
+        <v>12.78</v>
       </c>
       <c r="L34" s="1">
-        <v>14.356875000000002</v>
+        <v>14.36</v>
       </c>
       <c r="M34" s="3">
         <v>0.38</v>
@@ -3547,7 +3553,7 @@
         <v>115</v>
       </c>
       <c r="R34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3582,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1">
-        <v>16.900000000000002</v>
+        <v>16.9</v>
       </c>
       <c r="K35" s="1">
-        <v>23.322000000000003</v>
+        <v>23.32</v>
       </c>
       <c r="L35" s="1">
-        <v>26.195000000000004</v>
+        <v>26.2</v>
       </c>
       <c r="M35" s="3">
         <v>0.38</v>
@@ -3609,7 +3615,7 @@
         <v>119</v>
       </c>
       <c r="R35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S35">
         <v>99</v>
@@ -3644,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1">
-        <v>30.875</v>
+        <v>30.88</v>
       </c>
       <c r="K36" s="1">
-        <v>42.607499999999995</v>
+        <v>42.61</v>
       </c>
       <c r="L36" s="1">
-        <v>47.85625</v>
+        <v>47.86</v>
       </c>
       <c r="M36" s="3">
         <v>0.38</v>
@@ -3671,7 +3677,7 @@
         <v>119</v>
       </c>
       <c r="R36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3706,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J37" s="1">
         <v>11.05</v>
       </c>
       <c r="K37" s="1">
-        <v>15.249</v>
+        <v>15.25</v>
       </c>
       <c r="L37" s="1">
-        <v>17.1275</v>
+        <v>17.13</v>
       </c>
       <c r="M37" s="3">
         <v>0.38</v>
@@ -3733,7 +3739,7 @@
         <v>119</v>
       </c>
       <c r="R37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S37">
         <v>174</v>
@@ -3768,16 +3774,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J38" s="1">
         <v>16.25</v>
       </c>
       <c r="K38" s="1">
-        <v>22.424999999999997</v>
+        <v>22.42</v>
       </c>
       <c r="L38" s="1">
-        <v>25.1875</v>
+        <v>25.19</v>
       </c>
       <c r="M38" s="3">
         <v>0.38</v>
@@ -3795,13 +3801,13 @@
         <v>126</v>
       </c>
       <c r="R38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3830,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1">
         <v>9.1</v>
       </c>
       <c r="K39" s="1">
-        <v>12.557999999999998</v>
+        <v>12.56</v>
       </c>
       <c r="L39" s="1">
-        <v>14.105</v>
+        <v>14.11</v>
       </c>
       <c r="M39" s="3">
         <v>0.38</v>
@@ -3857,13 +3863,13 @@
         <v>126</v>
       </c>
       <c r="R39" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3892,16 +3898,16 @@
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1">
         <v>13</v>
       </c>
       <c r="K40" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L40" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M40" s="3">
         <v>0.38</v>
@@ -3919,13 +3925,13 @@
         <v>132</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3954,16 +3960,16 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1">
-        <v>10.725</v>
+        <v>10.72</v>
       </c>
       <c r="K41" s="1">
-        <v>14.800499999999998</v>
+        <v>14.8</v>
       </c>
       <c r="L41" s="1">
-        <v>16.62375</v>
+        <v>16.62</v>
       </c>
       <c r="M41" s="3">
         <v>0.38</v>
@@ -3981,7 +3987,7 @@
         <v>135</v>
       </c>
       <c r="R41" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -4016,16 +4022,16 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J42" s="1">
-        <v>10.725</v>
+        <v>10.72</v>
       </c>
       <c r="K42" s="1">
-        <v>14.800499999999998</v>
+        <v>14.8</v>
       </c>
       <c r="L42" s="1">
-        <v>16.62375</v>
+        <v>16.62</v>
       </c>
       <c r="M42" s="3">
         <v>0.38</v>
@@ -4043,7 +4049,7 @@
         <v>137</v>
       </c>
       <c r="R42" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4078,16 +4084,16 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1">
-        <v>10.725</v>
+        <v>10.72</v>
       </c>
       <c r="K43" s="1">
-        <v>14.800499999999998</v>
+        <v>14.8</v>
       </c>
       <c r="L43" s="1">
-        <v>16.62375</v>
+        <v>16.62</v>
       </c>
       <c r="M43" s="3">
         <v>0.38</v>
@@ -4105,7 +4111,7 @@
         <v>139</v>
       </c>
       <c r="R43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4140,16 +4146,16 @@
         <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1">
-        <v>15.600000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="K44" s="1">
-        <v>21.528</v>
+        <v>21.53</v>
       </c>
       <c r="L44" s="1">
-        <v>24.180000000000003</v>
+        <v>24.18</v>
       </c>
       <c r="M44" s="3">
         <v>0.38</v>
@@ -4167,7 +4173,7 @@
         <v>141</v>
       </c>
       <c r="R44" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4202,16 +4208,16 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="1">
-        <v>10.725</v>
+        <v>10.72</v>
       </c>
       <c r="K45" s="1">
-        <v>14.800499999999998</v>
+        <v>14.8</v>
       </c>
       <c r="L45" s="1">
-        <v>16.62375</v>
+        <v>16.62</v>
       </c>
       <c r="M45" s="3">
         <v>0.38</v>
@@ -4229,7 +4235,7 @@
         <v>143</v>
       </c>
       <c r="R45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4264,16 +4270,16 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1">
         <v>13</v>
       </c>
       <c r="K46" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L46" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M46" s="3">
         <v>0.38</v>
@@ -4291,7 +4297,7 @@
         <v>145</v>
       </c>
       <c r="R46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4326,16 +4332,16 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J47" s="1">
         <v>13</v>
       </c>
       <c r="K47" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L47" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M47" s="3">
         <v>0.38</v>
@@ -4353,13 +4359,13 @@
         <v>147</v>
       </c>
       <c r="R47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4388,16 +4394,16 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1">
         <v>13</v>
       </c>
       <c r="K48" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L48" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M48" s="3">
         <v>0.38</v>
@@ -4415,7 +4421,7 @@
         <v>149</v>
       </c>
       <c r="R48" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -4450,16 +4456,16 @@
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J49" s="1">
         <v>13</v>
       </c>
       <c r="K49" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L49" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M49" s="3">
         <v>0.38</v>
@@ -4480,7 +4486,7 @@
         <v>24</v>
       </c>
       <c r="S49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s">
         <v>24</v>
@@ -4512,16 +4518,16 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1">
         <v>9.75</v>
       </c>
       <c r="K50" s="1">
-        <v>13.454999999999998</v>
+        <v>13.45</v>
       </c>
       <c r="L50" s="1">
-        <v>15.1125</v>
+        <v>15.11</v>
       </c>
       <c r="M50" s="3">
         <v>0.38</v>
@@ -4539,7 +4545,7 @@
         <v>154</v>
       </c>
       <c r="R50" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4574,16 +4580,16 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="1">
         <v>13</v>
       </c>
       <c r="K51" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L51" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M51" s="3">
         <v>0.38</v>
@@ -4601,7 +4607,7 @@
         <v>156</v>
       </c>
       <c r="R51" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4636,16 +4642,16 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J52" s="1">
         <v>13</v>
       </c>
       <c r="K52" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L52" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M52" s="3">
         <v>0.38</v>
@@ -4663,7 +4669,7 @@
         <v>158</v>
       </c>
       <c r="R52" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4698,16 +4704,16 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="1">
         <v>11.05</v>
       </c>
       <c r="K53" s="1">
-        <v>15.249</v>
+        <v>15.25</v>
       </c>
       <c r="L53" s="1">
-        <v>17.1275</v>
+        <v>17.13</v>
       </c>
       <c r="M53" s="3">
         <v>0.38</v>
@@ -4725,13 +4731,13 @@
         <v>141</v>
       </c>
       <c r="R53" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4760,16 +4766,16 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J54" s="1">
         <v>13</v>
       </c>
       <c r="K54" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L54" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M54" s="3">
         <v>0.38</v>
@@ -4787,7 +4793,7 @@
         <v>163</v>
       </c>
       <c r="R54" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -4822,16 +4828,16 @@
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J55" s="1">
         <v>6.5</v>
       </c>
       <c r="K55" s="1">
-        <v>8.969999999999999</v>
+        <v>8.97</v>
       </c>
       <c r="L55" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="M55" s="3">
         <v>0.38</v>
@@ -4849,7 +4855,7 @@
         <v>163</v>
       </c>
       <c r="R55" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4884,16 +4890,16 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J56" s="1">
         <v>9.75</v>
       </c>
       <c r="K56" s="1">
-        <v>13.454999999999998</v>
+        <v>13.45</v>
       </c>
       <c r="L56" s="1">
-        <v>15.1125</v>
+        <v>15.11</v>
       </c>
       <c r="M56" s="3">
         <v>0.38</v>
@@ -4911,13 +4917,13 @@
         <v>167</v>
       </c>
       <c r="R56" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4946,16 +4952,16 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="1">
         <v>6.5</v>
       </c>
       <c r="K57" s="1">
-        <v>8.969999999999999</v>
+        <v>8.97</v>
       </c>
       <c r="L57" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="M57" s="3">
         <v>0.38</v>
@@ -4973,13 +4979,13 @@
         <v>167</v>
       </c>
       <c r="R57" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5008,13 +5014,13 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J58" s="1">
         <v>10.4</v>
       </c>
       <c r="K58" s="1">
-        <v>14.351999999999999</v>
+        <v>14.35</v>
       </c>
       <c r="L58" s="1">
         <v>16.12</v>
@@ -5035,7 +5041,7 @@
         <v>170</v>
       </c>
       <c r="R58" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S58">
         <v>50</v>
@@ -5070,16 +5076,16 @@
         <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J59" s="1">
         <v>6.5</v>
       </c>
       <c r="K59" s="1">
-        <v>8.969999999999999</v>
+        <v>8.97</v>
       </c>
       <c r="L59" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="M59" s="3">
         <v>0.38</v>
@@ -5097,7 +5103,7 @@
         <v>170</v>
       </c>
       <c r="R59" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -5132,16 +5138,16 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J60" s="1">
         <v>14.3</v>
       </c>
       <c r="K60" s="1">
-        <v>19.733999999999998</v>
+        <v>19.73</v>
       </c>
       <c r="L60" s="1">
-        <v>22.165000000000003</v>
+        <v>22.17</v>
       </c>
       <c r="M60" s="3">
         <v>0.38</v>
@@ -5159,13 +5165,13 @@
         <v>173</v>
       </c>
       <c r="R60" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5194,16 +5200,16 @@
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J61" s="1">
         <v>13</v>
       </c>
       <c r="K61" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L61" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M61" s="3">
         <v>0.38</v>
@@ -5221,7 +5227,7 @@
         <v>175</v>
       </c>
       <c r="R61" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -5262,10 +5268,10 @@
         <v>13</v>
       </c>
       <c r="K62" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L62" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M62" s="3">
         <v>0.38</v>
@@ -5283,7 +5289,7 @@
         <v>178</v>
       </c>
       <c r="R62" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -5306,7 +5312,7 @@
         <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1">
         <v>2.5</v>
@@ -5324,10 +5330,10 @@
         <v>6.5</v>
       </c>
       <c r="K63" s="1">
-        <v>8.969999999999999</v>
+        <v>8.97</v>
       </c>
       <c r="L63" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="M63" s="3">
         <v>0.38</v>
@@ -5345,7 +5351,7 @@
         <v>180</v>
       </c>
       <c r="R63" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -5383,13 +5389,13 @@
         <v>23</v>
       </c>
       <c r="J64" s="1">
-        <v>14.040000000000001</v>
+        <v>14.04</v>
       </c>
       <c r="K64" s="1">
-        <v>19.3752</v>
+        <v>19.38</v>
       </c>
       <c r="L64" s="1">
-        <v>21.762</v>
+        <v>21.76</v>
       </c>
       <c r="M64" s="3">
         <v>0.38</v>
@@ -5407,7 +5413,7 @@
         <v>183</v>
       </c>
       <c r="R64" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -5448,10 +5454,10 @@
         <v>27.3</v>
       </c>
       <c r="K65" s="1">
-        <v>37.674</v>
+        <v>37.67</v>
       </c>
       <c r="L65" s="1">
-        <v>42.315000000000005</v>
+        <v>42.32</v>
       </c>
       <c r="M65" s="3">
         <v>0.38</v>
@@ -5469,13 +5475,13 @@
         <v>183</v>
       </c>
       <c r="R65" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5507,13 +5513,13 @@
         <v>23</v>
       </c>
       <c r="J66" s="1">
-        <v>5.866250000000001</v>
+        <v>5.87</v>
       </c>
       <c r="K66" s="1">
-        <v>8.095425</v>
+        <v>8.1</v>
       </c>
       <c r="L66" s="1">
-        <v>9.092687500000002</v>
+        <v>9.09</v>
       </c>
       <c r="M66" s="3">
         <v>0.38</v>
@@ -5534,7 +5540,7 @@
         <v>24</v>
       </c>
       <c r="S66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T66" t="s">
         <v>24</v>
@@ -5554,28 +5560,28 @@
         <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="F67" s="1">
         <v>21.5</v>
       </c>
       <c r="G67" s="2">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H67" s="2">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="I67" t="s">
         <v>23</v>
       </c>
       <c r="J67" s="1">
-        <v>13.975</v>
+        <v>17.12</v>
       </c>
       <c r="K67" s="1">
-        <v>19.2855</v>
+        <v>23.62</v>
       </c>
       <c r="L67" s="1">
-        <v>21.66125</v>
+        <v>26.54</v>
       </c>
       <c r="M67" s="3">
         <v>0.38</v>
@@ -5590,13 +5596,13 @@
         <v>24</v>
       </c>
       <c r="Q67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R67" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T67" t="s">
         <v>24</v>
@@ -5613,10 +5619,10 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F68" s="1">
         <v>15.5</v>
@@ -5631,13 +5637,13 @@
         <v>23</v>
       </c>
       <c r="J68" s="1">
-        <v>13.097500000000002</v>
+        <v>13.1</v>
       </c>
       <c r="K68" s="1">
-        <v>18.074550000000002</v>
+        <v>18.07</v>
       </c>
       <c r="L68" s="1">
-        <v>20.301125000000003</v>
+        <v>20.3</v>
       </c>
       <c r="M68" s="3">
         <v>0.38</v>
@@ -5652,10 +5658,10 @@
         <v>24</v>
       </c>
       <c r="Q68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R68" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5675,7 +5681,7 @@
         <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
         <v>49</v>
@@ -5693,13 +5699,13 @@
         <v>23</v>
       </c>
       <c r="J69" s="1">
-        <v>19.84125</v>
+        <v>19.84</v>
       </c>
       <c r="K69" s="1">
-        <v>27.380924999999998</v>
+        <v>27.38</v>
       </c>
       <c r="L69" s="1">
-        <v>30.7539375</v>
+        <v>30.75</v>
       </c>
       <c r="M69" s="3">
         <v>0.38</v>
@@ -5714,16 +5720,16 @@
         <v>24</v>
       </c>
       <c r="Q69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R69" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5737,7 +5743,7 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E70" t="s">
         <v>82</v>
@@ -5755,13 +5761,13 @@
         <v>23</v>
       </c>
       <c r="J70" s="1">
-        <v>15.4375</v>
+        <v>15.44</v>
       </c>
       <c r="K70" s="1">
-        <v>21.303749999999997</v>
+        <v>21.3</v>
       </c>
       <c r="L70" s="1">
-        <v>23.928125</v>
+        <v>23.93</v>
       </c>
       <c r="M70" s="3">
         <v>0.38</v>
@@ -5776,16 +5782,16 @@
         <v>24</v>
       </c>
       <c r="Q70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R70" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5799,10 +5805,10 @@
         <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1">
         <v>19</v>
@@ -5817,13 +5823,13 @@
         <v>23</v>
       </c>
       <c r="J71" s="1">
-        <v>27.7875</v>
+        <v>27.79</v>
       </c>
       <c r="K71" s="1">
-        <v>38.34675</v>
+        <v>38.35</v>
       </c>
       <c r="L71" s="1">
-        <v>43.07062500000001</v>
+        <v>43.07</v>
       </c>
       <c r="M71" s="3">
         <v>0.38</v>
@@ -5838,10 +5844,10 @@
         <v>24</v>
       </c>
       <c r="Q71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R71" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5861,10 +5867,10 @@
         <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F72" s="1">
         <v>20</v>
@@ -5882,10 +5888,10 @@
         <v>32.5</v>
       </c>
       <c r="K72" s="1">
-        <v>44.849999999999994</v>
+        <v>44.85</v>
       </c>
       <c r="L72" s="1">
-        <v>50.375</v>
+        <v>50.38</v>
       </c>
       <c r="M72" s="3">
         <v>0.38</v>
@@ -5900,10 +5906,10 @@
         <v>24</v>
       </c>
       <c r="Q72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R72" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5923,10 +5929,10 @@
         <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F73" s="1">
         <v>13</v>
@@ -5959,19 +5965,19 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q73" t="s">
         <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5985,7 +5991,7 @@
         <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s">
         <v>60</v>
@@ -6003,13 +6009,13 @@
         <v>23</v>
       </c>
       <c r="J74" s="1">
-        <v>13.975</v>
+        <v>13.97</v>
       </c>
       <c r="K74" s="1">
-        <v>19.2855</v>
+        <v>19.29</v>
       </c>
       <c r="L74" s="1">
-        <v>21.66125</v>
+        <v>21.66</v>
       </c>
       <c r="M74" s="3">
         <v>0.38</v>
@@ -6024,13 +6030,13 @@
         <v>24</v>
       </c>
       <c r="Q74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T74" t="s">
         <v>24</v>
@@ -6047,10 +6053,10 @@
         <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F75" s="1">
         <v>21.5</v>
@@ -6065,13 +6071,13 @@
         <v>23</v>
       </c>
       <c r="J75" s="1">
-        <v>39.129999999999995</v>
+        <v>39.13</v>
       </c>
       <c r="K75" s="1">
-        <v>53.99939999999999</v>
+        <v>54</v>
       </c>
       <c r="L75" s="1">
-        <v>60.65149999999999</v>
+        <v>60.65</v>
       </c>
       <c r="M75" s="3">
         <v>0.38</v>
@@ -6086,16 +6092,16 @@
         <v>24</v>
       </c>
       <c r="Q75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -6106,13 +6112,13 @@
         <v>941005</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F76" s="1">
         <v>12</v>
@@ -6124,16 +6130,16 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J76" s="1">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K76" s="1">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="L76" s="1">
-        <v>12.090000000000002</v>
+        <v>12.09</v>
       </c>
       <c r="M76" s="3">
         <v>0.38</v>
@@ -6148,10 +6154,10 @@
         <v>24</v>
       </c>
       <c r="Q76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R76" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -6168,13 +6174,13 @@
         <v>805459</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F77" s="1">
         <v>7</v>
@@ -6186,16 +6192,16 @@
         <v>0.5</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J77" s="1">
         <v>4.55</v>
       </c>
       <c r="K77" s="1">
-        <v>6.278999999999999</v>
+        <v>6.28</v>
       </c>
       <c r="L77" s="1">
-        <v>7.0525</v>
+        <v>7.05</v>
       </c>
       <c r="M77" s="3">
         <v>0.38</v>
@@ -6210,10 +6216,10 @@
         <v>24</v>
       </c>
       <c r="Q77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R77" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -6230,13 +6236,13 @@
         <v>816242</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F78" s="1">
         <v>18</v>
@@ -6254,10 +6260,10 @@
         <v>14.04</v>
       </c>
       <c r="K78" s="1">
-        <v>19.375199999999996</v>
+        <v>19.38</v>
       </c>
       <c r="L78" s="1">
-        <v>21.762</v>
+        <v>21.76</v>
       </c>
       <c r="M78" s="3">
         <v>0.38</v>
@@ -6272,16 +6278,16 @@
         <v>24</v>
       </c>
       <c r="Q78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R78" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -6292,10 +6298,10 @@
         <v>805691</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
@@ -6316,10 +6322,10 @@
         <v>11.05</v>
       </c>
       <c r="K79" s="1">
-        <v>15.249</v>
+        <v>15.25</v>
       </c>
       <c r="L79" s="1">
-        <v>17.1275</v>
+        <v>17.13</v>
       </c>
       <c r="M79" s="3">
         <v>0.38</v>
@@ -6334,10 +6340,10 @@
         <v>24</v>
       </c>
       <c r="Q79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R79" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -6354,10 +6360,10 @@
         <v>813080</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
@@ -6375,13 +6381,13 @@
         <v>23</v>
       </c>
       <c r="J80" s="1">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K80" s="1">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="L80" s="1">
-        <v>12.090000000000002</v>
+        <v>12.09</v>
       </c>
       <c r="M80" s="3">
         <v>0.38</v>
@@ -6396,10 +6402,10 @@
         <v>24</v>
       </c>
       <c r="Q80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R80" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -6416,13 +6422,13 @@
         <v>813078</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F81" s="1">
         <v>2.5</v>
@@ -6440,10 +6446,10 @@
         <v>6.5</v>
       </c>
       <c r="K81" s="1">
-        <v>8.969999999999999</v>
+        <v>8.97</v>
       </c>
       <c r="L81" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="M81" s="3">
         <v>0.38</v>
@@ -6458,10 +6464,10 @@
         <v>24</v>
       </c>
       <c r="Q81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R81" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -6478,13 +6484,13 @@
         <v>805652</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F82" s="1">
         <v>17</v>
@@ -6499,13 +6505,13 @@
         <v>23</v>
       </c>
       <c r="J82" s="1">
-        <v>14.917500000000002</v>
+        <v>14.92</v>
       </c>
       <c r="K82" s="1">
-        <v>20.58615</v>
+        <v>20.59</v>
       </c>
       <c r="L82" s="1">
-        <v>23.122125000000004</v>
+        <v>23.12</v>
       </c>
       <c r="M82" s="3">
         <v>0.38</v>
@@ -6520,10 +6526,10 @@
         <v>24</v>
       </c>
       <c r="Q82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R82" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -6540,13 +6546,13 @@
         <v>832792</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F83" s="1">
         <v>19.5</v>
@@ -6561,13 +6567,13 @@
         <v>23</v>
       </c>
       <c r="J83" s="1">
-        <v>17.111250000000002</v>
+        <v>17.11</v>
       </c>
       <c r="K83" s="1">
-        <v>23.613525</v>
+        <v>23.61</v>
       </c>
       <c r="L83" s="1">
-        <v>26.522437500000002</v>
+        <v>26.52</v>
       </c>
       <c r="M83" s="3">
         <v>0.38</v>
@@ -6582,10 +6588,10 @@
         <v>24</v>
       </c>
       <c r="Q83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R83" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -6602,13 +6608,13 @@
         <v>861798</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F84" s="1">
         <v>17</v>
@@ -6623,13 +6629,13 @@
         <v>23</v>
       </c>
       <c r="J84" s="1">
-        <v>30.3875</v>
+        <v>30.39</v>
       </c>
       <c r="K84" s="1">
-        <v>41.934749999999994</v>
+        <v>41.93</v>
       </c>
       <c r="L84" s="1">
-        <v>47.100625</v>
+        <v>47.1</v>
       </c>
       <c r="M84" s="3">
         <v>0.38</v>
@@ -6644,10 +6650,10 @@
         <v>24</v>
       </c>
       <c r="Q84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R84" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6664,13 +6670,13 @@
         <v>940995</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F85" s="1">
         <v>19.5</v>
@@ -6685,13 +6691,13 @@
         <v>23</v>
       </c>
       <c r="J85" s="1">
-        <v>39.926249999999996</v>
+        <v>39.93</v>
       </c>
       <c r="K85" s="1">
-        <v>55.09822499999999</v>
+        <v>55.1</v>
       </c>
       <c r="L85" s="1">
-        <v>61.885687499999996</v>
+        <v>61.89</v>
       </c>
       <c r="M85" s="3">
         <v>0.38</v>
@@ -6706,10 +6712,10 @@
         <v>24</v>
       </c>
       <c r="Q85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R85" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6726,13 +6732,13 @@
         <v>805654</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F86" s="1">
         <v>19.5</v>
@@ -6747,13 +6753,13 @@
         <v>23</v>
       </c>
       <c r="J86" s="1">
-        <v>30.356625</v>
+        <v>30.36</v>
       </c>
       <c r="K86" s="1">
-        <v>41.8921425</v>
+        <v>41.89</v>
       </c>
       <c r="L86" s="1">
-        <v>47.052768750000006</v>
+        <v>47.05</v>
       </c>
       <c r="M86" s="3">
         <v>0.38</v>
@@ -6768,10 +6774,10 @@
         <v>24</v>
       </c>
       <c r="Q86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R86" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -6788,13 +6794,13 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F87" s="1">
         <v>12</v>
@@ -6827,19 +6833,19 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q87" t="s">
         <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -6850,13 +6856,13 @@
         <v>816241</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F88" s="1">
         <v>14.5</v>
@@ -6871,13 +6877,13 @@
         <v>23</v>
       </c>
       <c r="J88" s="1">
-        <v>23.5625</v>
+        <v>23.56</v>
       </c>
       <c r="K88" s="1">
-        <v>32.51625</v>
+        <v>32.52</v>
       </c>
       <c r="L88" s="1">
-        <v>36.521875</v>
+        <v>36.52</v>
       </c>
       <c r="M88" s="3">
         <v>0.38</v>
@@ -6892,10 +6898,10 @@
         <v>24</v>
       </c>
       <c r="Q88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R88" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -6912,13 +6918,13 @@
         <v>816246</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F89" s="1">
         <v>14.5</v>
@@ -6933,13 +6939,13 @@
         <v>23</v>
       </c>
       <c r="J89" s="1">
-        <v>9.896250000000002</v>
+        <v>9.9</v>
       </c>
       <c r="K89" s="1">
-        <v>13.656825000000001</v>
+        <v>13.66</v>
       </c>
       <c r="L89" s="1">
-        <v>15.339187500000003</v>
+        <v>15.34</v>
       </c>
       <c r="M89" s="3">
         <v>0.38</v>
@@ -6954,16 +6960,16 @@
         <v>24</v>
       </c>
       <c r="Q89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R89" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -6974,13 +6980,13 @@
         <v>813079</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F90" s="1">
         <v>9.5</v>
@@ -6992,16 +6998,16 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J90" s="1">
-        <v>6.175</v>
+        <v>6.17</v>
       </c>
       <c r="K90" s="1">
-        <v>8.5215</v>
+        <v>8.52</v>
       </c>
       <c r="L90" s="1">
-        <v>9.57125</v>
+        <v>9.57</v>
       </c>
       <c r="M90" s="3">
         <v>0.38</v>
@@ -7016,16 +7022,16 @@
         <v>24</v>
       </c>
       <c r="Q90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7036,13 +7042,13 @@
         <v>818957</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F91" s="1">
         <v>9.5</v>
@@ -7054,16 +7060,16 @@
         <v>0.5</v>
       </c>
       <c r="I91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J91" s="1">
-        <v>6.175</v>
+        <v>6.17</v>
       </c>
       <c r="K91" s="1">
-        <v>8.5215</v>
+        <v>8.52</v>
       </c>
       <c r="L91" s="1">
-        <v>9.57125</v>
+        <v>9.57</v>
       </c>
       <c r="M91" s="3">
         <v>0.38</v>
@@ -7078,16 +7084,16 @@
         <v>24</v>
       </c>
       <c r="Q91" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R91" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -7098,13 +7104,13 @@
         <v>805677</v>
       </c>
       <c r="C92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F92" s="1">
         <v>12</v>
@@ -7116,16 +7122,16 @@
         <v>0.5</v>
       </c>
       <c r="I92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J92" s="1">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K92" s="1">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="L92" s="1">
-        <v>12.090000000000002</v>
+        <v>12.09</v>
       </c>
       <c r="M92" s="3">
         <v>0.38</v>
@@ -7140,10 +7146,10 @@
         <v>24</v>
       </c>
       <c r="Q92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R92" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -7160,13 +7166,13 @@
         <v>805669</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F93" s="1">
         <v>18</v>
@@ -7184,10 +7190,10 @@
         <v>17.55</v>
       </c>
       <c r="K93" s="1">
-        <v>24.218999999999998</v>
+        <v>24.22</v>
       </c>
       <c r="L93" s="1">
-        <v>27.2025</v>
+        <v>27.2</v>
       </c>
       <c r="M93" s="3">
         <v>0.38</v>
@@ -7202,16 +7208,16 @@
         <v>24</v>
       </c>
       <c r="Q93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R93" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7222,13 +7228,13 @@
         <v>900315</v>
       </c>
       <c r="C94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F94" s="1">
         <v>18.5</v>
@@ -7243,13 +7249,13 @@
         <v>23</v>
       </c>
       <c r="J94" s="1">
-        <v>75.75750000000001</v>
+        <v>75.76</v>
       </c>
       <c r="K94" s="1">
-        <v>104.54535</v>
+        <v>104.55</v>
       </c>
       <c r="L94" s="1">
-        <v>117.42412500000002</v>
+        <v>117.42</v>
       </c>
       <c r="M94" s="3">
         <v>0.38</v>
@@ -7261,19 +7267,19 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7284,13 +7290,13 @@
         <v>805676</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F95" s="1">
         <v>15.5</v>
@@ -7305,13 +7311,13 @@
         <v>23</v>
       </c>
       <c r="J95" s="1">
-        <v>12.59375</v>
+        <v>12.59</v>
       </c>
       <c r="K95" s="1">
-        <v>17.379375</v>
+        <v>17.38</v>
       </c>
       <c r="L95" s="1">
-        <v>19.5203125</v>
+        <v>19.52</v>
       </c>
       <c r="M95" s="3">
         <v>0.38</v>
@@ -7326,16 +7332,16 @@
         <v>24</v>
       </c>
       <c r="Q95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R95" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -7346,34 +7352,34 @@
         <v>805679</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F96" s="1">
         <v>12</v>
       </c>
       <c r="G96" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H96" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
         <v>23</v>
       </c>
       <c r="J96" s="1">
-        <v>9.75</v>
+        <v>13.65</v>
       </c>
       <c r="K96" s="1">
-        <v>13.454999999999998</v>
+        <v>18.84</v>
       </c>
       <c r="L96" s="1">
-        <v>15.1125</v>
+        <v>21.16</v>
       </c>
       <c r="M96" s="3">
         <v>0.38</v>
@@ -7388,13 +7394,13 @@
         <v>24</v>
       </c>
       <c r="Q96" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R96" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T96" t="s">
         <v>24</v>
@@ -7408,13 +7414,13 @@
         <v>805673</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F97" s="1">
         <v>9</v>
@@ -7429,13 +7435,13 @@
         <v>23</v>
       </c>
       <c r="J97" s="1">
-        <v>32.175000000000004</v>
+        <v>32.18</v>
       </c>
       <c r="K97" s="1">
-        <v>44.401500000000006</v>
+        <v>44.4</v>
       </c>
       <c r="L97" s="1">
-        <v>49.87125000000001</v>
+        <v>49.87</v>
       </c>
       <c r="M97" s="3">
         <v>0.38</v>
@@ -7450,16 +7456,16 @@
         <v>24</v>
       </c>
       <c r="Q97" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R97" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -7470,13 +7476,13 @@
         <v>953035</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F98" s="1">
         <v>9.5</v>
@@ -7491,13 +7497,13 @@
         <v>23</v>
       </c>
       <c r="J98" s="1">
-        <v>28.435875000000003</v>
+        <v>28.44</v>
       </c>
       <c r="K98" s="1">
-        <v>39.241507500000004</v>
+        <v>39.24</v>
       </c>
       <c r="L98" s="1">
-        <v>44.07560625000001</v>
+        <v>44.08</v>
       </c>
       <c r="M98" s="3">
         <v>0.38</v>
@@ -7512,16 +7518,16 @@
         <v>24</v>
       </c>
       <c r="Q98" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R98" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -7532,13 +7538,13 @@
         <v>953036</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F99" s="1">
         <v>10</v>
@@ -7556,10 +7562,10 @@
         <v>24.05</v>
       </c>
       <c r="K99" s="1">
-        <v>33.189</v>
+        <v>33.19</v>
       </c>
       <c r="L99" s="1">
-        <v>37.2775</v>
+        <v>37.28</v>
       </c>
       <c r="M99" s="3">
         <v>0.38</v>
@@ -7574,16 +7580,16 @@
         <v>24</v>
       </c>
       <c r="Q99" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R99" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7594,13 +7600,13 @@
         <v>953039</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F100" s="1">
         <v>10.5</v>
@@ -7615,13 +7621,13 @@
         <v>23</v>
       </c>
       <c r="J100" s="1">
-        <v>19.417125</v>
+        <v>19.42</v>
       </c>
       <c r="K100" s="1">
-        <v>26.795632499999996</v>
+        <v>26.8</v>
       </c>
       <c r="L100" s="1">
-        <v>30.09654375</v>
+        <v>30.1</v>
       </c>
       <c r="M100" s="3">
         <v>0.38</v>
@@ -7636,16 +7642,16 @@
         <v>24</v>
       </c>
       <c r="Q100" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R100" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7656,13 +7662,13 @@
         <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D101" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F101" s="1">
         <v>12</v>
@@ -7677,13 +7683,13 @@
         <v>23</v>
       </c>
       <c r="J101" s="1">
-        <v>42.12000000000001</v>
+        <v>42.12</v>
       </c>
       <c r="K101" s="1">
-        <v>58.12560000000001</v>
+        <v>58.13</v>
       </c>
       <c r="L101" s="1">
-        <v>65.28600000000002</v>
+        <v>65.29</v>
       </c>
       <c r="M101" s="3">
         <v>0.38</v>
@@ -7695,19 +7701,19 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R101" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S101">
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -7718,13 +7724,13 @@
         <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F102" s="1">
         <v>12</v>
@@ -7739,13 +7745,13 @@
         <v>23</v>
       </c>
       <c r="J102" s="1">
-        <v>35.489999999999995</v>
+        <v>35.49</v>
       </c>
       <c r="K102" s="1">
-        <v>48.97619999999999</v>
+        <v>48.98</v>
       </c>
       <c r="L102" s="1">
-        <v>55.009499999999996</v>
+        <v>55.01</v>
       </c>
       <c r="M102" s="3">
         <v>0.38</v>
@@ -7757,19 +7763,19 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q102" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R102" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -7780,13 +7786,13 @@
         <v>805661</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F103" s="1">
         <v>12</v>
@@ -7804,10 +7810,10 @@
         <v>27.3</v>
       </c>
       <c r="K103" s="1">
-        <v>37.674</v>
+        <v>37.67</v>
       </c>
       <c r="L103" s="1">
-        <v>42.315000000000005</v>
+        <v>42.32</v>
       </c>
       <c r="M103" s="3">
         <v>0.38</v>
@@ -7822,16 +7828,16 @@
         <v>24</v>
       </c>
       <c r="Q103" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R103" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -7842,13 +7848,13 @@
         <v>805685</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D104" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F104" s="1">
         <v>18.5</v>
@@ -7860,16 +7866,16 @@
         <v>3.8</v>
       </c>
       <c r="I104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J104" s="1">
-        <v>12.025</v>
+        <v>12.03</v>
       </c>
       <c r="K104" s="1">
-        <v>16.5945</v>
+        <v>16.59</v>
       </c>
       <c r="L104" s="1">
-        <v>18.63875</v>
+        <v>18.64</v>
       </c>
       <c r="M104" s="3">
         <v>0.38</v>
@@ -7884,16 +7890,16 @@
         <v>24</v>
       </c>
       <c r="Q104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R104" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S104">
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -7904,13 +7910,13 @@
         <v>814849</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F105" s="1">
         <v>12</v>
@@ -7922,16 +7928,16 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J105" s="1">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K105" s="1">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="L105" s="1">
-        <v>12.090000000000002</v>
+        <v>12.09</v>
       </c>
       <c r="M105" s="3">
         <v>0.38</v>
@@ -7946,16 +7952,16 @@
         <v>24</v>
       </c>
       <c r="Q105" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R105" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S105">
         <v>2</v>
       </c>
       <c r="T105" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -7966,10 +7972,10 @@
         <v>805653</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E106" t="s">
         <v>165</v>
@@ -7984,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J106" s="1">
-        <v>9.425</v>
+        <v>9.43</v>
       </c>
       <c r="K106" s="1">
-        <v>13.0065</v>
+        <v>13.01</v>
       </c>
       <c r="L106" s="1">
-        <v>14.608750000000002</v>
+        <v>14.61</v>
       </c>
       <c r="M106" s="3">
         <v>0.38</v>
@@ -8008,10 +8014,10 @@
         <v>24</v>
       </c>
       <c r="Q106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R106" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S106">
         <v>0</v>
@@ -8028,10 +8034,10 @@
         <v>805724</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
         <v>165</v>
@@ -8046,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J107" s="1">
-        <v>11.375</v>
+        <v>11.38</v>
       </c>
       <c r="K107" s="1">
-        <v>15.697499999999998</v>
+        <v>15.7</v>
       </c>
       <c r="L107" s="1">
-        <v>17.63125</v>
+        <v>17.63</v>
       </c>
       <c r="M107" s="3">
         <v>0.38</v>
@@ -8070,10 +8076,10 @@
         <v>24</v>
       </c>
       <c r="Q107" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R107" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -8090,10 +8096,10 @@
         <v>813084</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D108" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E108" t="s">
         <v>134</v>
@@ -8108,16 +8114,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J108" s="1">
-        <v>12.675</v>
+        <v>12.68</v>
       </c>
       <c r="K108" s="1">
-        <v>17.4915</v>
+        <v>17.49</v>
       </c>
       <c r="L108" s="1">
-        <v>19.646250000000002</v>
+        <v>19.65</v>
       </c>
       <c r="M108" s="3">
         <v>0.38</v>
@@ -8132,10 +8138,10 @@
         <v>24</v>
       </c>
       <c r="Q108" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R108" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -8152,10 +8158,10 @@
         <v>813086</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E109" t="s">
         <v>134</v>
@@ -8170,16 +8176,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J109" s="1">
-        <v>10.075000000000001</v>
+        <v>10.08</v>
       </c>
       <c r="K109" s="1">
-        <v>13.903500000000001</v>
+        <v>13.9</v>
       </c>
       <c r="L109" s="1">
-        <v>15.616250000000003</v>
+        <v>15.62</v>
       </c>
       <c r="M109" s="3">
         <v>0.38</v>
@@ -8194,10 +8200,10 @@
         <v>24</v>
       </c>
       <c r="Q109" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R109" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -8214,10 +8220,10 @@
         <v>805686</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E110" t="s">
         <v>134</v>
@@ -8232,16 +8238,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J110" s="1">
-        <v>12.675</v>
+        <v>12.68</v>
       </c>
       <c r="K110" s="1">
-        <v>17.4915</v>
+        <v>17.49</v>
       </c>
       <c r="L110" s="1">
-        <v>19.646250000000002</v>
+        <v>19.65</v>
       </c>
       <c r="M110" s="3">
         <v>0.38</v>
@@ -8256,10 +8262,10 @@
         <v>24</v>
       </c>
       <c r="Q110" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="R110" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -8276,10 +8282,10 @@
         <v>805693</v>
       </c>
       <c r="C111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
         <v>165</v>
@@ -8294,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J111" s="1">
-        <v>12.675</v>
+        <v>12.68</v>
       </c>
       <c r="K111" s="1">
-        <v>17.4915</v>
+        <v>17.49</v>
       </c>
       <c r="L111" s="1">
-        <v>19.646250000000002</v>
+        <v>19.65</v>
       </c>
       <c r="M111" s="3">
         <v>0.38</v>
@@ -8318,16 +8324,16 @@
         <v>24</v>
       </c>
       <c r="Q111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R111" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -8338,10 +8344,10 @@
         <v>882704</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D112" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E112" t="s">
         <v>134</v>
@@ -8356,16 +8362,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J112" s="1">
-        <v>13.975</v>
+        <v>13.97</v>
       </c>
       <c r="K112" s="1">
-        <v>19.2855</v>
+        <v>19.29</v>
       </c>
       <c r="L112" s="1">
-        <v>21.66125</v>
+        <v>21.66</v>
       </c>
       <c r="M112" s="3">
         <v>0.38</v>
@@ -8380,30 +8386,30 @@
         <v>24</v>
       </c>
       <c r="Q112" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="R112" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>86</v>
       </c>
-      <c r="B113" t="s">
-        <v>57</v>
+      <c r="B113">
+        <v>963826</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D113" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E113" t="s">
         <v>134</v>
@@ -8418,16 +8424,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J113" s="1">
-        <v>13.975</v>
+        <v>13.97</v>
       </c>
       <c r="K113" s="1">
-        <v>19.2855</v>
+        <v>19.29</v>
       </c>
       <c r="L113" s="1">
-        <v>21.66125</v>
+        <v>21.66</v>
       </c>
       <c r="M113" s="3">
         <v>0.38</v>
@@ -8439,19 +8445,19 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q113" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R113" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -8462,13 +8468,13 @@
         <v>805713</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D114" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E114" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F114" s="1">
         <v>16.5</v>
@@ -8480,16 +8486,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J114" s="1">
-        <v>10.725</v>
+        <v>10.72</v>
       </c>
       <c r="K114" s="1">
-        <v>14.800499999999998</v>
+        <v>14.8</v>
       </c>
       <c r="L114" s="1">
-        <v>16.62375</v>
+        <v>16.62</v>
       </c>
       <c r="M114" s="3">
         <v>0.38</v>
@@ -8504,10 +8510,10 @@
         <v>24</v>
       </c>
       <c r="Q114" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R114" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -8524,10 +8530,10 @@
         <v>827440</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E115" t="s">
         <v>134</v>
@@ -8542,16 +8548,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J115" s="1">
         <v>13</v>
       </c>
       <c r="K115" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L115" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M115" s="3">
         <v>0.38</v>
@@ -8566,10 +8572,10 @@
         <v>24</v>
       </c>
       <c r="Q115" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R115" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -8586,13 +8592,13 @@
         <v>901753</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D116" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E116" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F116" s="1">
         <v>21.5</v>
@@ -8604,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1">
-        <v>13.975</v>
+        <v>13.97</v>
       </c>
       <c r="K116" s="1">
-        <v>19.2855</v>
+        <v>19.29</v>
       </c>
       <c r="L116" s="1">
-        <v>21.66125</v>
+        <v>21.66</v>
       </c>
       <c r="M116" s="3">
         <v>0.38</v>
@@ -8628,16 +8634,16 @@
         <v>24</v>
       </c>
       <c r="Q116" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="R116" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S116">
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -8648,13 +8654,13 @@
         <v>859028</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D117" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F117" s="1">
         <v>18</v>
@@ -8666,16 +8672,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J117" s="1">
-        <v>11.700000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="K117" s="1">
-        <v>16.146</v>
+        <v>16.15</v>
       </c>
       <c r="L117" s="1">
-        <v>18.135</v>
+        <v>18.14</v>
       </c>
       <c r="M117" s="3">
         <v>0.38</v>
@@ -8690,10 +8696,10 @@
         <v>24</v>
       </c>
       <c r="Q117" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R117" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -8710,13 +8716,13 @@
         <v>805675</v>
       </c>
       <c r="C118" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E118" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F118" s="1">
         <v>18</v>
@@ -8728,16 +8734,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J118" s="1">
-        <v>11.700000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="K118" s="1">
-        <v>16.146</v>
+        <v>16.15</v>
       </c>
       <c r="L118" s="1">
-        <v>18.135</v>
+        <v>18.14</v>
       </c>
       <c r="M118" s="3">
         <v>0.38</v>
@@ -8752,16 +8758,16 @@
         <v>24</v>
       </c>
       <c r="Q118" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="R118" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -8772,10 +8778,10 @@
         <v>805719</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E119" t="s">
         <v>165</v>
@@ -8790,16 +8796,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J119" s="1">
         <v>13</v>
       </c>
       <c r="K119" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L119" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M119" s="3">
         <v>0.38</v>
@@ -8814,10 +8820,10 @@
         <v>24</v>
       </c>
       <c r="Q119" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="R119" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -8834,13 +8840,13 @@
         <v>805720</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D120" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E120" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F120" s="1">
         <v>18</v>
@@ -8852,16 +8858,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J120" s="1">
-        <v>11.700000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="K120" s="1">
-        <v>16.146</v>
+        <v>16.15</v>
       </c>
       <c r="L120" s="1">
-        <v>18.135</v>
+        <v>18.14</v>
       </c>
       <c r="M120" s="3">
         <v>0.38</v>
@@ -8876,10 +8882,10 @@
         <v>24</v>
       </c>
       <c r="Q120" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="R120" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -8896,13 +8902,13 @@
         <v>805721</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E121" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F121" s="1">
         <v>20</v>
@@ -8914,16 +8920,16 @@
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J121" s="1">
         <v>13</v>
       </c>
       <c r="K121" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L121" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M121" s="3">
         <v>0.38</v>
@@ -8938,10 +8944,10 @@
         <v>24</v>
       </c>
       <c r="Q121" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R121" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -8958,13 +8964,13 @@
         <v>858286</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D122" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" t="s">
         <v>324</v>
-      </c>
-      <c r="E122" t="s">
-        <v>322</v>
       </c>
       <c r="F122" s="1">
         <v>9</v>
@@ -8976,16 +8982,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J122" s="1">
-        <v>5.8500000000000005</v>
+        <v>5.85</v>
       </c>
       <c r="K122" s="1">
-        <v>8.073</v>
+        <v>8.07</v>
       </c>
       <c r="L122" s="1">
-        <v>9.0675</v>
+        <v>9.07</v>
       </c>
       <c r="M122" s="3">
         <v>0.38</v>
@@ -9000,10 +9006,10 @@
         <v>24</v>
       </c>
       <c r="Q122" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R122" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -9020,10 +9026,10 @@
         <v>805682</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D123" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E123" t="s">
         <v>134</v>
@@ -9038,16 +9044,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J123" s="1">
-        <v>12.675</v>
+        <v>12.68</v>
       </c>
       <c r="K123" s="1">
-        <v>17.4915</v>
+        <v>17.49</v>
       </c>
       <c r="L123" s="1">
-        <v>19.646250000000002</v>
+        <v>19.65</v>
       </c>
       <c r="M123" s="3">
         <v>0.38</v>
@@ -9062,10 +9068,10 @@
         <v>24</v>
       </c>
       <c r="Q123" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="R123" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -9082,10 +9088,10 @@
         <v>805670</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D124" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E124" t="s">
         <v>165</v>
@@ -9100,16 +9106,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J124" s="1">
         <v>13</v>
       </c>
       <c r="K124" s="1">
-        <v>17.939999999999998</v>
+        <v>17.94</v>
       </c>
       <c r="L124" s="1">
-        <v>20.150000000000002</v>
+        <v>20.15</v>
       </c>
       <c r="M124" s="3">
         <v>0.38</v>
@@ -9124,10 +9130,10 @@
         <v>24</v>
       </c>
       <c r="Q124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R124" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -9144,10 +9150,10 @@
         <v>805678</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D125" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E125" t="s">
         <v>165</v>
@@ -9162,16 +9168,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J125" s="1">
-        <v>10.725</v>
+        <v>10.72</v>
       </c>
       <c r="K125" s="1">
-        <v>14.800499999999998</v>
+        <v>14.8</v>
       </c>
       <c r="L125" s="1">
-        <v>16.62375</v>
+        <v>16.62</v>
       </c>
       <c r="M125" s="3">
         <v>0.38</v>
@@ -9186,10 +9192,10 @@
         <v>24</v>
       </c>
       <c r="Q125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="R125" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -9206,13 +9212,13 @@
         <v>940154</v>
       </c>
       <c r="C126" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D126" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E126" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F126" s="1">
         <v>11</v>
@@ -9224,16 +9230,16 @@
         <v>0.5</v>
       </c>
       <c r="I126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J126" s="1">
         <v>7.15</v>
       </c>
       <c r="K126" s="1">
-        <v>9.866999999999999</v>
+        <v>9.87</v>
       </c>
       <c r="L126" s="1">
-        <v>11.082500000000001</v>
+        <v>11.08</v>
       </c>
       <c r="M126" s="3">
         <v>0.38</v>
@@ -9248,10 +9254,10 @@
         <v>24</v>
       </c>
       <c r="Q126" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="R126" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S126">
         <v>0</v>
@@ -9268,10 +9274,10 @@
         <v>805687</v>
       </c>
       <c r="C127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D127" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E127" t="s">
         <v>165</v>
@@ -9286,16 +9292,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J127" s="1">
         <v>11.05</v>
       </c>
       <c r="K127" s="1">
-        <v>15.249</v>
+        <v>15.25</v>
       </c>
       <c r="L127" s="1">
-        <v>17.1275</v>
+        <v>17.13</v>
       </c>
       <c r="M127" s="3">
         <v>0.38</v>
@@ -9310,16 +9316,16 @@
         <v>24</v>
       </c>
       <c r="Q127" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R127" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S127">
         <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -9330,10 +9336,10 @@
         <v>805692</v>
       </c>
       <c r="C128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D128" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E128" t="s">
         <v>134</v>
@@ -9348,16 +9354,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J128" s="1">
-        <v>12.675</v>
+        <v>12.68</v>
       </c>
       <c r="K128" s="1">
-        <v>17.4915</v>
+        <v>17.49</v>
       </c>
       <c r="L128" s="1">
-        <v>19.646250000000002</v>
+        <v>19.65</v>
       </c>
       <c r="M128" s="3">
         <v>0.38</v>
@@ -9372,10 +9378,10 @@
         <v>24</v>
       </c>
       <c r="Q128" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="R128" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -9392,13 +9398,13 @@
         <v>805694</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D129" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E129" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F129" s="1">
         <v>18</v>
@@ -9410,16 +9416,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J129" s="1">
-        <v>11.700000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="K129" s="1">
-        <v>16.146</v>
+        <v>16.15</v>
       </c>
       <c r="L129" s="1">
-        <v>18.135</v>
+        <v>18.14</v>
       </c>
       <c r="M129" s="3">
         <v>0.38</v>
@@ -9434,10 +9440,10 @@
         <v>24</v>
       </c>
       <c r="Q129" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="R129" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S129">
         <v>0</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1551,13 +1551,13 @@
         <v>29.15</v>
       </c>
       <c r="L2" s="1">
-        <v>32.74</v>
+        <v>32.53</v>
       </c>
       <c r="M2" s="3">
         <v>0.38</v>
       </c>
       <c r="N2" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1613,13 +1613,13 @@
         <v>48.8</v>
       </c>
       <c r="L3" s="1">
-        <v>54.81</v>
+        <v>54.45</v>
       </c>
       <c r="M3" s="3">
         <v>0.38</v>
       </c>
       <c r="N3" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1675,13 +1675,13 @@
         <v>9.87</v>
       </c>
       <c r="L4" s="1">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="M4" s="3">
         <v>0.38</v>
       </c>
       <c r="N4" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1737,13 +1737,13 @@
         <v>20.99</v>
       </c>
       <c r="L5" s="1">
-        <v>23.58</v>
+        <v>23.42</v>
       </c>
       <c r="M5" s="3">
         <v>0.38</v>
       </c>
       <c r="N5" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1799,13 +1799,13 @@
         <v>25.56</v>
       </c>
       <c r="L6" s="1">
-        <v>28.71</v>
+        <v>28.53</v>
       </c>
       <c r="M6" s="3">
         <v>0.38</v>
       </c>
       <c r="N6" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1861,13 +1861,13 @@
         <v>20.99</v>
       </c>
       <c r="L7" s="1">
-        <v>23.58</v>
+        <v>23.42</v>
       </c>
       <c r="M7" s="3">
         <v>0.38</v>
       </c>
       <c r="N7" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1923,13 +1923,13 @@
         <v>25.65</v>
       </c>
       <c r="L8" s="1">
-        <v>28.81</v>
+        <v>28.63</v>
       </c>
       <c r="M8" s="3">
         <v>0.38</v>
       </c>
       <c r="N8" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1985,13 +1985,13 @@
         <v>13.45</v>
       </c>
       <c r="L9" s="1">
-        <v>15.11</v>
+        <v>15.02</v>
       </c>
       <c r="M9" s="3">
         <v>0.38</v>
       </c>
       <c r="N9" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2047,13 +2047,13 @@
         <v>19.24</v>
       </c>
       <c r="L10" s="1">
-        <v>21.61</v>
+        <v>21.47</v>
       </c>
       <c r="M10" s="3">
         <v>0.38</v>
       </c>
       <c r="N10" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2109,13 +2109,13 @@
         <v>39.36</v>
       </c>
       <c r="L11" s="1">
-        <v>44.2</v>
+        <v>43.92</v>
       </c>
       <c r="M11" s="3">
         <v>0.38</v>
       </c>
       <c r="N11" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2171,13 +2171,13 @@
         <v>29.74</v>
       </c>
       <c r="L12" s="1">
-        <v>33.4</v>
+        <v>33.18</v>
       </c>
       <c r="M12" s="3">
         <v>0.38</v>
       </c>
       <c r="N12" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2239,7 +2239,7 @@
         <v>0.38</v>
       </c>
       <c r="N13" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2295,13 +2295,13 @@
         <v>16.59</v>
       </c>
       <c r="L14" s="1">
-        <v>18.64</v>
+        <v>18.52</v>
       </c>
       <c r="M14" s="3">
         <v>0.38</v>
       </c>
       <c r="N14" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2357,13 +2357,13 @@
         <v>21.21</v>
       </c>
       <c r="L15" s="1">
-        <v>23.83</v>
+        <v>23.67</v>
       </c>
       <c r="M15" s="3">
         <v>0.38</v>
       </c>
       <c r="N15" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2419,13 +2419,13 @@
         <v>23.43</v>
       </c>
       <c r="L16" s="1">
-        <v>26.32</v>
+        <v>26.15</v>
       </c>
       <c r="M16" s="3">
         <v>0.38</v>
       </c>
       <c r="N16" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2481,13 +2481,13 @@
         <v>38.62</v>
       </c>
       <c r="L17" s="1">
-        <v>43.37</v>
+        <v>43.09</v>
       </c>
       <c r="M17" s="3">
         <v>0.38</v>
       </c>
       <c r="N17" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2543,13 +2543,13 @@
         <v>64.58</v>
       </c>
       <c r="L18" s="1">
-        <v>72.54</v>
+        <v>72.07</v>
       </c>
       <c r="M18" s="3">
         <v>0.38</v>
       </c>
       <c r="N18" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2605,13 +2605,13 @@
         <v>53.3</v>
       </c>
       <c r="L19" s="1">
-        <v>59.86</v>
+        <v>59.47</v>
       </c>
       <c r="M19" s="3">
         <v>0.38</v>
       </c>
       <c r="N19" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2667,13 +2667,13 @@
         <v>42.71</v>
       </c>
       <c r="L20" s="1">
-        <v>47.97</v>
+        <v>47.66</v>
       </c>
       <c r="M20" s="3">
         <v>0.38</v>
       </c>
       <c r="N20" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2729,13 +2729,13 @@
         <v>37.32</v>
       </c>
       <c r="L21" s="1">
-        <v>41.91</v>
+        <v>41.64</v>
       </c>
       <c r="M21" s="3">
         <v>0.38</v>
       </c>
       <c r="N21" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2791,13 +2791,13 @@
         <v>29.15</v>
       </c>
       <c r="L22" s="1">
-        <v>32.74</v>
+        <v>32.53</v>
       </c>
       <c r="M22" s="3">
         <v>0.38</v>
       </c>
       <c r="N22" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2853,13 +2853,13 @@
         <v>13.9</v>
       </c>
       <c r="L23" s="1">
-        <v>15.62</v>
+        <v>15.52</v>
       </c>
       <c r="M23" s="3">
         <v>0.38</v>
       </c>
       <c r="N23" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2915,13 +2915,13 @@
         <v>12.83</v>
       </c>
       <c r="L24" s="1">
-        <v>14.41</v>
+        <v>14.31</v>
       </c>
       <c r="M24" s="3">
         <v>0.38</v>
       </c>
       <c r="N24" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2977,13 +2977,13 @@
         <v>22.74</v>
       </c>
       <c r="L25" s="1">
-        <v>25.54</v>
+        <v>25.38</v>
       </c>
       <c r="M25" s="3">
         <v>0.38</v>
       </c>
       <c r="N25" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3039,13 +3039,13 @@
         <v>10.76</v>
       </c>
       <c r="L26" s="1">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="M26" s="3">
         <v>0.38</v>
       </c>
       <c r="N26" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3101,13 +3101,13 @@
         <v>23.23</v>
       </c>
       <c r="L27" s="1">
-        <v>26.09</v>
+        <v>25.93</v>
       </c>
       <c r="M27" s="3">
         <v>0.38</v>
       </c>
       <c r="N27" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3163,13 +3163,13 @@
         <v>10.76</v>
       </c>
       <c r="L28" s="1">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="M28" s="3">
         <v>0.38</v>
       </c>
       <c r="N28" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3225,13 +3225,13 @@
         <v>34.51</v>
       </c>
       <c r="L29" s="1">
-        <v>38.76</v>
+        <v>38.51</v>
       </c>
       <c r="M29" s="3">
         <v>0.38</v>
       </c>
       <c r="N29" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3287,13 +3287,13 @@
         <v>23.32</v>
       </c>
       <c r="L30" s="1">
-        <v>26.2</v>
+        <v>26.03</v>
       </c>
       <c r="M30" s="3">
         <v>0.38</v>
       </c>
       <c r="N30" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3349,13 +3349,13 @@
         <v>13.88</v>
       </c>
       <c r="L31" s="1">
-        <v>15.59</v>
+        <v>15.49</v>
       </c>
       <c r="M31" s="3">
         <v>0.38</v>
       </c>
       <c r="N31" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3411,13 +3411,13 @@
         <v>12.83</v>
       </c>
       <c r="L32" s="1">
-        <v>14.41</v>
+        <v>14.31</v>
       </c>
       <c r="M32" s="3">
         <v>0.38</v>
       </c>
       <c r="N32" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3473,13 +3473,13 @@
         <v>32.52</v>
       </c>
       <c r="L33" s="1">
-        <v>36.52</v>
+        <v>36.29</v>
       </c>
       <c r="M33" s="3">
         <v>0.38</v>
       </c>
       <c r="N33" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3535,13 +3535,13 @@
         <v>12.78</v>
       </c>
       <c r="L34" s="1">
-        <v>14.36</v>
+        <v>14.26</v>
       </c>
       <c r="M34" s="3">
         <v>0.38</v>
       </c>
       <c r="N34" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -3597,13 +3597,13 @@
         <v>23.32</v>
       </c>
       <c r="L35" s="1">
-        <v>26.2</v>
+        <v>26.03</v>
       </c>
       <c r="M35" s="3">
         <v>0.38</v>
       </c>
       <c r="N35" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -3659,13 +3659,13 @@
         <v>42.61</v>
       </c>
       <c r="L36" s="1">
-        <v>47.86</v>
+        <v>47.55</v>
       </c>
       <c r="M36" s="3">
         <v>0.38</v>
       </c>
       <c r="N36" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3721,13 +3721,13 @@
         <v>15.25</v>
       </c>
       <c r="L37" s="1">
-        <v>17.13</v>
+        <v>17.02</v>
       </c>
       <c r="M37" s="3">
         <v>0.38</v>
       </c>
       <c r="N37" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -3783,13 +3783,13 @@
         <v>22.42</v>
       </c>
       <c r="L38" s="1">
-        <v>25.19</v>
+        <v>25.03</v>
       </c>
       <c r="M38" s="3">
         <v>0.38</v>
       </c>
       <c r="N38" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -3845,13 +3845,13 @@
         <v>12.56</v>
       </c>
       <c r="L39" s="1">
-        <v>14.11</v>
+        <v>14.01</v>
       </c>
       <c r="M39" s="3">
         <v>0.38</v>
       </c>
       <c r="N39" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -3907,13 +3907,13 @@
         <v>17.94</v>
       </c>
       <c r="L40" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M40" s="3">
         <v>0.38</v>
       </c>
       <c r="N40" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -3969,13 +3969,13 @@
         <v>14.8</v>
       </c>
       <c r="L41" s="1">
-        <v>16.62</v>
+        <v>16.52</v>
       </c>
       <c r="M41" s="3">
         <v>0.38</v>
       </c>
       <c r="N41" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4031,13 +4031,13 @@
         <v>14.8</v>
       </c>
       <c r="L42" s="1">
-        <v>16.62</v>
+        <v>16.52</v>
       </c>
       <c r="M42" s="3">
         <v>0.38</v>
       </c>
       <c r="N42" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -4093,13 +4093,13 @@
         <v>14.8</v>
       </c>
       <c r="L43" s="1">
-        <v>16.62</v>
+        <v>16.52</v>
       </c>
       <c r="M43" s="3">
         <v>0.38</v>
       </c>
       <c r="N43" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -4155,13 +4155,13 @@
         <v>21.53</v>
       </c>
       <c r="L44" s="1">
-        <v>24.18</v>
+        <v>24.02</v>
       </c>
       <c r="M44" s="3">
         <v>0.38</v>
       </c>
       <c r="N44" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -4217,13 +4217,13 @@
         <v>14.8</v>
       </c>
       <c r="L45" s="1">
-        <v>16.62</v>
+        <v>16.52</v>
       </c>
       <c r="M45" s="3">
         <v>0.38</v>
       </c>
       <c r="N45" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -4279,13 +4279,13 @@
         <v>17.94</v>
       </c>
       <c r="L46" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M46" s="3">
         <v>0.38</v>
       </c>
       <c r="N46" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -4341,13 +4341,13 @@
         <v>17.94</v>
       </c>
       <c r="L47" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M47" s="3">
         <v>0.38</v>
       </c>
       <c r="N47" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4403,13 +4403,13 @@
         <v>17.94</v>
       </c>
       <c r="L48" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M48" s="3">
         <v>0.38</v>
       </c>
       <c r="N48" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -4465,13 +4465,13 @@
         <v>17.94</v>
       </c>
       <c r="L49" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M49" s="3">
         <v>0.38</v>
       </c>
       <c r="N49" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4527,13 +4527,13 @@
         <v>13.45</v>
       </c>
       <c r="L50" s="1">
-        <v>15.11</v>
+        <v>15.02</v>
       </c>
       <c r="M50" s="3">
         <v>0.38</v>
       </c>
       <c r="N50" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -4589,13 +4589,13 @@
         <v>17.94</v>
       </c>
       <c r="L51" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M51" s="3">
         <v>0.38</v>
       </c>
       <c r="N51" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4651,13 +4651,13 @@
         <v>17.94</v>
       </c>
       <c r="L52" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M52" s="3">
         <v>0.38</v>
       </c>
       <c r="N52" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -4713,13 +4713,13 @@
         <v>15.25</v>
       </c>
       <c r="L53" s="1">
-        <v>17.13</v>
+        <v>17.02</v>
       </c>
       <c r="M53" s="3">
         <v>0.38</v>
       </c>
       <c r="N53" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -4775,13 +4775,13 @@
         <v>17.94</v>
       </c>
       <c r="L54" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M54" s="3">
         <v>0.38</v>
       </c>
       <c r="N54" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -4837,13 +4837,13 @@
         <v>8.97</v>
       </c>
       <c r="L55" s="1">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="M55" s="3">
         <v>0.38</v>
       </c>
       <c r="N55" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -4899,13 +4899,13 @@
         <v>13.45</v>
       </c>
       <c r="L56" s="1">
-        <v>15.11</v>
+        <v>15.02</v>
       </c>
       <c r="M56" s="3">
         <v>0.38</v>
       </c>
       <c r="N56" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -4961,13 +4961,13 @@
         <v>8.97</v>
       </c>
       <c r="L57" s="1">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="M57" s="3">
         <v>0.38</v>
       </c>
       <c r="N57" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -5023,13 +5023,13 @@
         <v>14.35</v>
       </c>
       <c r="L58" s="1">
-        <v>16.12</v>
+        <v>16.02</v>
       </c>
       <c r="M58" s="3">
         <v>0.38</v>
       </c>
       <c r="N58" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -5085,13 +5085,13 @@
         <v>8.97</v>
       </c>
       <c r="L59" s="1">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="M59" s="3">
         <v>0.38</v>
       </c>
       <c r="N59" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -5147,13 +5147,13 @@
         <v>19.73</v>
       </c>
       <c r="L60" s="1">
-        <v>22.17</v>
+        <v>22.02</v>
       </c>
       <c r="M60" s="3">
         <v>0.38</v>
       </c>
       <c r="N60" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -5209,13 +5209,13 @@
         <v>17.94</v>
       </c>
       <c r="L61" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M61" s="3">
         <v>0.38</v>
       </c>
       <c r="N61" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -5271,13 +5271,13 @@
         <v>17.94</v>
       </c>
       <c r="L62" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M62" s="3">
         <v>0.38</v>
       </c>
       <c r="N62" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -5333,13 +5333,13 @@
         <v>8.97</v>
       </c>
       <c r="L63" s="1">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="M63" s="3">
         <v>0.38</v>
       </c>
       <c r="N63" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -5395,13 +5395,13 @@
         <v>19.38</v>
       </c>
       <c r="L64" s="1">
-        <v>21.76</v>
+        <v>21.62</v>
       </c>
       <c r="M64" s="3">
         <v>0.38</v>
       </c>
       <c r="N64" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -5457,13 +5457,13 @@
         <v>37.67</v>
       </c>
       <c r="L65" s="1">
-        <v>42.32</v>
+        <v>42.04</v>
       </c>
       <c r="M65" s="3">
         <v>0.38</v>
       </c>
       <c r="N65" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -5519,13 +5519,13 @@
         <v>8.1</v>
       </c>
       <c r="L66" s="1">
-        <v>9.09</v>
+        <v>9.03</v>
       </c>
       <c r="M66" s="3">
         <v>0.38</v>
       </c>
       <c r="N66" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -5581,13 +5581,13 @@
         <v>23.62</v>
       </c>
       <c r="L67" s="1">
-        <v>26.54</v>
+        <v>26.36</v>
       </c>
       <c r="M67" s="3">
         <v>0.38</v>
       </c>
       <c r="N67" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -5643,13 +5643,13 @@
         <v>18.07</v>
       </c>
       <c r="L68" s="1">
-        <v>20.3</v>
+        <v>20.17</v>
       </c>
       <c r="M68" s="3">
         <v>0.38</v>
       </c>
       <c r="N68" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -5705,13 +5705,13 @@
         <v>27.38</v>
       </c>
       <c r="L69" s="1">
-        <v>30.75</v>
+        <v>30.56</v>
       </c>
       <c r="M69" s="3">
         <v>0.38</v>
       </c>
       <c r="N69" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -5767,13 +5767,13 @@
         <v>21.3</v>
       </c>
       <c r="L70" s="1">
-        <v>23.93</v>
+        <v>23.77</v>
       </c>
       <c r="M70" s="3">
         <v>0.38</v>
       </c>
       <c r="N70" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5829,13 +5829,13 @@
         <v>38.35</v>
       </c>
       <c r="L71" s="1">
-        <v>43.07</v>
+        <v>42.79</v>
       </c>
       <c r="M71" s="3">
         <v>0.38</v>
       </c>
       <c r="N71" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -5891,13 +5891,13 @@
         <v>44.85</v>
       </c>
       <c r="L72" s="1">
-        <v>50.38</v>
+        <v>50.05</v>
       </c>
       <c r="M72" s="3">
         <v>0.38</v>
       </c>
       <c r="N72" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>0.38</v>
       </c>
       <c r="N73" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -6015,13 +6015,13 @@
         <v>19.29</v>
       </c>
       <c r="L74" s="1">
-        <v>21.66</v>
+        <v>21.52</v>
       </c>
       <c r="M74" s="3">
         <v>0.38</v>
       </c>
       <c r="N74" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -6077,13 +6077,13 @@
         <v>54</v>
       </c>
       <c r="L75" s="1">
-        <v>60.65</v>
+        <v>60.26</v>
       </c>
       <c r="M75" s="3">
         <v>0.38</v>
       </c>
       <c r="N75" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -6139,13 +6139,13 @@
         <v>10.76</v>
       </c>
       <c r="L76" s="1">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="M76" s="3">
         <v>0.38</v>
       </c>
       <c r="N76" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -6201,13 +6201,13 @@
         <v>6.28</v>
       </c>
       <c r="L77" s="1">
-        <v>7.05</v>
+        <v>7.01</v>
       </c>
       <c r="M77" s="3">
         <v>0.38</v>
       </c>
       <c r="N77" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -6263,13 +6263,13 @@
         <v>19.38</v>
       </c>
       <c r="L78" s="1">
-        <v>21.76</v>
+        <v>21.62</v>
       </c>
       <c r="M78" s="3">
         <v>0.38</v>
       </c>
       <c r="N78" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -6325,13 +6325,13 @@
         <v>15.25</v>
       </c>
       <c r="L79" s="1">
-        <v>17.13</v>
+        <v>17.02</v>
       </c>
       <c r="M79" s="3">
         <v>0.38</v>
       </c>
       <c r="N79" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -6387,13 +6387,13 @@
         <v>10.76</v>
       </c>
       <c r="L80" s="1">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="M80" s="3">
         <v>0.38</v>
       </c>
       <c r="N80" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -6449,13 +6449,13 @@
         <v>8.97</v>
       </c>
       <c r="L81" s="1">
-        <v>10.08</v>
+        <v>10.01</v>
       </c>
       <c r="M81" s="3">
         <v>0.38</v>
       </c>
       <c r="N81" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -6511,13 +6511,13 @@
         <v>20.59</v>
       </c>
       <c r="L82" s="1">
-        <v>23.12</v>
+        <v>22.97</v>
       </c>
       <c r="M82" s="3">
         <v>0.38</v>
       </c>
       <c r="N82" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -6573,13 +6573,13 @@
         <v>23.61</v>
       </c>
       <c r="L83" s="1">
-        <v>26.52</v>
+        <v>26.35</v>
       </c>
       <c r="M83" s="3">
         <v>0.38</v>
       </c>
       <c r="N83" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -6635,13 +6635,13 @@
         <v>41.93</v>
       </c>
       <c r="L84" s="1">
-        <v>47.1</v>
+        <v>46.8</v>
       </c>
       <c r="M84" s="3">
         <v>0.38</v>
       </c>
       <c r="N84" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -6697,13 +6697,13 @@
         <v>55.1</v>
       </c>
       <c r="L85" s="1">
-        <v>61.89</v>
+        <v>61.49</v>
       </c>
       <c r="M85" s="3">
         <v>0.38</v>
       </c>
       <c r="N85" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -6759,13 +6759,13 @@
         <v>41.89</v>
       </c>
       <c r="L86" s="1">
-        <v>47.05</v>
+        <v>46.75</v>
       </c>
       <c r="M86" s="3">
         <v>0.38</v>
       </c>
       <c r="N86" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -6827,7 +6827,7 @@
         <v>0.38</v>
       </c>
       <c r="N87" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -6883,13 +6883,13 @@
         <v>32.52</v>
       </c>
       <c r="L88" s="1">
-        <v>36.52</v>
+        <v>36.29</v>
       </c>
       <c r="M88" s="3">
         <v>0.38</v>
       </c>
       <c r="N88" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -6945,13 +6945,13 @@
         <v>13.66</v>
       </c>
       <c r="L89" s="1">
-        <v>15.34</v>
+        <v>15.24</v>
       </c>
       <c r="M89" s="3">
         <v>0.38</v>
       </c>
       <c r="N89" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O89">
         <v>1</v>
@@ -7007,13 +7007,13 @@
         <v>8.52</v>
       </c>
       <c r="L90" s="1">
-        <v>9.57</v>
+        <v>9.51</v>
       </c>
       <c r="M90" s="3">
         <v>0.38</v>
       </c>
       <c r="N90" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -7069,13 +7069,13 @@
         <v>8.52</v>
       </c>
       <c r="L91" s="1">
-        <v>9.57</v>
+        <v>9.51</v>
       </c>
       <c r="M91" s="3">
         <v>0.38</v>
       </c>
       <c r="N91" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -7131,13 +7131,13 @@
         <v>10.76</v>
       </c>
       <c r="L92" s="1">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="M92" s="3">
         <v>0.38</v>
       </c>
       <c r="N92" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -7193,13 +7193,13 @@
         <v>24.22</v>
       </c>
       <c r="L93" s="1">
-        <v>27.2</v>
+        <v>27.03</v>
       </c>
       <c r="M93" s="3">
         <v>0.38</v>
       </c>
       <c r="N93" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -7255,13 +7255,13 @@
         <v>104.55</v>
       </c>
       <c r="L94" s="1">
-        <v>117.42</v>
+        <v>116.67</v>
       </c>
       <c r="M94" s="3">
         <v>0.38</v>
       </c>
       <c r="N94" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -7317,13 +7317,13 @@
         <v>17.38</v>
       </c>
       <c r="L95" s="1">
-        <v>19.52</v>
+        <v>19.39</v>
       </c>
       <c r="M95" s="3">
         <v>0.38</v>
       </c>
       <c r="N95" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -7379,13 +7379,13 @@
         <v>18.84</v>
       </c>
       <c r="L96" s="1">
-        <v>21.16</v>
+        <v>21.02</v>
       </c>
       <c r="M96" s="3">
         <v>0.38</v>
       </c>
       <c r="N96" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -7441,13 +7441,13 @@
         <v>44.4</v>
       </c>
       <c r="L97" s="1">
-        <v>49.87</v>
+        <v>49.55</v>
       </c>
       <c r="M97" s="3">
         <v>0.38</v>
       </c>
       <c r="N97" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -7503,13 +7503,13 @@
         <v>39.24</v>
       </c>
       <c r="L98" s="1">
-        <v>44.08</v>
+        <v>43.79</v>
       </c>
       <c r="M98" s="3">
         <v>0.38</v>
       </c>
       <c r="N98" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -7565,13 +7565,13 @@
         <v>33.19</v>
       </c>
       <c r="L99" s="1">
-        <v>37.28</v>
+        <v>37.04</v>
       </c>
       <c r="M99" s="3">
         <v>0.38</v>
       </c>
       <c r="N99" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -7627,13 +7627,13 @@
         <v>26.8</v>
       </c>
       <c r="L100" s="1">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="M100" s="3">
         <v>0.38</v>
       </c>
       <c r="N100" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -7689,13 +7689,13 @@
         <v>58.13</v>
       </c>
       <c r="L101" s="1">
-        <v>65.29</v>
+        <v>64.86</v>
       </c>
       <c r="M101" s="3">
         <v>0.38</v>
       </c>
       <c r="N101" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -7751,13 +7751,13 @@
         <v>48.98</v>
       </c>
       <c r="L102" s="1">
-        <v>55.01</v>
+        <v>54.65</v>
       </c>
       <c r="M102" s="3">
         <v>0.38</v>
       </c>
       <c r="N102" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -7813,13 +7813,13 @@
         <v>37.67</v>
       </c>
       <c r="L103" s="1">
-        <v>42.32</v>
+        <v>42.04</v>
       </c>
       <c r="M103" s="3">
         <v>0.38</v>
       </c>
       <c r="N103" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -7875,13 +7875,13 @@
         <v>16.59</v>
       </c>
       <c r="L104" s="1">
-        <v>18.64</v>
+        <v>18.52</v>
       </c>
       <c r="M104" s="3">
         <v>0.38</v>
       </c>
       <c r="N104" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -7937,13 +7937,13 @@
         <v>10.76</v>
       </c>
       <c r="L105" s="1">
-        <v>12.09</v>
+        <v>12.01</v>
       </c>
       <c r="M105" s="3">
         <v>0.38</v>
       </c>
       <c r="N105" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -7999,13 +7999,13 @@
         <v>13.01</v>
       </c>
       <c r="L106" s="1">
-        <v>14.61</v>
+        <v>14.51</v>
       </c>
       <c r="M106" s="3">
         <v>0.38</v>
       </c>
       <c r="N106" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -8061,13 +8061,13 @@
         <v>15.7</v>
       </c>
       <c r="L107" s="1">
-        <v>17.63</v>
+        <v>17.52</v>
       </c>
       <c r="M107" s="3">
         <v>0.38</v>
       </c>
       <c r="N107" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -8123,13 +8123,13 @@
         <v>17.49</v>
       </c>
       <c r="L108" s="1">
-        <v>19.65</v>
+        <v>19.52</v>
       </c>
       <c r="M108" s="3">
         <v>0.38</v>
       </c>
       <c r="N108" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -8185,13 +8185,13 @@
         <v>13.9</v>
       </c>
       <c r="L109" s="1">
-        <v>15.62</v>
+        <v>15.52</v>
       </c>
       <c r="M109" s="3">
         <v>0.38</v>
       </c>
       <c r="N109" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -8247,13 +8247,13 @@
         <v>17.49</v>
       </c>
       <c r="L110" s="1">
-        <v>19.65</v>
+        <v>19.52</v>
       </c>
       <c r="M110" s="3">
         <v>0.38</v>
       </c>
       <c r="N110" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -8309,13 +8309,13 @@
         <v>17.49</v>
       </c>
       <c r="L111" s="1">
-        <v>19.65</v>
+        <v>19.52</v>
       </c>
       <c r="M111" s="3">
         <v>0.38</v>
       </c>
       <c r="N111" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -8371,13 +8371,13 @@
         <v>19.29</v>
       </c>
       <c r="L112" s="1">
-        <v>21.66</v>
+        <v>21.52</v>
       </c>
       <c r="M112" s="3">
         <v>0.38</v>
       </c>
       <c r="N112" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -8433,13 +8433,13 @@
         <v>19.29</v>
       </c>
       <c r="L113" s="1">
-        <v>21.66</v>
+        <v>21.52</v>
       </c>
       <c r="M113" s="3">
         <v>0.38</v>
       </c>
       <c r="N113" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -8495,13 +8495,13 @@
         <v>14.8</v>
       </c>
       <c r="L114" s="1">
-        <v>16.62</v>
+        <v>16.52</v>
       </c>
       <c r="M114" s="3">
         <v>0.38</v>
       </c>
       <c r="N114" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -8557,13 +8557,13 @@
         <v>17.94</v>
       </c>
       <c r="L115" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M115" s="3">
         <v>0.38</v>
       </c>
       <c r="N115" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O115">
         <v>1</v>
@@ -8619,13 +8619,13 @@
         <v>19.29</v>
       </c>
       <c r="L116" s="1">
-        <v>21.66</v>
+        <v>21.52</v>
       </c>
       <c r="M116" s="3">
         <v>0.38</v>
       </c>
       <c r="N116" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O116">
         <v>1</v>
@@ -8681,13 +8681,13 @@
         <v>16.15</v>
       </c>
       <c r="L117" s="1">
-        <v>18.14</v>
+        <v>18.02</v>
       </c>
       <c r="M117" s="3">
         <v>0.38</v>
       </c>
       <c r="N117" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -8743,13 +8743,13 @@
         <v>16.15</v>
       </c>
       <c r="L118" s="1">
-        <v>18.14</v>
+        <v>18.02</v>
       </c>
       <c r="M118" s="3">
         <v>0.38</v>
       </c>
       <c r="N118" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -8805,13 +8805,13 @@
         <v>17.94</v>
       </c>
       <c r="L119" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M119" s="3">
         <v>0.38</v>
       </c>
       <c r="N119" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -8867,13 +8867,13 @@
         <v>16.15</v>
       </c>
       <c r="L120" s="1">
-        <v>18.14</v>
+        <v>18.02</v>
       </c>
       <c r="M120" s="3">
         <v>0.38</v>
       </c>
       <c r="N120" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -8929,13 +8929,13 @@
         <v>17.94</v>
       </c>
       <c r="L121" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M121" s="3">
         <v>0.38</v>
       </c>
       <c r="N121" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -8991,13 +8991,13 @@
         <v>8.07</v>
       </c>
       <c r="L122" s="1">
-        <v>9.07</v>
+        <v>9.01</v>
       </c>
       <c r="M122" s="3">
         <v>0.38</v>
       </c>
       <c r="N122" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -9053,13 +9053,13 @@
         <v>17.49</v>
       </c>
       <c r="L123" s="1">
-        <v>19.65</v>
+        <v>19.52</v>
       </c>
       <c r="M123" s="3">
         <v>0.38</v>
       </c>
       <c r="N123" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -9115,13 +9115,13 @@
         <v>17.94</v>
       </c>
       <c r="L124" s="1">
-        <v>20.15</v>
+        <v>20.02</v>
       </c>
       <c r="M124" s="3">
         <v>0.38</v>
       </c>
       <c r="N124" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -9177,13 +9177,13 @@
         <v>14.8</v>
       </c>
       <c r="L125" s="1">
-        <v>16.62</v>
+        <v>16.52</v>
       </c>
       <c r="M125" s="3">
         <v>0.38</v>
       </c>
       <c r="N125" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O125">
         <v>1</v>
@@ -9239,13 +9239,13 @@
         <v>9.87</v>
       </c>
       <c r="L126" s="1">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="M126" s="3">
         <v>0.38</v>
       </c>
       <c r="N126" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -9301,13 +9301,13 @@
         <v>15.25</v>
       </c>
       <c r="L127" s="1">
-        <v>17.13</v>
+        <v>17.02</v>
       </c>
       <c r="M127" s="3">
         <v>0.38</v>
       </c>
       <c r="N127" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -9363,13 +9363,13 @@
         <v>17.49</v>
       </c>
       <c r="L128" s="1">
-        <v>19.65</v>
+        <v>19.52</v>
       </c>
       <c r="M128" s="3">
         <v>0.38</v>
       </c>
       <c r="N128" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -9425,13 +9425,13 @@
         <v>16.15</v>
       </c>
       <c r="L129" s="1">
-        <v>18.14</v>
+        <v>18.02</v>
       </c>
       <c r="M129" s="3">
         <v>0.38</v>
       </c>
       <c r="N129" s="3">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="O129">
         <v>1</v>

--- a/docs/masterPriceList.xlsx
+++ b/docs/masterPriceList.xlsx
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
